--- a/VA_result_HOT.xlsx
+++ b/VA_result_HOT.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t xml:space="preserve">time</t>
   </si>
@@ -392,6 +392,54 @@
     <t xml:space="preserve">2025-10-01</t>
   </si>
   <si>
+    <t xml:space="preserve">2026-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-10-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">VA_CST</t>
   </si>
   <si>
@@ -458,76 +506,76 @@
     <t xml:space="preserve">var_controle</t>
   </si>
   <si>
-    <t xml:space="preserve">-2.3283064365387e-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24.3296351252357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-8.98278712085448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-21.7335987043334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-21.8310506413691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-18.5257591308909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6.12958343565697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19320939452155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68448675749823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46097131888382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88704256189521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57044294901425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.46318165888079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-8.45077656407375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-7.64227049209876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32513118052157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887720855651423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.933352043386549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.23608479066752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-7.17563701060135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.47449894342571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.5128949561622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6.50201959139667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-8.557056401507</t>
+    <t xml:space="preserve">-1.16415321826935e-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-28.3660455141217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-8.84057177987415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-25.0630623634206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-25.1870202656137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20.9818513209466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.21054403361632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10601166053675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27561830775812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44667234166991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26100619439967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31368944142014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.36278169113211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-8.16391332750209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-7.13524249196053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36294202256249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42002281791065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75345377228223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.286387922475114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.90699708194006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.467482583364472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13916463137139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.13613117113709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.9557580454275</t>
   </si>
   <si>
     <t xml:space="preserve">valaj_brut</t>
@@ -568,7 +616,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
+        <fgColor rgb="FFB8F0F6"/>
       </patternFill>
     </fill>
   </fills>
@@ -2152,10 +2200,10 @@
         <v>99</v>
       </c>
       <c r="B96" t="n">
-        <v>1613970.17834358</v>
+        <v>1471505.73706592</v>
       </c>
       <c r="C96" t="n">
-        <v>161.397017834358</v>
+        <v>147.150573706592</v>
       </c>
     </row>
     <row r="97">
@@ -2185,10 +2233,10 @@
         <v>101</v>
       </c>
       <c r="B99" t="n">
-        <v>479904.861400734</v>
+        <v>713743.381764188</v>
       </c>
       <c r="C99" t="n">
-        <v>47.9904861400734</v>
+        <v>71.3743381764188</v>
       </c>
     </row>
     <row r="100">
@@ -2218,10 +2266,10 @@
         <v>104</v>
       </c>
       <c r="B102" t="n">
-        <v>877481.840007129</v>
+        <v>611024.294099188</v>
       </c>
       <c r="C102" t="n">
-        <v>87.7481840007129</v>
+        <v>61.1024294099188</v>
       </c>
     </row>
     <row r="103">
@@ -2229,10 +2277,10 @@
         <v>105</v>
       </c>
       <c r="B103" t="n">
-        <v>758710.436618458</v>
+        <v>506025.118782627</v>
       </c>
       <c r="C103" t="n">
-        <v>75.8710436618458</v>
+        <v>50.6025118782627</v>
       </c>
     </row>
     <row r="104">
@@ -2240,10 +2288,10 @@
         <v>106</v>
       </c>
       <c r="B104" t="n">
-        <v>860340.673380428</v>
+        <v>487686.092500611</v>
       </c>
       <c r="C104" t="n">
-        <v>86.0340673380428</v>
+        <v>48.7686092500611</v>
       </c>
     </row>
     <row r="105">
@@ -2251,10 +2299,10 @@
         <v>107</v>
       </c>
       <c r="B105" t="n">
-        <v>815104.312692025</v>
+        <v>638110.07520741</v>
       </c>
       <c r="C105" t="n">
-        <v>81.5104312692025</v>
+        <v>63.811007520741</v>
       </c>
     </row>
     <row r="106">
@@ -2262,10 +2310,10 @@
         <v>108</v>
       </c>
       <c r="B106" t="n">
-        <v>782747.618691541</v>
+        <v>562245.863527581</v>
       </c>
       <c r="C106" t="n">
-        <v>78.2747618691541</v>
+        <v>56.2245863527581</v>
       </c>
     </row>
     <row r="107">
@@ -2273,10 +2321,10 @@
         <v>109</v>
       </c>
       <c r="B107" t="n">
-        <v>682853.80040567</v>
+        <v>524527.857232372</v>
       </c>
       <c r="C107" t="n">
-        <v>68.285380040567</v>
+        <v>52.4527857232372</v>
       </c>
     </row>
     <row r="108">
@@ -2284,10 +2332,10 @@
         <v>110</v>
       </c>
       <c r="B108" t="n">
-        <v>871819.889524566</v>
+        <v>585572.712247143</v>
       </c>
       <c r="C108" t="n">
-        <v>87.1819889524566</v>
+        <v>58.5572712247143</v>
       </c>
     </row>
     <row r="109">
@@ -2295,10 +2343,10 @@
         <v>111</v>
       </c>
       <c r="B109" t="n">
-        <v>862081.244615877</v>
+        <v>659784.336448666</v>
       </c>
       <c r="C109" t="n">
-        <v>86.2081244615877</v>
+        <v>65.9784336448666</v>
       </c>
     </row>
     <row r="110">
@@ -2306,10 +2354,10 @@
         <v>112</v>
       </c>
       <c r="B110" t="n">
-        <v>810323.481308617</v>
+        <v>583497.253069954</v>
       </c>
       <c r="C110" t="n">
-        <v>81.0323481308617</v>
+        <v>58.3497253069954</v>
       </c>
     </row>
     <row r="111">
@@ -2317,10 +2365,10 @@
         <v>113</v>
       </c>
       <c r="B111" t="n">
-        <v>684614.733416407</v>
+        <v>570077.887184836</v>
       </c>
       <c r="C111" t="n">
-        <v>68.4614733416407</v>
+        <v>57.0077887184836</v>
       </c>
     </row>
     <row r="112">
@@ -2328,10 +2376,10 @@
         <v>114</v>
       </c>
       <c r="B112" t="n">
-        <v>867473.388670608</v>
+        <v>665806.507351352</v>
       </c>
       <c r="C112" t="n">
-        <v>86.7473388670608</v>
+        <v>66.5806507351352</v>
       </c>
     </row>
     <row r="113">
@@ -2339,10 +2387,10 @@
         <v>115</v>
       </c>
       <c r="B113" t="n">
-        <v>864529.770314691</v>
+        <v>690727.548567949</v>
       </c>
       <c r="C113" t="n">
-        <v>86.4529770314691</v>
+        <v>69.0727548567949</v>
       </c>
     </row>
     <row r="114">
@@ -2350,10 +2398,10 @@
         <v>116</v>
       </c>
       <c r="B114" t="n">
-        <v>818088.37663746</v>
+        <v>609167.131326028</v>
       </c>
       <c r="C114" t="n">
-        <v>81.808837663746</v>
+        <v>60.9167131326028</v>
       </c>
     </row>
     <row r="115">
@@ -2361,10 +2409,10 @@
         <v>117</v>
       </c>
       <c r="B115" t="n">
-        <v>691659.789724052</v>
+        <v>605575.383761262</v>
       </c>
       <c r="C115" t="n">
-        <v>69.1659789724052</v>
+        <v>60.5575383761262</v>
       </c>
     </row>
     <row r="116">
@@ -2372,10 +2420,10 @@
         <v>118</v>
       </c>
       <c r="B116" t="n">
-        <v>871399.337671212</v>
+        <v>717893.368361579</v>
       </c>
       <c r="C116" t="n">
-        <v>87.1399337671212</v>
+        <v>71.7893368361579</v>
       </c>
     </row>
     <row r="117">
@@ -2383,10 +2431,10 @@
         <v>119</v>
       </c>
       <c r="B117" t="n">
-        <v>866689.434799111</v>
+        <v>713411.075171849</v>
       </c>
       <c r="C117" t="n">
-        <v>86.6689434799111</v>
+        <v>71.3411075171849</v>
       </c>
     </row>
     <row r="118">
@@ -2394,10 +2442,10 @@
         <v>120</v>
       </c>
       <c r="B118" t="n">
-        <v>820235.751562724</v>
+        <v>627461.574436106</v>
       </c>
       <c r="C118" t="n">
-        <v>82.0235751562724</v>
+        <v>62.7461574436106</v>
       </c>
     </row>
     <row r="119">
@@ -2405,10 +2453,10 @@
         <v>121</v>
       </c>
       <c r="B119" t="n">
-        <v>694184.576128618</v>
+        <v>628268.559673348</v>
       </c>
       <c r="C119" t="n">
-        <v>69.4184576128618</v>
+        <v>62.8268559673348</v>
       </c>
     </row>
     <row r="120">
@@ -2416,10 +2464,10 @@
         <v>122</v>
       </c>
       <c r="B120" t="n">
-        <v>873817.457357242</v>
+        <v>749030.964772476</v>
       </c>
       <c r="C120" t="n">
-        <v>87.3817457357243</v>
+        <v>74.9030964772476</v>
       </c>
     </row>
     <row r="121">
@@ -2427,10 +2475,186 @@
         <v>123</v>
       </c>
       <c r="B121" t="n">
-        <v>868630.512342221</v>
+        <v>727616.7617421</v>
       </c>
       <c r="C121" t="n">
-        <v>86.8630512342221</v>
+        <v>72.76167617421</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" t="n">
+        <v>638803.411677325</v>
+      </c>
+      <c r="C122" t="n">
+        <v>63.8803411677325</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" t="n">
+        <v>641747.400956709</v>
+      </c>
+      <c r="C123" t="n">
+        <v>64.1747400956709</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" t="n">
+        <v>766979.810503344</v>
+      </c>
+      <c r="C124" t="n">
+        <v>76.6979810503344</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" t="n">
+        <v>735979.731079824</v>
+      </c>
+      <c r="C125" t="n">
+        <v>73.5979731079824</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" t="n">
+        <v>645450.733506515</v>
+      </c>
+      <c r="C126" t="n">
+        <v>64.5450733506515</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" t="n">
+        <v>649493.561491341</v>
+      </c>
+      <c r="C127" t="n">
+        <v>64.9493561491341</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" t="n">
+        <v>777146.543737792</v>
+      </c>
+      <c r="C128" t="n">
+        <v>77.7146543737792</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" t="n">
+        <v>740765.563132867</v>
+      </c>
+      <c r="C129" t="n">
+        <v>74.0765563132867</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" t="n">
+        <v>649246.621805787</v>
+      </c>
+      <c r="C130" t="n">
+        <v>64.9246621805787</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131" t="n">
+        <v>653874.614875412</v>
+      </c>
+      <c r="C131" t="n">
+        <v>65.3874614875412</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132" t="n">
+        <v>782854.962759487</v>
+      </c>
+      <c r="C132" t="n">
+        <v>78.2854962759487</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133" t="n">
+        <v>743466.623365453</v>
+      </c>
+      <c r="C133" t="n">
+        <v>74.3466623365453</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134" t="n">
+        <v>651386.674922836</v>
+      </c>
+      <c r="C134" t="n">
+        <v>65.1386674922836</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135" t="n">
+        <v>656332.611125215</v>
+      </c>
+      <c r="C135" t="n">
+        <v>65.6332611125215</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136" t="n">
+        <v>786045.790006101</v>
+      </c>
+      <c r="C136" t="n">
+        <v>78.6045790006101</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137" t="n">
+        <v>744980.430661242</v>
+      </c>
+      <c r="C137" t="n">
+        <v>74.4980430661242</v>
       </c>
     </row>
   </sheetData>
@@ -2452,19 +2676,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
@@ -2498,7 +2722,7 @@
         <v>17.9470339681762</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4">
@@ -2506,19 +2730,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>553087.287140016</v>
+        <v>553083.250729627</v>
       </c>
       <c r="C4" t="n">
         <v>53.9739006191567</v>
       </c>
       <c r="D4" t="n">
-        <v>-22.5719199511344</v>
+        <v>-22.5724850183742</v>
       </c>
       <c r="E4" t="n">
         <v>-22.5681458894</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5">
@@ -2526,19 +2750,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>687048.524721646</v>
+        <v>687048.666936987</v>
       </c>
       <c r="C5" t="n">
         <v>67.0458162497048</v>
       </c>
       <c r="D5" t="n">
-        <v>24.2206322033428</v>
+        <v>24.2215644806876</v>
       </c>
       <c r="E5" t="n">
         <v>24.2189567190713</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6">
@@ -2546,19 +2770,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>688060.557848314</v>
+        <v>688057.228384655</v>
       </c>
       <c r="C6" t="n">
         <v>67.1462201710177</v>
       </c>
       <c r="D6" t="n">
-        <v>0.147301550072965</v>
+        <v>0.146796216367728</v>
       </c>
       <c r="E6" t="n">
         <v>0.149754193369667</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7">
@@ -2566,19 +2790,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>653336.47156695</v>
+        <v>653333.115597326</v>
       </c>
       <c r="C7" t="n">
         <v>63.7566316347301</v>
       </c>
       <c r="D7" t="n">
-        <v>-5.04666135637134</v>
+        <v>-5.04668962912439</v>
       </c>
       <c r="E7" t="n">
         <v>-5.04807050591158</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
@@ -2586,19 +2810,19 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>523119.675073122</v>
+        <v>523117.218980932</v>
       </c>
       <c r="C8" t="n">
         <v>51.0484596613066</v>
       </c>
       <c r="D8" t="n">
-        <v>-19.9310465833201</v>
+        <v>-19.9310112265381</v>
       </c>
       <c r="E8" t="n">
         <v>-19.9323139375213</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
@@ -2606,19 +2830,19 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>446206.041768152</v>
+        <v>446206.960807554</v>
       </c>
       <c r="C9" t="n">
         <v>43.5408412780568</v>
       </c>
       <c r="D9" t="n">
-        <v>-14.7028752635271</v>
+        <v>-14.7022990990822</v>
       </c>
       <c r="E9" t="n">
         <v>-14.706846069521</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10">
@@ -2626,19 +2850,19 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>420043.780680352</v>
+        <v>420046.693482618</v>
       </c>
       <c r="C10" t="n">
         <v>40.9873014943129</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.86326912655163</v>
+        <v>-5.86281022545924</v>
       </c>
       <c r="E10" t="n">
         <v>-5.86470014999628</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
@@ -2646,19 +2870,19 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>443402.847872117</v>
+        <v>443406.439003667</v>
       </c>
       <c r="C11" t="n">
         <v>43.2662434554338</v>
       </c>
       <c r="D11" t="n">
-        <v>5.56110297691574</v>
+        <v>5.56122590261872</v>
       </c>
       <c r="E11" t="n">
         <v>5.56011710465272</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
@@ -2666,19 +2890,19 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>428419.298230391</v>
+        <v>428422.283931414</v>
       </c>
       <c r="C12" t="n">
         <v>41.8039769034791</v>
       </c>
       <c r="D12" t="n">
-        <v>-3.37921817905127</v>
+        <v>-3.37932735165561</v>
       </c>
       <c r="E12" t="n">
         <v>-3.3796938101661</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
@@ -2686,19 +2910,19 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>452757.369558536</v>
+        <v>452760.743522169</v>
       </c>
       <c r="C13" t="n">
         <v>44.1793927405652</v>
       </c>
       <c r="D13" t="n">
-        <v>5.6808998634456</v>
+        <v>5.68095089905523</v>
       </c>
       <c r="E13" t="n">
         <v>5.68227238898988</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
@@ -2706,19 +2930,19 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>516135.135159361</v>
+        <v>516137.878405854</v>
       </c>
       <c r="C14" t="n">
         <v>50.3637954170949</v>
       </c>
       <c r="D14" t="n">
-        <v>13.9981742677369</v>
+        <v>13.9979306489018</v>
       </c>
       <c r="E14" t="n">
         <v>13.9983876936617</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -2726,19 +2950,19 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>547509.560525735</v>
+        <v>547510.660925702</v>
       </c>
       <c r="C15" t="n">
         <v>53.424798152657</v>
       </c>
       <c r="D15" t="n">
-        <v>6.0787230376568</v>
+        <v>6.07837243349523</v>
       </c>
       <c r="E15" t="n">
         <v>6.07778407129942</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
@@ -2746,19 +2970,19 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>539014.53842256</v>
+        <v>539014.825285797</v>
       </c>
       <c r="C16" t="n">
         <v>52.5965099544183</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.55157511679199</v>
+        <v>-1.55172058668983</v>
       </c>
       <c r="E16" t="n">
         <v>-1.55038152109046</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17">
@@ -2766,19 +2990,19 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>402799.341059398</v>
+        <v>402799.848087398</v>
       </c>
       <c r="C17" t="n">
         <v>39.3049596775859</v>
       </c>
       <c r="D17" t="n">
-        <v>-25.2711546077772</v>
+        <v>-25.2711003127186</v>
       </c>
       <c r="E17" t="n">
         <v>-25.2707837237704</v>
       </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18">
@@ -2786,19 +3010,19 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>476666.949836298</v>
+        <v>476670.98764714</v>
       </c>
       <c r="C18" t="n">
         <v>56.6248095369839</v>
       </c>
       <c r="D18" t="n">
-        <v>18.3385624670143</v>
+        <v>18.3394159433033</v>
       </c>
       <c r="E18" t="n">
         <v>44.0653037211354</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19">
@@ -2806,19 +3030,19 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>521003.745086255</v>
+        <v>521007.277388218</v>
       </c>
       <c r="C19" t="n">
         <v>70.3111687375003</v>
       </c>
       <c r="D19" t="n">
-        <v>9.30142005129244</v>
+        <v>9.30123521045885</v>
       </c>
       <c r="E19" t="n">
         <v>24.1702520722429</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20">
@@ -2826,19 +3050,19 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>563126.652330434</v>
+        <v>563130.339136249</v>
       </c>
       <c r="C20" t="n">
         <v>81.080054341318</v>
       </c>
       <c r="D20" t="n">
-        <v>8.08495287057955</v>
+        <v>8.08492771141169</v>
       </c>
       <c r="E20" t="n">
         <v>15.3160384007016</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21">
@@ -2846,19 +3070,19 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>636250.763915209</v>
+        <v>636254.286387922</v>
       </c>
       <c r="C21" t="n">
         <v>100</v>
       </c>
       <c r="D21" t="n">
-        <v>12.9853757200374</v>
+        <v>12.9852615229066</v>
       </c>
       <c r="E21" t="n">
         <v>23.3348951383725</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22">
@@ -2866,19 +3090,19 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>644230.82436299</v>
+        <v>644234.093002918</v>
       </c>
       <c r="C22" t="n">
         <v>114.276708523796</v>
       </c>
       <c r="D22" t="n">
-        <v>1.25423196330241</v>
+        <v>1.25418512467679</v>
       </c>
       <c r="E22" t="n">
         <v>14.2767085237963</v>
       </c>
       <c r="F22" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23">
@@ -2886,19 +3110,19 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>672569.446418379</v>
+        <v>672574.388399906</v>
       </c>
       <c r="C23" t="n">
         <v>127.411395985514</v>
       </c>
       <c r="D23" t="n">
-        <v>4.39883050976502</v>
+        <v>4.39906793272731</v>
       </c>
       <c r="E23" t="n">
         <v>11.4937572418644</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24">
@@ -2906,19 +3130,19 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>703366.329196214</v>
+        <v>703371.981255802</v>
       </c>
       <c r="C24" t="n">
         <v>134.092570187428</v>
       </c>
       <c r="D24" t="n">
-        <v>4.57898926896501</v>
+        <v>4.57906119933662</v>
       </c>
       <c r="E24" t="n">
         <v>5.24378070755389</v>
       </c>
       <c r="F24" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25">
@@ -2926,19 +3150,19 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>732875.738566758</v>
+        <v>732881.104455178</v>
       </c>
       <c r="C25" t="n">
-        <v>139.914028401184</v>
+        <v>136.352417369243</v>
       </c>
       <c r="D25" t="n">
-        <v>4.19545379777648</v>
+        <v>4.1953793989193</v>
       </c>
       <c r="E25" t="n">
-        <v>4.34137268427277</v>
+        <v>1.68528888562289</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26">
@@ -2946,19 +3170,19 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>716835.734231199</v>
+        <v>716839.335529555</v>
       </c>
       <c r="C26" t="n">
-        <v>68.4419815586378</v>
+        <v>74.2879445677242</v>
       </c>
       <c r="D26" t="n">
-        <v>-2.18863901361066</v>
+        <v>-2.18886376359081</v>
       </c>
       <c r="E26" t="n">
-        <v>-51.0828311208438</v>
+        <v>-45.5176915811091</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27">
@@ -2966,19 +3190,19 @@
         <v>104</v>
       </c>
       <c r="B27" t="n">
-        <v>715681.284257588</v>
+        <v>642544.143259069</v>
       </c>
       <c r="C27" t="n">
-        <v>82.790931567451</v>
+        <v>56.0711395147459</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.161048050269019</v>
+        <v>-10.3642739158003</v>
       </c>
       <c r="E27" t="n">
-        <v>20.9651294162482</v>
+        <v>-24.5218859654557</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28">
@@ -2986,19 +3210,19 @@
         <v>108</v>
       </c>
       <c r="B28" t="n">
-        <v>709701.647834098</v>
+        <v>626669.912314498</v>
       </c>
       <c r="C28" t="n">
-        <v>79.9875638309414</v>
+        <v>58.3032692363941</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.835516668525493</v>
+        <v>-2.47052768453458</v>
       </c>
       <c r="E28" t="n">
-        <v>-3.38608067747816</v>
+        <v>3.98088881546834</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29">
@@ -3006,19 +3230,19 @@
         <v>112</v>
       </c>
       <c r="B29" t="n">
-        <v>711164.835914805</v>
+        <v>621986.477977613</v>
       </c>
       <c r="C29" t="n">
-        <v>80.6735343427581</v>
+        <v>62.7527299043523</v>
       </c>
       <c r="D29" t="n">
-        <v>0.206169463629169</v>
+        <v>-0.747352672412183</v>
       </c>
       <c r="E29" t="n">
-        <v>0.857596454952114</v>
+        <v>7.63158005757378</v>
       </c>
       <c r="F29" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30">
@@ -3026,19 +3250,19 @@
         <v>116</v>
       </c>
       <c r="B30" t="n">
-        <v>712279.101808847</v>
+        <v>618880.030823141</v>
       </c>
       <c r="C30" t="n">
-        <v>81.1959234707959</v>
+        <v>66.151173965518</v>
       </c>
       <c r="D30" t="n">
-        <v>0.156681803960157</v>
+        <v>-0.499439660581047</v>
       </c>
       <c r="E30" t="n">
-        <v>0.647534699320729</v>
+        <v>5.41561150621745</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31">
@@ -3046,19 +3270,99 @@
         <v>120</v>
       </c>
       <c r="B31" t="n">
-        <v>712760.703275981</v>
+        <v>615769.08035095</v>
       </c>
       <c r="C31" t="n">
-        <v>81.4217074347701</v>
+        <v>68.3094465156007</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0676141509573069</v>
+        <v>-0.502674236887879</v>
       </c>
       <c r="E31" t="n">
-        <v>0.278073029190273</v>
+        <v>3.26263680703205</v>
       </c>
       <c r="F31" t="s">
-        <v>129</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="n">
+        <v>612729.403375553</v>
+      </c>
+      <c r="C32" t="n">
+        <v>69.58775885543</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.493639104721555</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.87135514198224</v>
+      </c>
+      <c r="F32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" t="n">
+        <v>609992.430509116</v>
+      </c>
+      <c r="C33" t="n">
+        <v>70.3214100467129</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.446685413064696</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.05428196474473</v>
+      </c>
+      <c r="F33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" t="n">
+        <v>607677.502371169</v>
+      </c>
+      <c r="C34" t="n">
+        <v>70.7360705701535</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.379501125286918</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.589664688414437</v>
+      </c>
+      <c r="F34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" t="n">
+        <v>605801.079175876</v>
+      </c>
+      <c r="C35" t="n">
+        <v>70.9686376678848</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.308786023502816</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.328781477196594</v>
+      </c>
+      <c r="F35" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3080,19 +3384,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
@@ -3103,16 +3407,16 @@
         <v>714323.907800578</v>
       </c>
       <c r="C2" t="n">
-        <v>635942.133503525</v>
+        <v>633924.04746165</v>
       </c>
       <c r="D2" t="n">
-        <v>78381.7742970534</v>
+        <v>80399.8603389283</v>
       </c>
       <c r="E2" t="n">
         <v>69.7050344966077</v>
       </c>
       <c r="F2" t="n">
-        <v>116337.176707105</v>
+        <v>118414.859547536</v>
       </c>
     </row>
     <row r="3">
@@ -3123,16 +3427,16 @@
         <v>553111.616775141</v>
       </c>
       <c r="C3" t="n">
-        <v>650386.740036992</v>
+        <v>643858.979769275</v>
       </c>
       <c r="D3" t="n">
-        <v>-97275.1232618509</v>
+        <v>-90747.3629941338</v>
       </c>
       <c r="E3" t="n">
         <v>53.9739006191567</v>
       </c>
       <c r="F3" t="n">
-        <v>-11320.3081145928</v>
+        <v>-3823.81193811516</v>
       </c>
     </row>
     <row r="4">
@@ -3143,16 +3447,16 @@
         <v>687057.507508767</v>
       </c>
       <c r="C4" t="n">
-        <v>583961.997155948</v>
+        <v>586523.7309104</v>
       </c>
       <c r="D4" t="n">
-        <v>103095.510352819</v>
+        <v>100533.776598366</v>
       </c>
       <c r="E4" t="n">
         <v>67.0458162497048</v>
       </c>
       <c r="F4" t="n">
-        <v>94742.9392500519</v>
+        <v>97736.6277269507</v>
       </c>
     </row>
     <row r="5">
@@ -3163,16 +3467,16 @@
         <v>688082.291447019</v>
       </c>
       <c r="C5" t="n">
-        <v>662530.733014221</v>
+        <v>661315.778067341</v>
       </c>
       <c r="D5" t="n">
-        <v>25551.5584327982</v>
+        <v>26766.5133796779</v>
       </c>
       <c r="E5" t="n">
         <v>67.1462201710177</v>
       </c>
       <c r="F5" t="n">
-        <v>95553.5597244368</v>
+        <v>98512.6626392243</v>
       </c>
     </row>
     <row r="6">
@@ -3183,16 +3487,16 @@
         <v>653358.302617592</v>
       </c>
       <c r="C6" t="n">
-        <v>655899.525071365</v>
+        <v>653487.723340926</v>
       </c>
       <c r="D6" t="n">
-        <v>-2541.22245377298</v>
+        <v>-129.420723333911</v>
       </c>
       <c r="E6" t="n">
         <v>63.7566316347301</v>
       </c>
       <c r="F6" t="n">
-        <v>68059.6273760989</v>
+        <v>72186.3223861055</v>
       </c>
     </row>
     <row r="7">
@@ -3203,16 +3507,16 @@
         <v>523138.200832253</v>
       </c>
       <c r="C7" t="n">
-        <v>608481.520969019</v>
+        <v>602680.442495985</v>
       </c>
       <c r="D7" t="n">
-        <v>-85343.3201367659</v>
+        <v>-79542.2416637325</v>
       </c>
       <c r="E7" t="n">
         <v>51.0484596613066</v>
       </c>
       <c r="F7" t="n">
-        <v>-35053.7031431692</v>
+        <v>-26549.497122016</v>
       </c>
     </row>
     <row r="8">
@@ -3223,16 +3527,16 @@
         <v>446212.171351588</v>
       </c>
       <c r="C8" t="n">
-        <v>516292.317273799</v>
+        <v>511610.359894205</v>
       </c>
       <c r="D8" t="n">
-        <v>-70080.1459222109</v>
+        <v>-65398.1885426173</v>
       </c>
       <c r="E8" t="n">
         <v>43.5408412780568</v>
       </c>
       <c r="F8" t="n">
-        <v>-95965.8405634104</v>
+        <v>-84875.528357285</v>
       </c>
     </row>
     <row r="9">
@@ -3243,16 +3547,16 @@
         <v>420042.587470958</v>
       </c>
       <c r="C9" t="n">
-        <v>465846.526992926</v>
+        <v>462473.886798464</v>
       </c>
       <c r="D9" t="n">
-        <v>-45803.9395219678</v>
+        <v>-42431.2993275063</v>
       </c>
       <c r="E9" t="n">
         <v>40.9873014943129</v>
       </c>
       <c r="F9" t="n">
-        <v>-116688.675770706</v>
+        <v>-104718.76038136</v>
       </c>
     </row>
     <row r="10">
@@ -3263,16 +3567,16 @@
         <v>443399.163385359</v>
       </c>
       <c r="C10" t="n">
-        <v>455398.49073387</v>
+        <v>453555.39824875</v>
       </c>
       <c r="D10" t="n">
-        <v>-11999.3273485104</v>
+        <v>-10156.2348633907</v>
       </c>
       <c r="E10" t="n">
         <v>43.2662434554338</v>
       </c>
       <c r="F10" t="n">
-        <v>-98193.1261784176</v>
+        <v>-87008.2248374674</v>
       </c>
     </row>
     <row r="11">
@@ -3283,16 +3587,16 @@
         <v>428417.837259072</v>
       </c>
       <c r="C11" t="n">
-        <v>465943.096528273</v>
+        <v>462931.830524227</v>
       </c>
       <c r="D11" t="n">
-        <v>-37525.2592692008</v>
+        <v>-34513.9932651543</v>
       </c>
       <c r="E11" t="n">
         <v>41.8039769034791</v>
       </c>
       <c r="F11" t="n">
-        <v>-110055.410082365</v>
+        <v>-98366.8101806934</v>
       </c>
     </row>
     <row r="12">
@@ -3303,16 +3607,16 @@
         <v>452754.482515974</v>
       </c>
       <c r="C12" t="n">
-        <v>462246.602253089</v>
+        <v>460479.912561874</v>
       </c>
       <c r="D12" t="n">
-        <v>-9492.11973711516</v>
+        <v>-7725.43004589957</v>
       </c>
       <c r="E12" t="n">
         <v>44.1793927405652</v>
       </c>
       <c r="F12" t="n">
-        <v>-90785.5717503577</v>
+        <v>-79915.2176990448</v>
       </c>
     </row>
     <row r="13">
@@ -3323,16 +3627,16 @@
         <v>516134.564716412</v>
       </c>
       <c r="C13" t="n">
-        <v>489673.706541637</v>
+        <v>489344.759940242</v>
       </c>
       <c r="D13" t="n">
-        <v>26460.8581747759</v>
+        <v>26789.8047761701</v>
       </c>
       <c r="E13" t="n">
         <v>50.3637954170949</v>
       </c>
       <c r="F13" t="n">
-        <v>-40596.9374718198</v>
+        <v>-31856.8890907865</v>
       </c>
     </row>
     <row r="14">
@@ -3343,16 +3647,16 @@
         <v>547515.023707394</v>
       </c>
       <c r="C14" t="n">
-        <v>533279.901729036</v>
+        <v>532202.178962129</v>
       </c>
       <c r="D14" t="n">
-        <v>14235.1219783576</v>
+        <v>15312.8447452643</v>
       </c>
       <c r="E14" t="n">
         <v>53.424798152657</v>
       </c>
       <c r="F14" t="n">
-        <v>-15745.655231926</v>
+        <v>-8060.01288254664</v>
       </c>
     </row>
     <row r="15">
@@ -3363,16 +3667,16 @@
         <v>539022.989199124</v>
       </c>
       <c r="C15" t="n">
-        <v>549872.113718354</v>
+        <v>547616.532264399</v>
       </c>
       <c r="D15" t="n">
-        <v>-10849.1245192301</v>
+        <v>-8593.54306527457</v>
       </c>
       <c r="E15" t="n">
         <v>52.5965099544183</v>
       </c>
       <c r="F15" t="n">
-        <v>-22470.9353416087</v>
+        <v>-14499.9773138</v>
       </c>
     </row>
     <row r="16">
@@ -3383,16 +3687,16 @@
         <v>402806.98332989</v>
       </c>
       <c r="C16" t="n">
-        <v>516552.662720535</v>
+        <v>509960.137077563</v>
       </c>
       <c r="D16" t="n">
-        <v>-113745.679390644</v>
+        <v>-107153.153747673</v>
       </c>
       <c r="E16" t="n">
         <v>39.3049596775859</v>
       </c>
       <c r="F16" t="n">
-        <v>-130335.812985709</v>
+        <v>-117786.390973173</v>
       </c>
     </row>
     <row r="17">
@@ -3403,16 +3707,16 @@
         <v>476661.624705117</v>
       </c>
       <c r="C17" t="n">
-        <v>473810.697491819</v>
+        <v>477059.645779862</v>
       </c>
       <c r="D17" t="n">
-        <v>2850.92721329829</v>
+        <v>-398.021074744305</v>
       </c>
       <c r="E17" t="n">
         <v>56.6248095369839</v>
       </c>
       <c r="F17" t="n">
-        <v>-93424.7390632378</v>
+        <v>-86841.3862563655</v>
       </c>
     </row>
     <row r="18">
@@ -3423,16 +3727,16 @@
         <v>521002.8573654</v>
       </c>
       <c r="C18" t="n">
-        <v>530272.137729442</v>
+        <v>533680.374849375</v>
       </c>
       <c r="D18" t="n">
-        <v>-9269.28036404258</v>
+        <v>-12677.5174839749</v>
       </c>
       <c r="E18" t="n">
         <v>70.3111687375003</v>
       </c>
       <c r="F18" t="n">
-        <v>-78276.7695323449</v>
+        <v>-76407.8782725827</v>
       </c>
     </row>
     <row r="19">
@@ -3443,16 +3747,16 @@
         <v>563127.585682477</v>
       </c>
       <c r="C19" t="n">
-        <v>564432.986726632</v>
+        <v>568018.090531423</v>
       </c>
       <c r="D19" t="n">
-        <v>-1305.40104415456</v>
+        <v>-4890.50484894618</v>
       </c>
       <c r="E19" t="n">
         <v>81.080054341318</v>
       </c>
       <c r="F19" t="n">
-        <v>-59122.2779624283</v>
+        <v>-60962.8828762365</v>
       </c>
     </row>
     <row r="20">
@@ -3463,16 +3767,16 @@
         <v>636254</v>
       </c>
       <c r="C20" t="n">
-        <v>618940.032361352</v>
+        <v>626228.250260024</v>
       </c>
       <c r="D20" t="n">
-        <v>17313.9676386479</v>
+        <v>10025.7497399756</v>
       </c>
       <c r="E20" t="n">
         <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>-26352.4657123722</v>
+        <v>-34710.3156417797</v>
       </c>
     </row>
     <row r="21">
@@ -3483,16 +3787,16 @@
         <v>644238</v>
       </c>
       <c r="C21" t="n">
-        <v>673601.328211324</v>
+        <v>680867.406125354</v>
       </c>
       <c r="D21" t="n">
-        <v>-29363.3282113238</v>
+        <v>-36629.406125354</v>
       </c>
       <c r="E21" t="n">
         <v>114.276708523796</v>
       </c>
       <c r="F21" t="n">
-        <v>-48820.955118105</v>
+        <v>-62096.6208353809</v>
       </c>
     </row>
     <row r="22">
@@ -3503,16 +3807,16 @@
         <v>672573.920917323</v>
       </c>
       <c r="C22" t="n">
-        <v>685019.194729365</v>
+        <v>693307.382063224</v>
       </c>
       <c r="D22" t="n">
-        <v>-12445.2738120424</v>
+        <v>-20733.4611459008</v>
       </c>
       <c r="E22" t="n">
         <v>127.411395985514</v>
       </c>
       <c r="F22" t="n">
-        <v>-48501.5710733322</v>
+        <v>-66301.6671423443</v>
       </c>
     </row>
     <row r="23">
@@ -3523,16 +3827,16 @@
         <v>703370.842091171</v>
       </c>
       <c r="C23" t="n">
-        <v>699506.211726355</v>
+        <v>706773.460245919</v>
       </c>
       <c r="D23" t="n">
-        <v>3864.63036481546</v>
+        <v>-3402.61815474815</v>
       </c>
       <c r="E23" t="n">
         <v>134.092570187428</v>
       </c>
       <c r="F23" t="n">
-        <v>-31955.720884264</v>
+        <v>-52057.2426577305</v>
       </c>
     </row>
     <row r="24">
@@ -3543,16 +3847,16 @@
         <v>732882.24058635</v>
       </c>
       <c r="C24" t="n">
-        <v>724146.793420127</v>
+        <v>722827.311624193</v>
       </c>
       <c r="D24" t="n">
-        <v>8735.4471662226</v>
+        <v>10054.9289621561</v>
       </c>
       <c r="E24" t="n">
-        <v>139.914028401184</v>
+        <v>136.352417369243</v>
       </c>
       <c r="F24" t="n">
-        <v>-14861.6029047477</v>
+        <v>-28144.5775385576</v>
       </c>
     </row>
     <row r="25">
@@ -3563,16 +3867,16 @@
         <v>716844.2912876</v>
       </c>
       <c r="C25" t="n">
-        <v>584323.901017331</v>
+        <v>586615.034442256</v>
       </c>
       <c r="D25" t="n">
-        <v>132520.390270269</v>
+        <v>130229.256845344</v>
       </c>
       <c r="E25" t="n">
-        <v>68.4419815586378</v>
+        <v>74.2879445677242</v>
       </c>
       <c r="F25" t="n">
-        <v>121551.676008589</v>
+        <v>109581.160430713</v>
       </c>
     </row>
   </sheetData>
@@ -3594,34 +3898,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2">
@@ -3632,31 +3936,31 @@
         <v>15.5873553141413</v>
       </c>
       <c r="C2" t="n">
-        <v>51386.0049882303</v>
+        <v>51804.2604022635</v>
       </c>
       <c r="D2" t="n">
-        <v>155063.117822399</v>
+        <v>153925.15985035</v>
       </c>
       <c r="E2" t="n">
-        <v>635942.133503524</v>
+        <v>633924.04746165</v>
       </c>
       <c r="F2" t="n">
         <v>714323.907800578</v>
       </c>
       <c r="G2" t="n">
-        <v>78381.7742970536</v>
+        <v>80399.8603389283</v>
       </c>
       <c r="H2" t="n">
-        <v>33311.0386117485</v>
+        <v>33400.3411903449</v>
       </c>
       <c r="I2" t="n">
-        <v>188374.156434148</v>
+        <v>187325.501040695</v>
       </c>
       <c r="J2" t="n">
         <v>714323.907800578</v>
       </c>
       <c r="K2" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3">
@@ -3667,31 +3971,31 @@
         <v>15.6524779866204</v>
       </c>
       <c r="C3" t="n">
-        <v>51386.0049882303</v>
+        <v>51804.2604022635</v>
       </c>
       <c r="D3" t="n">
-        <v>155202.02571496</v>
+        <v>154086.500175872</v>
       </c>
       <c r="E3" t="n">
-        <v>635942.133503524</v>
+        <v>633924.04746165</v>
       </c>
       <c r="F3" t="n">
         <v>714323.907800578</v>
       </c>
       <c r="G3" t="n">
-        <v>78381.7742970536</v>
+        <v>80399.8603389283</v>
       </c>
       <c r="H3" t="n">
-        <v>27824.8005967545</v>
+        <v>28080.1907480998</v>
       </c>
       <c r="I3" t="n">
-        <v>183026.826311714</v>
+        <v>182166.690923971</v>
       </c>
       <c r="J3" t="n">
         <v>714323.907800578</v>
       </c>
       <c r="K3" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4">
@@ -3702,31 +4006,31 @@
         <v>20.2634880731541</v>
       </c>
       <c r="C4" t="n">
-        <v>51386.0049882303</v>
+        <v>51804.2604022635</v>
       </c>
       <c r="D4" t="n">
-        <v>165037.397472802</v>
+        <v>165510.200095193</v>
       </c>
       <c r="E4" t="n">
-        <v>635942.133503524</v>
+        <v>633924.04746165</v>
       </c>
       <c r="F4" t="n">
         <v>714323.907800578</v>
       </c>
       <c r="G4" t="n">
-        <v>78381.7742970536</v>
+        <v>80399.8603389283</v>
       </c>
       <c r="H4" t="n">
-        <v>16852.3245667663</v>
+        <v>17439.8898636095</v>
       </c>
       <c r="I4" t="n">
-        <v>181889.722039569</v>
+        <v>182950.089958803</v>
       </c>
       <c r="J4" t="n">
         <v>714323.907800578</v>
       </c>
       <c r="K4" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5">
@@ -3737,31 +4041,31 @@
         <v>18.2017131226919</v>
       </c>
       <c r="C5" t="n">
-        <v>51386.0049882303</v>
+        <v>51804.2604022635</v>
       </c>
       <c r="D5" t="n">
-        <v>160639.592493363</v>
+        <v>160402.187340235</v>
       </c>
       <c r="E5" t="n">
-        <v>635942.133503524</v>
+        <v>633924.04746165</v>
       </c>
       <c r="F5" t="n">
         <v>714323.907800578</v>
       </c>
       <c r="G5" t="n">
-        <v>78381.7742970536</v>
+        <v>80399.8603389283</v>
       </c>
       <c r="H5" t="n">
-        <v>393.610521784023</v>
+        <v>1479.43853687397</v>
       </c>
       <c r="I5" t="n">
-        <v>161033.203015147</v>
+        <v>161881.625877109</v>
       </c>
       <c r="J5" t="n">
         <v>714323.907800578</v>
       </c>
       <c r="K5" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6">
@@ -3772,31 +4076,31 @@
         <v>12.6993091033411</v>
       </c>
       <c r="C6" t="n">
-        <v>116337.176707105</v>
+        <v>118414.859547536</v>
       </c>
       <c r="D6" t="n">
-        <v>160896.631386597</v>
+        <v>158990.120398568</v>
       </c>
       <c r="E6" t="n">
-        <v>650362.410401867</v>
+        <v>643830.613723761</v>
       </c>
       <c r="F6" t="n">
         <v>553111.616775141</v>
       </c>
       <c r="G6" t="n">
-        <v>-97250.7936267257</v>
+        <v>-90718.9969486198</v>
       </c>
       <c r="H6" t="n">
-        <v>-21551.3415381923</v>
+        <v>-19801.1632321067</v>
       </c>
       <c r="I6" t="n">
-        <v>139345.289848405</v>
+        <v>139188.957166462</v>
       </c>
       <c r="J6" t="n">
-        <v>553087.287140016</v>
+        <v>553083.250729627</v>
       </c>
       <c r="K6" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7">
@@ -3807,31 +4111,31 @@
         <v>12.0625067182169</v>
       </c>
       <c r="C7" t="n">
-        <v>116337.176707105</v>
+        <v>118414.859547536</v>
       </c>
       <c r="D7" t="n">
-        <v>159538.319850418</v>
+        <v>157412.453202218</v>
       </c>
       <c r="E7" t="n">
-        <v>650362.410401867</v>
+        <v>643830.613723761</v>
       </c>
       <c r="F7" t="n">
         <v>553111.616775141</v>
       </c>
       <c r="G7" t="n">
-        <v>-97250.7936267257</v>
+        <v>-90718.9969486198</v>
       </c>
       <c r="H7" t="n">
-        <v>-31436.298073091</v>
+        <v>-29467.6749462697</v>
       </c>
       <c r="I7" t="n">
-        <v>128102.021777327</v>
+        <v>127944.778255948</v>
       </c>
       <c r="J7" t="n">
-        <v>553087.287140016</v>
+        <v>553083.250729627</v>
       </c>
       <c r="K7" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8">
@@ -3842,31 +4146,31 @@
         <v>15.1806021427688</v>
       </c>
       <c r="C8" t="n">
-        <v>116337.176707105</v>
+        <v>118414.859547536</v>
       </c>
       <c r="D8" t="n">
-        <v>166189.276387351</v>
+        <v>165137.482161473</v>
       </c>
       <c r="E8" t="n">
-        <v>650362.410401867</v>
+        <v>643830.613723761</v>
       </c>
       <c r="F8" t="n">
         <v>553111.616775141</v>
       </c>
       <c r="G8" t="n">
-        <v>-97250.7936267257</v>
+        <v>-90718.9969486198</v>
       </c>
       <c r="H8" t="n">
-        <v>-29261.2590829121</v>
+        <v>-27520.096605615</v>
       </c>
       <c r="I8" t="n">
-        <v>136928.017304439</v>
+        <v>137617.385555858</v>
       </c>
       <c r="J8" t="n">
-        <v>553087.287140016</v>
+        <v>553083.250729627</v>
       </c>
       <c r="K8" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9">
@@ -3877,31 +4181,31 @@
         <v>14.0314826548299</v>
       </c>
       <c r="C9" t="n">
-        <v>116337.176707105</v>
+        <v>118414.859547536</v>
       </c>
       <c r="D9" t="n">
-        <v>163738.1827775</v>
+        <v>162290.557961503</v>
       </c>
       <c r="E9" t="n">
-        <v>650362.410401867</v>
+        <v>643830.613723761</v>
       </c>
       <c r="F9" t="n">
         <v>553111.616775141</v>
       </c>
       <c r="G9" t="n">
-        <v>-97250.7936267257</v>
+        <v>-90718.9969486198</v>
       </c>
       <c r="H9" t="n">
-        <v>-15026.2245676555</v>
+        <v>-13958.4282101426</v>
       </c>
       <c r="I9" t="n">
-        <v>148711.958209845</v>
+        <v>148332.12975136</v>
       </c>
       <c r="J9" t="n">
-        <v>553087.287140016</v>
+        <v>553083.250729627</v>
       </c>
       <c r="K9" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10">
@@ -3912,31 +4216,31 @@
         <v>15.4146190786797</v>
       </c>
       <c r="C10" t="n">
-        <v>-11320.3081145928</v>
+        <v>-3823.81193811516</v>
       </c>
       <c r="D10" t="n">
-        <v>143115.429088894</v>
+        <v>143291.961569949</v>
       </c>
       <c r="E10" t="n">
-        <v>583953.014368827</v>
+        <v>586514.89033862</v>
       </c>
       <c r="F10" t="n">
         <v>687057.507508767</v>
       </c>
       <c r="G10" t="n">
-        <v>103104.49313994</v>
+        <v>100542.617170146</v>
       </c>
       <c r="H10" t="n">
-        <v>11268.8054726787</v>
+        <v>11217.3302401474</v>
       </c>
       <c r="I10" t="n">
-        <v>154384.234561573</v>
+        <v>154509.291810096</v>
       </c>
       <c r="J10" t="n">
-        <v>687048.524721646</v>
+        <v>687048.666936987</v>
       </c>
       <c r="K10" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
@@ -3947,31 +4251,31 @@
         <v>15.4695281513876</v>
       </c>
       <c r="C11" t="n">
-        <v>-11320.3081145928</v>
+        <v>-3823.81193811516</v>
       </c>
       <c r="D11" t="n">
-        <v>143232.551179895</v>
+        <v>143427.997873858</v>
       </c>
       <c r="E11" t="n">
-        <v>583953.014368827</v>
+        <v>586514.89033862</v>
       </c>
       <c r="F11" t="n">
         <v>687057.507508767</v>
       </c>
       <c r="G11" t="n">
-        <v>103104.49313994</v>
+        <v>100542.617170146</v>
       </c>
       <c r="H11" t="n">
-        <v>27588.8463350228</v>
+        <v>26854.0791840411</v>
       </c>
       <c r="I11" t="n">
-        <v>170821.397514918</v>
+        <v>170282.077057899</v>
       </c>
       <c r="J11" t="n">
-        <v>687048.524721646</v>
+        <v>687048.666936987</v>
       </c>
       <c r="K11" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12">
@@ -3982,31 +4286,31 @@
         <v>19.1190204481488</v>
       </c>
       <c r="C12" t="n">
-        <v>-11320.3081145928</v>
+        <v>-3823.81193811516</v>
       </c>
       <c r="D12" t="n">
-        <v>151016.98729962</v>
+        <v>152469.553644433</v>
       </c>
       <c r="E12" t="n">
-        <v>583953.014368827</v>
+        <v>586514.89033862</v>
       </c>
       <c r="F12" t="n">
         <v>687057.507508767</v>
       </c>
       <c r="G12" t="n">
-        <v>103104.49313994</v>
+        <v>100542.617170146</v>
       </c>
       <c r="H12" t="n">
-        <v>33933.8980193769</v>
+        <v>32951.8186215385</v>
       </c>
       <c r="I12" t="n">
-        <v>184950.885318997</v>
+        <v>185421.372265971</v>
       </c>
       <c r="J12" t="n">
-        <v>687048.524721646</v>
+        <v>687048.666936987</v>
       </c>
       <c r="K12" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13">
@@ -4017,31 +4321,31 @@
         <v>17.0426485714887</v>
       </c>
       <c r="C13" t="n">
-        <v>-11320.3081145928</v>
+        <v>-3823.81193811516</v>
       </c>
       <c r="D13" t="n">
-        <v>146588.046800417</v>
+        <v>147325.377250381</v>
       </c>
       <c r="E13" t="n">
-        <v>583953.014368827</v>
+        <v>586514.89033862</v>
       </c>
       <c r="F13" t="n">
         <v>687057.507508767</v>
       </c>
       <c r="G13" t="n">
-        <v>103104.49313994</v>
+        <v>100542.617170146</v>
       </c>
       <c r="H13" t="n">
-        <v>30303.9605257408</v>
+        <v>29510.5485526395</v>
       </c>
       <c r="I13" t="n">
-        <v>176892.007326158</v>
+        <v>176835.92580302</v>
       </c>
       <c r="J13" t="n">
-        <v>687048.524721646</v>
+        <v>687048.666936987</v>
       </c>
       <c r="K13" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14">
@@ -4052,31 +4356,31 @@
         <v>16.9104625362314</v>
       </c>
       <c r="C14" t="n">
-        <v>94742.9392500519</v>
+        <v>97736.6277269507</v>
       </c>
       <c r="D14" t="n">
-        <v>165891.546881875</v>
+        <v>165629.657481864</v>
       </c>
       <c r="E14" t="n">
-        <v>662508.999415516</v>
+        <v>661290.715004978</v>
       </c>
       <c r="F14" t="n">
         <v>688082.291447019</v>
       </c>
       <c r="G14" t="n">
-        <v>25573.2920315024</v>
+        <v>26791.5764420412</v>
       </c>
       <c r="H14" t="n">
-        <v>16699.0338541147</v>
+        <v>16530.2689773442</v>
       </c>
       <c r="I14" t="n">
-        <v>182590.580735989</v>
+        <v>182159.926459208</v>
       </c>
       <c r="J14" t="n">
-        <v>688060.557848314</v>
+        <v>688057.228384655</v>
       </c>
       <c r="K14" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15">
@@ -4087,31 +4391,31 @@
         <v>17.2895274011393</v>
       </c>
       <c r="C15" t="n">
-        <v>94742.9392500519</v>
+        <v>97736.6277269507</v>
       </c>
       <c r="D15" t="n">
-        <v>166700.099410873</v>
+        <v>166568.784307743</v>
       </c>
       <c r="E15" t="n">
-        <v>662508.999415516</v>
+        <v>661290.715004978</v>
       </c>
       <c r="F15" t="n">
         <v>688082.291447019</v>
       </c>
       <c r="G15" t="n">
-        <v>25573.2920315024</v>
+        <v>26791.5764420412</v>
       </c>
       <c r="H15" t="n">
-        <v>7132.60548709819</v>
+        <v>7402.70089425617</v>
       </c>
       <c r="I15" t="n">
-        <v>173832.704897972</v>
+        <v>173971.485202</v>
       </c>
       <c r="J15" t="n">
-        <v>688060.557848314</v>
+        <v>688057.228384655</v>
       </c>
       <c r="K15" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
@@ -4122,31 +4426,31 @@
         <v>18.8258737986142</v>
       </c>
       <c r="C16" t="n">
-        <v>94742.9392500519</v>
+        <v>97736.6277269507</v>
       </c>
       <c r="D16" t="n">
-        <v>169977.155345346</v>
+        <v>170375.056661851</v>
       </c>
       <c r="E16" t="n">
-        <v>662508.999415516</v>
+        <v>661290.715004978</v>
       </c>
       <c r="F16" t="n">
         <v>688082.291447019</v>
       </c>
       <c r="G16" t="n">
-        <v>25573.2920315024</v>
+        <v>26791.5764420412</v>
       </c>
       <c r="H16" t="n">
-        <v>1604.67542469122</v>
+        <v>2127.84430337541</v>
       </c>
       <c r="I16" t="n">
-        <v>171581.830770037</v>
+        <v>172502.900965226</v>
       </c>
       <c r="J16" t="n">
-        <v>688060.557848314</v>
+        <v>688057.228384655</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
@@ -4157,31 +4461,31 @@
         <v>14.1203564350328</v>
       </c>
       <c r="C17" t="n">
-        <v>94742.9392500519</v>
+        <v>97736.6277269507</v>
       </c>
       <c r="D17" t="n">
-        <v>159940.197777422</v>
+        <v>158717.21655352</v>
       </c>
       <c r="E17" t="n">
-        <v>662508.999415516</v>
+        <v>661290.715004978</v>
       </c>
       <c r="F17" t="n">
         <v>688082.291447019</v>
       </c>
       <c r="G17" t="n">
-        <v>25573.2920315024</v>
+        <v>26791.5764420412</v>
       </c>
       <c r="H17" t="n">
-        <v>115.243666893826</v>
+        <v>705.699204701926</v>
       </c>
       <c r="I17" t="n">
-        <v>160055.441444316</v>
+        <v>159422.915758222</v>
       </c>
       <c r="J17" t="n">
-        <v>688060.557848314</v>
+        <v>688057.228384655</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
@@ -4192,31 +4496,31 @@
         <v>13.4613277205037</v>
       </c>
       <c r="C18" t="n">
-        <v>95553.5597244368</v>
+        <v>98512.6626392243</v>
       </c>
       <c r="D18" t="n">
-        <v>158684.16483166</v>
+        <v>157226.851472975</v>
       </c>
       <c r="E18" t="n">
-        <v>655877.694020723</v>
+        <v>653462.53632066</v>
       </c>
       <c r="F18" t="n">
         <v>653358.302617592</v>
       </c>
       <c r="G18" t="n">
-        <v>-2519.39140313154</v>
+        <v>-104.233703068225</v>
       </c>
       <c r="H18" t="n">
-        <v>2664.31021370601</v>
+        <v>3136.26559823572</v>
       </c>
       <c r="I18" t="n">
-        <v>161348.475045366</v>
+        <v>160363.117071211</v>
       </c>
       <c r="J18" t="n">
-        <v>653336.47156695</v>
+        <v>653333.115597326</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
@@ -4227,31 +4531,31 @@
         <v>16.7619776305009</v>
       </c>
       <c r="C19" t="n">
-        <v>95553.5597244368</v>
+        <v>98512.6626392243</v>
       </c>
       <c r="D19" t="n">
-        <v>165724.513540096</v>
+        <v>165404.156098845</v>
       </c>
       <c r="E19" t="n">
-        <v>655877.694020723</v>
+        <v>653462.53632066</v>
       </c>
       <c r="F19" t="n">
         <v>653358.302617592</v>
       </c>
       <c r="G19" t="n">
-        <v>-2519.39140313154</v>
+        <v>-104.233703068225</v>
       </c>
       <c r="H19" t="n">
-        <v>2364.0905015712</v>
+        <v>2841.04384402158</v>
       </c>
       <c r="I19" t="n">
-        <v>168088.604041667</v>
+        <v>168245.199942866</v>
       </c>
       <c r="J19" t="n">
-        <v>653336.47156695</v>
+        <v>653333.115597326</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
@@ -4262,31 +4566,31 @@
         <v>20.6620801503609</v>
       </c>
       <c r="C20" t="n">
-        <v>95553.5597244368</v>
+        <v>98512.6626392243</v>
       </c>
       <c r="D20" t="n">
-        <v>174043.506007397</v>
+        <v>175066.594481183</v>
       </c>
       <c r="E20" t="n">
-        <v>655877.694020723</v>
+        <v>653462.53632066</v>
       </c>
       <c r="F20" t="n">
         <v>653358.302617592</v>
       </c>
       <c r="G20" t="n">
-        <v>-2519.39140313154</v>
+        <v>-104.233703068225</v>
       </c>
       <c r="H20" t="n">
-        <v>-785.415469510635</v>
+        <v>-179.96605794052</v>
       </c>
       <c r="I20" t="n">
-        <v>173258.090537886</v>
+        <v>174886.628423242</v>
       </c>
       <c r="J20" t="n">
-        <v>653336.47156695</v>
+        <v>653333.115597326</v>
       </c>
       <c r="K20" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
@@ -4297,31 +4601,31 @@
         <v>12.8712461333646</v>
       </c>
       <c r="C21" t="n">
-        <v>95553.5597244368</v>
+        <v>98512.6626392243</v>
       </c>
       <c r="D21" t="n">
-        <v>157425.509641571</v>
+        <v>155764.934267658</v>
       </c>
       <c r="E21" t="n">
-        <v>655877.694020723</v>
+        <v>653462.53632066</v>
       </c>
       <c r="F21" t="n">
         <v>653358.302617592</v>
       </c>
       <c r="G21" t="n">
-        <v>-2519.39140313154</v>
+        <v>-104.233703068225</v>
       </c>
       <c r="H21" t="n">
-        <v>-6784.20769953946</v>
+        <v>-5926.76410765055</v>
       </c>
       <c r="I21" t="n">
-        <v>150641.301942031</v>
+        <v>149838.170160007</v>
       </c>
       <c r="J21" t="n">
-        <v>653336.47156695</v>
+        <v>653333.115597326</v>
       </c>
       <c r="K21" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22">
@@ -4332,31 +4636,31 @@
         <v>12.9969172480957</v>
       </c>
       <c r="C22" t="n">
-        <v>68059.6273760989</v>
+        <v>72186.3223861055</v>
       </c>
       <c r="D22" t="n">
-        <v>152616.586620879</v>
+        <v>151246.58399057</v>
       </c>
       <c r="E22" t="n">
-        <v>608462.995209887</v>
+        <v>602659.460644664</v>
       </c>
       <c r="F22" t="n">
         <v>523138.200832253</v>
       </c>
       <c r="G22" t="n">
-        <v>-85324.7943776345</v>
+        <v>-79521.2598124112</v>
       </c>
       <c r="H22" t="n">
-        <v>-15632.2861885153</v>
+        <v>-14399.3503051085</v>
       </c>
       <c r="I22" t="n">
-        <v>136984.300432364</v>
+        <v>136847.233685462</v>
       </c>
       <c r="J22" t="n">
-        <v>523119.675073122</v>
+        <v>523117.218980932</v>
       </c>
       <c r="K22" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23">
@@ -4367,31 +4671,31 @@
         <v>13.1660567693933</v>
       </c>
       <c r="C23" t="n">
-        <v>68059.6273760989</v>
+        <v>72186.3223861055</v>
       </c>
       <c r="D23" t="n">
-        <v>152977.364420035</v>
+        <v>151665.624309186</v>
       </c>
       <c r="E23" t="n">
-        <v>608462.995209887</v>
+        <v>602659.460644664</v>
       </c>
       <c r="F23" t="n">
         <v>523138.200832253</v>
       </c>
       <c r="G23" t="n">
-        <v>-85324.7943776345</v>
+        <v>-79521.2598124112</v>
       </c>
       <c r="H23" t="n">
-        <v>-21452.9351223761</v>
+        <v>-19982.8688284215</v>
       </c>
       <c r="I23" t="n">
-        <v>131524.429297659</v>
+        <v>131682.755480765</v>
       </c>
       <c r="J23" t="n">
-        <v>523119.675073122</v>
+        <v>523117.218980932</v>
       </c>
       <c r="K23" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24">
@@ -4402,31 +4706,31 @@
         <v>15.8056032773851</v>
       </c>
       <c r="C24" t="n">
-        <v>68059.6273760989</v>
+        <v>72186.3223861055</v>
       </c>
       <c r="D24" t="n">
-        <v>158607.567063493</v>
+        <v>158205.056378193</v>
       </c>
       <c r="E24" t="n">
-        <v>608462.995209887</v>
+        <v>602659.460644664</v>
       </c>
       <c r="F24" t="n">
         <v>523138.200832253</v>
       </c>
       <c r="G24" t="n">
-        <v>-85324.7943776345</v>
+        <v>-79521.2598124112</v>
       </c>
       <c r="H24" t="n">
-        <v>-24246.1545011218</v>
+        <v>-22677.3196775895</v>
       </c>
       <c r="I24" t="n">
-        <v>134361.412562371</v>
+        <v>135527.736700603</v>
       </c>
       <c r="J24" t="n">
-        <v>523119.675073122</v>
+        <v>523117.218980932</v>
       </c>
       <c r="K24" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25">
@@ -4437,31 +4741,31 @@
         <v>9.07988236643246</v>
       </c>
       <c r="C25" t="n">
-        <v>68059.6273760989</v>
+        <v>72186.3223861055</v>
       </c>
       <c r="D25" t="n">
-        <v>144261.477105481</v>
+        <v>141542.195966714</v>
       </c>
       <c r="E25" t="n">
-        <v>608462.995209887</v>
+        <v>602659.460644664</v>
       </c>
       <c r="F25" t="n">
         <v>523138.200832253</v>
       </c>
       <c r="G25" t="n">
-        <v>-85324.7943776345</v>
+        <v>-79521.2598124112</v>
       </c>
       <c r="H25" t="n">
-        <v>-24011.9443247524</v>
+        <v>-22482.7028526125</v>
       </c>
       <c r="I25" t="n">
-        <v>120249.532780728</v>
+        <v>119059.493114102</v>
       </c>
       <c r="J25" t="n">
-        <v>523119.675073122</v>
+        <v>523117.218980932</v>
       </c>
       <c r="K25" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26">
@@ -4472,31 +4776,31 @@
         <v>7.86608961704685</v>
       </c>
       <c r="C26" t="n">
-        <v>-35053.7031431692</v>
+        <v>-26549.497122016</v>
       </c>
       <c r="D26" t="n">
-        <v>122631.705340529</v>
+        <v>120421.466587221</v>
       </c>
       <c r="E26" t="n">
-        <v>516286.187690363</v>
+        <v>511605.149350172</v>
       </c>
       <c r="F26" t="n">
         <v>446212.171351588</v>
       </c>
       <c r="G26" t="n">
-        <v>-70074.0163387751</v>
+        <v>-65392.9779985835</v>
       </c>
       <c r="H26" t="n">
-        <v>-20750.3045932679</v>
+        <v>-19399.0183534904</v>
       </c>
       <c r="I26" t="n">
-        <v>101881.400747261</v>
+        <v>101022.44823373</v>
       </c>
       <c r="J26" t="n">
-        <v>446206.041768152</v>
+        <v>446206.960807554</v>
       </c>
       <c r="K26" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27">
@@ -4507,31 +4811,31 @@
         <v>10.0715530925858</v>
       </c>
       <c r="C27" t="n">
-        <v>-35053.7031431692</v>
+        <v>-26549.497122016</v>
       </c>
       <c r="D27" t="n">
-        <v>127336.000662636</v>
+        <v>125885.465245814</v>
       </c>
       <c r="E27" t="n">
-        <v>516286.187690363</v>
+        <v>511605.149350172</v>
       </c>
       <c r="F27" t="n">
         <v>446212.171351588</v>
       </c>
       <c r="G27" t="n">
-        <v>-70074.0163387751</v>
+        <v>-65392.9779985835</v>
       </c>
       <c r="H27" t="n">
-        <v>-18153.541455588</v>
+        <v>-16945.7560667072</v>
       </c>
       <c r="I27" t="n">
-        <v>109182.459207048</v>
+        <v>108939.709179107</v>
       </c>
       <c r="J27" t="n">
-        <v>446206.041768152</v>
+        <v>446206.960807554</v>
       </c>
       <c r="K27" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28">
@@ -4542,31 +4846,31 @@
         <v>13.3089157038258</v>
       </c>
       <c r="C28" t="n">
-        <v>-35053.7031431692</v>
+        <v>-26549.497122016</v>
       </c>
       <c r="D28" t="n">
-        <v>134241.356365387</v>
+        <v>133905.976653682</v>
       </c>
       <c r="E28" t="n">
-        <v>516286.187690363</v>
+        <v>511605.149350172</v>
       </c>
       <c r="F28" t="n">
         <v>446212.171351588</v>
       </c>
       <c r="G28" t="n">
-        <v>-70074.0163387751</v>
+        <v>-65392.9779985835</v>
       </c>
       <c r="H28" t="n">
-        <v>-16221.6549117127</v>
+        <v>-15122.9159922626</v>
       </c>
       <c r="I28" t="n">
-        <v>118019.701453674</v>
+        <v>118783.06066142</v>
       </c>
       <c r="J28" t="n">
-        <v>446206.041768152</v>
+        <v>446206.960807554</v>
       </c>
       <c r="K28" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29">
@@ -4577,31 +4881,31 @@
         <v>12.2942828645983</v>
       </c>
       <c r="C29" t="n">
-        <v>-35053.7031431692</v>
+        <v>-26549.497122016</v>
       </c>
       <c r="D29" t="n">
-        <v>132077.125321811</v>
+        <v>131392.240863454</v>
       </c>
       <c r="E29" t="n">
-        <v>516286.187690363</v>
+        <v>511605.149350172</v>
       </c>
       <c r="F29" t="n">
         <v>446212.171351588</v>
       </c>
       <c r="G29" t="n">
-        <v>-70074.0163387751</v>
+        <v>-65392.9779985835</v>
       </c>
       <c r="H29" t="n">
-        <v>-14954.644961642</v>
+        <v>-13930.4981301568</v>
       </c>
       <c r="I29" t="n">
-        <v>117122.480360169</v>
+        <v>117461.742733297</v>
       </c>
       <c r="J29" t="n">
-        <v>446206.041768152</v>
+        <v>446206.960807554</v>
       </c>
       <c r="K29" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30">
@@ -4612,31 +4916,31 @@
         <v>10.1707925668831</v>
       </c>
       <c r="C30" t="n">
-        <v>-95965.8405634104</v>
+        <v>-84875.528357285</v>
       </c>
       <c r="D30" t="n">
-        <v>116299.75063531</v>
+        <v>115431.128203028</v>
       </c>
       <c r="E30" t="n">
-        <v>465847.72020232</v>
+        <v>462477.992810125</v>
       </c>
       <c r="F30" t="n">
         <v>420042.587470958</v>
       </c>
       <c r="G30" t="n">
-        <v>-45805.1327313624</v>
+        <v>-42435.4053391669</v>
       </c>
       <c r="H30" t="n">
-        <v>-14352.5116053759</v>
+        <v>-13368.5024803897</v>
       </c>
       <c r="I30" t="n">
-        <v>101947.239029934</v>
+        <v>102062.625722638</v>
       </c>
       <c r="J30" t="n">
-        <v>420043.780680352</v>
+        <v>420046.693482618</v>
       </c>
       <c r="K30" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31">
@@ -4647,31 +4951,31 @@
         <v>9.53002450029273</v>
       </c>
       <c r="C31" t="n">
-        <v>-95965.8405634104</v>
+        <v>-84875.528357285</v>
       </c>
       <c r="D31" t="n">
-        <v>114932.98022553</v>
+        <v>113843.636097559</v>
       </c>
       <c r="E31" t="n">
-        <v>465847.72020232</v>
+        <v>462477.992810125</v>
       </c>
       <c r="F31" t="n">
         <v>420042.587470958</v>
       </c>
       <c r="G31" t="n">
-        <v>-45805.1327313624</v>
+        <v>-42435.4053391669</v>
       </c>
       <c r="H31" t="n">
-        <v>-12951.0475729158</v>
+        <v>-12039.4331610776</v>
       </c>
       <c r="I31" t="n">
-        <v>101981.932652614</v>
+        <v>101804.202936481</v>
       </c>
       <c r="J31" t="n">
-        <v>420043.780680352</v>
+        <v>420046.693482618</v>
       </c>
       <c r="K31" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32">
@@ -4682,31 +4986,31 @@
         <v>13.0046543599672</v>
       </c>
       <c r="C32" t="n">
-        <v>-95965.8405634104</v>
+        <v>-84875.528357285</v>
       </c>
       <c r="D32" t="n">
-        <v>122344.43145844</v>
+        <v>122451.973121925</v>
       </c>
       <c r="E32" t="n">
-        <v>465847.72020232</v>
+        <v>462477.992810125</v>
       </c>
       <c r="F32" t="n">
         <v>420042.587470958</v>
       </c>
       <c r="G32" t="n">
-        <v>-45805.1327313624</v>
+        <v>-42435.4053391669</v>
       </c>
       <c r="H32" t="n">
-        <v>-10750.252864262</v>
+        <v>-9943.29017222054</v>
       </c>
       <c r="I32" t="n">
-        <v>111594.178594178</v>
+        <v>112508.682949705</v>
       </c>
       <c r="J32" t="n">
-        <v>420043.780680352</v>
+        <v>420046.693482618</v>
       </c>
       <c r="K32" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33">
@@ -4717,31 +5021,31 @@
         <v>8.28183006716988</v>
       </c>
       <c r="C33" t="n">
-        <v>-95965.8405634104</v>
+        <v>-84875.528357285</v>
       </c>
       <c r="D33" t="n">
-        <v>112270.55788304</v>
+        <v>110751.255387613</v>
       </c>
       <c r="E33" t="n">
-        <v>465847.72020232</v>
+        <v>462477.992810125</v>
       </c>
       <c r="F33" t="n">
         <v>420042.587470958</v>
       </c>
       <c r="G33" t="n">
-        <v>-45805.1327313624</v>
+        <v>-42435.4053391669</v>
       </c>
       <c r="H33" t="n">
-        <v>-7750.12747941422</v>
+        <v>-7080.0735138184</v>
       </c>
       <c r="I33" t="n">
-        <v>104520.430403626</v>
+        <v>103671.181873794</v>
       </c>
       <c r="J33" t="n">
-        <v>420043.780680352</v>
+        <v>420046.693482618</v>
       </c>
       <c r="K33" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34">
@@ -4752,31 +5056,31 @@
         <v>9.62261704631459</v>
       </c>
       <c r="C34" t="n">
-        <v>-116688.675770706</v>
+        <v>-104718.76038136</v>
       </c>
       <c r="D34" t="n">
-        <v>111303.839052154</v>
+        <v>110432.692744269</v>
       </c>
       <c r="E34" t="n">
-        <v>455402.175220627</v>
+        <v>453562.673867058</v>
       </c>
       <c r="F34" t="n">
         <v>443399.163385359</v>
       </c>
       <c r="G34" t="n">
-        <v>-12003.011835268</v>
+        <v>-10163.5104816984</v>
       </c>
       <c r="H34" t="n">
-        <v>-3950.67141837264</v>
+        <v>-3449.78318587125</v>
       </c>
       <c r="I34" t="n">
-        <v>107353.167633781</v>
+        <v>106982.909558397</v>
       </c>
       <c r="J34" t="n">
-        <v>443402.847872117</v>
+        <v>443406.439003667</v>
       </c>
       <c r="K34" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35">
@@ -4787,31 +5091,31 @@
         <v>10.6801290828198</v>
       </c>
       <c r="C35" t="n">
-        <v>-116688.675770706</v>
+        <v>-104718.76038136</v>
       </c>
       <c r="D35" t="n">
-        <v>113559.532234825</v>
+        <v>113052.661024405</v>
       </c>
       <c r="E35" t="n">
-        <v>455402.175220627</v>
+        <v>453562.673867058</v>
       </c>
       <c r="F35" t="n">
         <v>443399.163385359</v>
       </c>
       <c r="G35" t="n">
-        <v>-12003.011835268</v>
+        <v>-10163.5104816984</v>
       </c>
       <c r="H35" t="n">
-        <v>-2050.55316145799</v>
+        <v>-1633.37726668296</v>
       </c>
       <c r="I35" t="n">
-        <v>111508.979073367</v>
+        <v>111419.283757722</v>
       </c>
       <c r="J35" t="n">
-        <v>443402.847872117</v>
+        <v>443406.439003667</v>
       </c>
       <c r="K35" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36">
@@ -4822,31 +5126,31 @@
         <v>12.4331912877687</v>
       </c>
       <c r="C36" t="n">
-        <v>-116688.675770706</v>
+        <v>-104718.76038136</v>
       </c>
       <c r="D36" t="n">
-        <v>117298.847087041</v>
+        <v>117395.843145764</v>
       </c>
       <c r="E36" t="n">
-        <v>455402.175220627</v>
+        <v>453562.673867058</v>
       </c>
       <c r="F36" t="n">
         <v>443399.163385359</v>
       </c>
       <c r="G36" t="n">
-        <v>-12003.011835268</v>
+        <v>-10163.5104816984</v>
       </c>
       <c r="H36" t="n">
-        <v>-2049.77270867029</v>
+        <v>-1630.85575625352</v>
       </c>
       <c r="I36" t="n">
-        <v>115249.074378371</v>
+        <v>115764.987389511</v>
       </c>
       <c r="J36" t="n">
-        <v>443402.847872117</v>
+        <v>443406.439003667</v>
       </c>
       <c r="K36" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37">
@@ -4857,31 +5161,31 @@
         <v>10.5303060385306</v>
       </c>
       <c r="C37" t="n">
-        <v>-116688.675770706</v>
+        <v>-104718.76038136</v>
       </c>
       <c r="D37" t="n">
-        <v>113239.956846608</v>
+        <v>112681.47695262</v>
       </c>
       <c r="E37" t="n">
-        <v>455402.175220627</v>
+        <v>453562.673867058</v>
       </c>
       <c r="F37" t="n">
         <v>443399.163385359</v>
       </c>
       <c r="G37" t="n">
-        <v>-12003.011835268</v>
+        <v>-10163.5104816984</v>
       </c>
       <c r="H37" t="n">
-        <v>-3948.33006000955</v>
+        <v>-3442.21865458296</v>
       </c>
       <c r="I37" t="n">
-        <v>109291.626786598</v>
+        <v>109239.258298037</v>
       </c>
       <c r="J37" t="n">
-        <v>443402.847872117</v>
+        <v>443406.439003667</v>
       </c>
       <c r="K37" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38">
@@ -4892,31 +5196,31 @@
         <v>8.6822920429836</v>
       </c>
       <c r="C38" t="n">
-        <v>-98193.1261784176</v>
+        <v>-87008.2248374674</v>
       </c>
       <c r="D38" t="n">
-        <v>112713.464153823</v>
+        <v>111352.139395551</v>
       </c>
       <c r="E38" t="n">
-        <v>465944.557499592</v>
+        <v>462936.277196568</v>
       </c>
       <c r="F38" t="n">
         <v>428417.837259072</v>
       </c>
       <c r="G38" t="n">
-        <v>-37526.7202405198</v>
+        <v>-34518.4399374961</v>
       </c>
       <c r="H38" t="n">
-        <v>-7746.22521547576</v>
+        <v>-7067.46596167127</v>
       </c>
       <c r="I38" t="n">
-        <v>104967.238938347</v>
+        <v>104284.67343388</v>
       </c>
       <c r="J38" t="n">
-        <v>428419.298230391</v>
+        <v>428422.283931414</v>
       </c>
       <c r="K38" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39">
@@ -4927,31 +5231,31 @@
         <v>9.9847476027532</v>
       </c>
       <c r="C39" t="n">
-        <v>-98193.1261784176</v>
+        <v>-87008.2248374674</v>
       </c>
       <c r="D39" t="n">
-        <v>115491.626506105</v>
+        <v>114578.951133941</v>
       </c>
       <c r="E39" t="n">
-        <v>465944.557499592</v>
+        <v>462936.277196568</v>
       </c>
       <c r="F39" t="n">
         <v>428417.837259072</v>
       </c>
       <c r="G39" t="n">
-        <v>-37526.7202405198</v>
+        <v>-34518.4399374961</v>
       </c>
       <c r="H39" t="n">
-        <v>-9919.41911839204</v>
+        <v>-9141.97782635353</v>
       </c>
       <c r="I39" t="n">
-        <v>105572.207387713</v>
+        <v>105436.973307587</v>
       </c>
       <c r="J39" t="n">
-        <v>428419.298230391</v>
+        <v>428422.283931414</v>
       </c>
       <c r="K39" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40">
@@ -4962,31 +5266,31 @@
         <v>12.6907072524443</v>
       </c>
       <c r="C40" t="n">
-        <v>-98193.1261784176</v>
+        <v>-87008.2248374674</v>
       </c>
       <c r="D40" t="n">
-        <v>121263.489637387</v>
+        <v>121282.920644253</v>
       </c>
       <c r="E40" t="n">
-        <v>465944.557499592</v>
+        <v>462936.277196568</v>
       </c>
       <c r="F40" t="n">
         <v>428417.837259072</v>
       </c>
       <c r="G40" t="n">
-        <v>-37526.7202405198</v>
+        <v>-34518.4399374961</v>
       </c>
       <c r="H40" t="n">
-        <v>-10467.9117687584</v>
+        <v>-9665.75424862973</v>
       </c>
       <c r="I40" t="n">
-        <v>110795.577868629</v>
+        <v>111617.166395623</v>
       </c>
       <c r="J40" t="n">
-        <v>428419.298230391</v>
+        <v>428422.283931414</v>
       </c>
       <c r="K40" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41">
@@ -4997,31 +5301,31 @@
         <v>10.446230005298</v>
       </c>
       <c r="C41" t="n">
-        <v>-98193.1261784176</v>
+        <v>-87008.2248374674</v>
       </c>
       <c r="D41" t="n">
-        <v>116475.977202276</v>
+        <v>115722.266022823</v>
       </c>
       <c r="E41" t="n">
-        <v>465944.557499592</v>
+        <v>462936.277196568</v>
       </c>
       <c r="F41" t="n">
         <v>428417.837259072</v>
       </c>
       <c r="G41" t="n">
-        <v>-37526.7202405198</v>
+        <v>-34518.4399374961</v>
       </c>
       <c r="H41" t="n">
-        <v>-9391.70316657481</v>
+        <v>-8638.7952284999</v>
       </c>
       <c r="I41" t="n">
-        <v>107084.274035702</v>
+        <v>107083.470794323</v>
       </c>
       <c r="J41" t="n">
-        <v>428419.298230391</v>
+        <v>428422.283931414</v>
       </c>
       <c r="K41" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42">
@@ -5032,31 +5336,31 @@
         <v>9.60618868720091</v>
       </c>
       <c r="C42" t="n">
-        <v>-110055.410082365</v>
+        <v>-98366.8101806934</v>
       </c>
       <c r="D42" t="n">
-        <v>112493.684394446</v>
+        <v>111557.28868814</v>
       </c>
       <c r="E42" t="n">
-        <v>462249.489295651</v>
+        <v>460486.173568068</v>
       </c>
       <c r="F42" t="n">
         <v>452754.482515974</v>
       </c>
       <c r="G42" t="n">
-        <v>-9495.00677967712</v>
+        <v>-7731.69105209393</v>
       </c>
       <c r="H42" t="n">
-        <v>-6690.7933118413</v>
+        <v>-6061.10076596399</v>
       </c>
       <c r="I42" t="n">
-        <v>105802.891082605</v>
+        <v>105496.187922176</v>
       </c>
       <c r="J42" t="n">
-        <v>452757.369558536</v>
+        <v>452760.743522169</v>
       </c>
       <c r="K42" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43">
@@ -5067,31 +5371,31 @@
         <v>10.0548703006577</v>
       </c>
       <c r="C43" t="n">
-        <v>-110055.410082365</v>
+        <v>-98366.8101806934</v>
       </c>
       <c r="D43" t="n">
-        <v>113450.730765293</v>
+        <v>112668.889837401</v>
       </c>
       <c r="E43" t="n">
-        <v>462249.489295651</v>
+        <v>460486.173568068</v>
       </c>
       <c r="F43" t="n">
         <v>452754.482515974</v>
       </c>
       <c r="G43" t="n">
-        <v>-9495.00677967712</v>
+        <v>-7731.69105209393</v>
       </c>
       <c r="H43" t="n">
-        <v>-3883.3240189229</v>
+        <v>-3378.12567915399</v>
       </c>
       <c r="I43" t="n">
-        <v>109567.40674637</v>
+        <v>109290.764158247</v>
       </c>
       <c r="J43" t="n">
-        <v>452757.369558536</v>
+        <v>452760.743522169</v>
       </c>
       <c r="K43" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44">
@@ -5102,31 +5406,31 @@
         <v>12.6765254337763</v>
       </c>
       <c r="C44" t="n">
-        <v>-110055.410082365</v>
+        <v>-98366.8101806934</v>
       </c>
       <c r="D44" t="n">
-        <v>119042.770767631</v>
+        <v>119163.996326143</v>
       </c>
       <c r="E44" t="n">
-        <v>462249.489295651</v>
+        <v>460486.173568068</v>
       </c>
       <c r="F44" t="n">
         <v>452754.482515974</v>
       </c>
       <c r="G44" t="n">
-        <v>-9495.00677967712</v>
+        <v>-7731.69105209393</v>
       </c>
       <c r="H44" t="n">
-        <v>-969.295287819585</v>
+        <v>-589.869968069881</v>
       </c>
       <c r="I44" t="n">
-        <v>118073.475479811</v>
+        <v>118574.126358073</v>
       </c>
       <c r="J44" t="n">
-        <v>452757.369558536</v>
+        <v>452760.743522169</v>
       </c>
       <c r="K44" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45">
@@ -5137,31 +5441,31 @@
         <v>11.8418083189303</v>
       </c>
       <c r="C45" t="n">
-        <v>-110055.410082365</v>
+        <v>-98366.8101806934</v>
       </c>
       <c r="D45" t="n">
-        <v>117262.303368281</v>
+        <v>117095.998716384</v>
       </c>
       <c r="E45" t="n">
-        <v>462249.489295651</v>
+        <v>460486.173568068</v>
       </c>
       <c r="F45" t="n">
         <v>452754.482515974</v>
       </c>
       <c r="G45" t="n">
-        <v>-9495.00677967712</v>
+        <v>-7731.69105209393</v>
       </c>
       <c r="H45" t="n">
-        <v>2051.29288146862</v>
+        <v>2303.66636728832</v>
       </c>
       <c r="I45" t="n">
-        <v>119313.59624975</v>
+        <v>119399.665083673</v>
       </c>
       <c r="J45" t="n">
-        <v>452757.369558536</v>
+        <v>452760.743522169</v>
       </c>
       <c r="K45" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46">
@@ -5172,31 +5476,31 @@
         <v>11.6269329861453</v>
       </c>
       <c r="C46" t="n">
-        <v>-90785.5717503577</v>
+        <v>-79915.2176990448</v>
       </c>
       <c r="D46" t="n">
-        <v>120362.30515963</v>
+        <v>119948.685311572</v>
       </c>
       <c r="E46" t="n">
-        <v>489674.276984585</v>
+        <v>489348.073629684</v>
       </c>
       <c r="F46" t="n">
         <v>516134.564716412</v>
       </c>
       <c r="G46" t="n">
-        <v>26460.287731827</v>
+        <v>26786.4910867288</v>
       </c>
       <c r="H46" t="n">
-        <v>5178.44048894172</v>
+        <v>5302.48332692063</v>
       </c>
       <c r="I46" t="n">
-        <v>125540.745648572</v>
+        <v>125251.168638492</v>
       </c>
       <c r="J46" t="n">
-        <v>516135.135159361</v>
+        <v>516137.878405854</v>
       </c>
       <c r="K46" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47">
@@ -5207,31 +5511,31 @@
         <v>11.8416593076354</v>
       </c>
       <c r="C47" t="n">
-        <v>-90785.5717503577</v>
+        <v>-79915.2176990448</v>
       </c>
       <c r="D47" t="n">
-        <v>120820.320466128</v>
+        <v>120480.666160767</v>
       </c>
       <c r="E47" t="n">
-        <v>489674.276984585</v>
+        <v>489348.073629684</v>
       </c>
       <c r="F47" t="n">
         <v>516134.564716412</v>
       </c>
       <c r="G47" t="n">
-        <v>26460.287731827</v>
+        <v>26786.4910867288</v>
       </c>
       <c r="H47" t="n">
-        <v>7004.00915383188</v>
+        <v>7059.99725762232</v>
       </c>
       <c r="I47" t="n">
-        <v>127824.32961996</v>
+        <v>127540.663418389</v>
       </c>
       <c r="J47" t="n">
-        <v>516135.135159361</v>
+        <v>516137.878405854</v>
       </c>
       <c r="K47" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48">
@@ -5242,31 +5546,31 @@
         <v>14.4366298282698</v>
       </c>
       <c r="C48" t="n">
-        <v>-90785.5717503577</v>
+        <v>-79915.2176990448</v>
       </c>
       <c r="D48" t="n">
-        <v>126355.441685147</v>
+        <v>126909.661970988</v>
       </c>
       <c r="E48" t="n">
-        <v>489674.276984585</v>
+        <v>489348.073629684</v>
       </c>
       <c r="F48" t="n">
         <v>516134.564716412</v>
       </c>
       <c r="G48" t="n">
-        <v>26460.287731827</v>
+        <v>26786.4910867288</v>
       </c>
       <c r="H48" t="n">
-        <v>7527.9988761391</v>
+        <v>7576.20815939341</v>
       </c>
       <c r="I48" t="n">
-        <v>133883.440561286</v>
+        <v>134485.870130382</v>
       </c>
       <c r="J48" t="n">
-        <v>516135.135159361</v>
+        <v>516137.878405854</v>
       </c>
       <c r="K48" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49">
@@ -5277,31 +5581,31 @@
         <v>12.4585732950445</v>
       </c>
       <c r="C49" t="n">
-        <v>-90785.5717503577</v>
+        <v>-79915.2176990448</v>
       </c>
       <c r="D49" t="n">
-        <v>122136.20967368</v>
+        <v>122009.060186357</v>
       </c>
       <c r="E49" t="n">
-        <v>489674.276984585</v>
+        <v>489348.073629684</v>
       </c>
       <c r="F49" t="n">
         <v>516134.564716412</v>
       </c>
       <c r="G49" t="n">
-        <v>26460.287731827</v>
+        <v>26786.4910867288</v>
       </c>
       <c r="H49" t="n">
-        <v>6750.40965586337</v>
+        <v>6851.11603223389</v>
       </c>
       <c r="I49" t="n">
-        <v>128886.619329543</v>
+        <v>128860.176218591</v>
       </c>
       <c r="J49" t="n">
-        <v>516135.135159361</v>
+        <v>516137.878405854</v>
       </c>
       <c r="K49" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50">
@@ -5312,31 +5616,31 @@
         <v>11.1723724357065</v>
       </c>
       <c r="C50" t="n">
-        <v>-40596.9374718198</v>
+        <v>-31856.8890907865</v>
       </c>
       <c r="D50" t="n">
-        <v>128660.465107893</v>
+        <v>127639.059136841</v>
       </c>
       <c r="E50" t="n">
-        <v>533274.438547377</v>
+        <v>532197.816180438</v>
       </c>
       <c r="F50" t="n">
         <v>547515.023707394</v>
       </c>
       <c r="G50" t="n">
-        <v>14240.5851600167</v>
+        <v>15317.2075269556</v>
       </c>
       <c r="H50" t="n">
-        <v>4671.24149300469</v>
+        <v>4884.72087614376</v>
       </c>
       <c r="I50" t="n">
-        <v>133331.706600898</v>
+        <v>132523.780012984</v>
       </c>
       <c r="J50" t="n">
-        <v>547509.560525735</v>
+        <v>547510.660925702</v>
       </c>
       <c r="K50" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51">
@@ -5347,31 +5651,31 @@
         <v>12.0978087146702</v>
       </c>
       <c r="C51" t="n">
-        <v>-40596.9374718198</v>
+        <v>-31856.8890907865</v>
       </c>
       <c r="D51" t="n">
-        <v>130634.438200771</v>
+        <v>129931.811949551</v>
       </c>
       <c r="E51" t="n">
-        <v>533274.438547377</v>
+        <v>532197.816180438</v>
       </c>
       <c r="F51" t="n">
         <v>547515.023707394</v>
       </c>
       <c r="G51" t="n">
-        <v>14240.5851600167</v>
+        <v>15317.2075269556</v>
       </c>
       <c r="H51" t="n">
-        <v>3394.58982849513</v>
+        <v>3675.55893777666</v>
       </c>
       <c r="I51" t="n">
-        <v>134029.028029266</v>
+        <v>133607.370887327</v>
       </c>
       <c r="J51" t="n">
-        <v>547509.560525735</v>
+        <v>547510.660925702</v>
       </c>
       <c r="K51" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52">
@@ -5382,31 +5686,31 @@
         <v>15.3467773805121</v>
       </c>
       <c r="C52" t="n">
-        <v>-40596.9374718198</v>
+        <v>-31856.8890907865</v>
       </c>
       <c r="D52" t="n">
-        <v>137564.549837581</v>
+        <v>137981.077162448</v>
       </c>
       <c r="E52" t="n">
-        <v>533274.438547377</v>
+        <v>532197.816180438</v>
       </c>
       <c r="F52" t="n">
         <v>547515.023707394</v>
       </c>
       <c r="G52" t="n">
-        <v>14240.5851600167</v>
+        <v>15317.2075269556</v>
       </c>
       <c r="H52" t="n">
-        <v>2920.45466233466</v>
+        <v>3223.63021713258</v>
       </c>
       <c r="I52" t="n">
-        <v>140485.004499915</v>
+        <v>141204.707379581</v>
       </c>
       <c r="J52" t="n">
-        <v>547509.560525735</v>
+        <v>547510.660925702</v>
       </c>
       <c r="K52" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53">
@@ -5417,31 +5721,31 @@
         <v>14.8078396217681</v>
       </c>
       <c r="C53" t="n">
-        <v>-40596.9374718198</v>
+        <v>-31856.8890907865</v>
       </c>
       <c r="D53" t="n">
-        <v>136414.985401132</v>
+        <v>136645.867931598</v>
       </c>
       <c r="E53" t="n">
-        <v>533274.438547377</v>
+        <v>532197.816180438</v>
       </c>
       <c r="F53" t="n">
         <v>547515.023707394</v>
       </c>
       <c r="G53" t="n">
-        <v>14240.5851600167</v>
+        <v>15317.2075269556</v>
       </c>
       <c r="H53" t="n">
-        <v>3248.83599452331</v>
+        <v>3528.93471421153</v>
       </c>
       <c r="I53" t="n">
-        <v>139663.821395655</v>
+        <v>140174.80264581</v>
       </c>
       <c r="J53" t="n">
-        <v>547509.560525735</v>
+        <v>547510.660925702</v>
       </c>
       <c r="K53" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54">
@@ -5452,31 +5756,31 @@
         <v>11.9710957004141</v>
       </c>
       <c r="C54" t="n">
-        <v>-15745.655231926</v>
+        <v>-8060.01288254664</v>
       </c>
       <c r="D54" t="n">
-        <v>134953.151642121</v>
+        <v>133983.53815031</v>
       </c>
       <c r="E54" t="n">
-        <v>549863.66294179</v>
+        <v>547608.368351071</v>
       </c>
       <c r="F54" t="n">
         <v>539022.989199124</v>
       </c>
       <c r="G54" t="n">
-        <v>-10840.6737426659</v>
+        <v>-8585.37915194698</v>
       </c>
       <c r="H54" t="n">
-        <v>4379.73382506108</v>
+        <v>4591.47242901351</v>
       </c>
       <c r="I54" t="n">
-        <v>139332.885467182</v>
+        <v>138575.010579324</v>
       </c>
       <c r="J54" t="n">
-        <v>539014.53842256</v>
+        <v>539014.825285797</v>
       </c>
       <c r="K54" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55">
@@ -5487,31 +5791,31 @@
         <v>13.2205956436372</v>
       </c>
       <c r="C55" t="n">
-        <v>-15745.655231926</v>
+        <v>-8060.01288254664</v>
       </c>
       <c r="D55" t="n">
-        <v>137618.358662356</v>
+        <v>137079.153239567</v>
       </c>
       <c r="E55" t="n">
-        <v>549863.66294179</v>
+        <v>547608.368351071</v>
       </c>
       <c r="F55" t="n">
         <v>539022.989199124</v>
       </c>
       <c r="G55" t="n">
-        <v>-10840.6737426659</v>
+        <v>-8585.37915194698</v>
       </c>
       <c r="H55" t="n">
-        <v>1995.28697532875</v>
+        <v>2320.54423680146</v>
       </c>
       <c r="I55" t="n">
-        <v>139613.645637684</v>
+        <v>139399.697476369</v>
       </c>
       <c r="J55" t="n">
-        <v>539014.53842256</v>
+        <v>539014.825285797</v>
       </c>
       <c r="K55" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56">
@@ -5522,31 +5826,31 @@
         <v>16.5101568499509</v>
       </c>
       <c r="C56" t="n">
-        <v>-15745.655231926</v>
+        <v>-8060.01288254664</v>
       </c>
       <c r="D56" t="n">
-        <v>144635.054956029</v>
+        <v>145228.985788604</v>
       </c>
       <c r="E56" t="n">
-        <v>549863.66294179</v>
+        <v>547608.368351071</v>
       </c>
       <c r="F56" t="n">
         <v>539022.989199124</v>
       </c>
       <c r="G56" t="n">
-        <v>-10840.6737426659</v>
+        <v>-8585.37915194698</v>
       </c>
       <c r="H56" t="n">
-        <v>-3904.50455467368</v>
+        <v>-3283.84986242465</v>
       </c>
       <c r="I56" t="n">
-        <v>140730.550401355</v>
+        <v>141945.13592618</v>
       </c>
       <c r="J56" t="n">
-        <v>539014.53842256</v>
+        <v>539014.825285797</v>
       </c>
       <c r="K56" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57">
@@ -5557,31 +5861,31 @@
         <v>10.894661760416</v>
       </c>
       <c r="C57" t="n">
-        <v>-15745.655231926</v>
+        <v>-8060.01288254664</v>
       </c>
       <c r="D57" t="n">
-        <v>132657.097681285</v>
+        <v>131316.69117259</v>
       </c>
       <c r="E57" t="n">
-        <v>549863.66294179</v>
+        <v>547608.368351071</v>
       </c>
       <c r="F57" t="n">
         <v>539022.989199124</v>
       </c>
       <c r="G57" t="n">
-        <v>-10840.6737426659</v>
+        <v>-8585.37915194698</v>
       </c>
       <c r="H57" t="n">
-        <v>-13319.6407649462</v>
+        <v>-12221.7098686648</v>
       </c>
       <c r="I57" t="n">
-        <v>119337.456916339</v>
+        <v>119094.981303925</v>
       </c>
       <c r="J57" t="n">
-        <v>539014.53842256</v>
+        <v>539014.825285797</v>
       </c>
       <c r="K57" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58">
@@ -5592,31 +5896,31 @@
         <v>6.10032222144225</v>
       </c>
       <c r="C58" t="n">
-        <v>-22470.9353416087</v>
+        <v>-14499.9773138</v>
       </c>
       <c r="D58" t="n">
-        <v>121188.802166023</v>
+        <v>118257.352042426</v>
       </c>
       <c r="E58" t="n">
-        <v>516545.020450043</v>
+        <v>509953.001835071</v>
       </c>
       <c r="F58" t="n">
         <v>402806.98332989</v>
       </c>
       <c r="G58" t="n">
-        <v>-113738.037120152</v>
+        <v>-107146.018505181</v>
       </c>
       <c r="H58" t="n">
-        <v>-26250.1216554888</v>
+        <v>-24493.035781919</v>
       </c>
       <c r="I58" t="n">
-        <v>94938.6805105347</v>
+        <v>93764.3162605072</v>
       </c>
       <c r="J58" t="n">
-        <v>402799.341059398</v>
+        <v>402799.848087398</v>
       </c>
       <c r="K58" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59">
@@ -5627,31 +5931,31 @@
         <v>7.24069157172765</v>
       </c>
       <c r="C59" t="n">
-        <v>-22470.9353416087</v>
+        <v>-14499.9773138</v>
       </c>
       <c r="D59" t="n">
-        <v>123621.231566701</v>
+        <v>121082.597923561</v>
       </c>
       <c r="E59" t="n">
-        <v>516545.020450043</v>
+        <v>509953.001835071</v>
       </c>
       <c r="F59" t="n">
         <v>402806.98332989</v>
       </c>
       <c r="G59" t="n">
-        <v>-113738.037120152</v>
+        <v>-107146.018505181</v>
       </c>
       <c r="H59" t="n">
-        <v>-32296.8332885748</v>
+        <v>-30319.6672092203</v>
       </c>
       <c r="I59" t="n">
-        <v>91324.3982781264</v>
+        <v>90762.9307143411</v>
       </c>
       <c r="J59" t="n">
-        <v>402799.341059398</v>
+        <v>402799.848087398</v>
       </c>
       <c r="K59" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60">
@@ -5662,31 +5966,31 @@
         <v>12.4193586127823</v>
       </c>
       <c r="C60" t="n">
-        <v>-22470.9353416087</v>
+        <v>-14499.9773138</v>
       </c>
       <c r="D60" t="n">
-        <v>134667.42634897</v>
+        <v>133912.658398134</v>
       </c>
       <c r="E60" t="n">
-        <v>516545.020450043</v>
+        <v>509953.001835071</v>
       </c>
       <c r="F60" t="n">
         <v>402806.98332989</v>
       </c>
       <c r="G60" t="n">
-        <v>-113738.037120152</v>
+        <v>-107146.018505181</v>
       </c>
       <c r="H60" t="n">
-        <v>-31459.7756642041</v>
+        <v>-29701.6041505689</v>
       </c>
       <c r="I60" t="n">
-        <v>103207.650684766</v>
+        <v>104211.054247565</v>
       </c>
       <c r="J60" t="n">
-        <v>402799.341059398</v>
+        <v>402799.848087398</v>
       </c>
       <c r="K60" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61">
@@ -5697,31 +6001,31 @@
         <v>13.5445872716336</v>
       </c>
       <c r="C61" t="n">
-        <v>-22470.9353416087</v>
+        <v>-14499.9773138</v>
       </c>
       <c r="D61" t="n">
-        <v>137067.560368348</v>
+        <v>136700.39347095</v>
       </c>
       <c r="E61" t="n">
-        <v>516545.020450043</v>
+        <v>509953.001835071</v>
       </c>
       <c r="F61" t="n">
         <v>402806.98332989</v>
       </c>
       <c r="G61" t="n">
-        <v>-113738.037120152</v>
+        <v>-107146.018505181</v>
       </c>
       <c r="H61" t="n">
-        <v>-23738.9487823768</v>
+        <v>-22638.8466059645</v>
       </c>
       <c r="I61" t="n">
-        <v>113328.611585971</v>
+        <v>114061.546864985</v>
       </c>
       <c r="J61" t="n">
-        <v>402799.341059398</v>
+        <v>402799.848087398</v>
       </c>
       <c r="K61" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62">
@@ -5732,31 +6036,31 @@
         <v>11.5815278058798</v>
       </c>
       <c r="C62" t="n">
-        <v>-130335.812985709</v>
+        <v>-117786.390973173</v>
       </c>
       <c r="D62" t="n">
-        <v>112962.176065602</v>
+        <v>112888.539225785</v>
       </c>
       <c r="E62" t="n">
-        <v>473816.022623</v>
+        <v>477069.008721884</v>
       </c>
       <c r="F62" t="n">
         <v>476661.624705117</v>
       </c>
       <c r="G62" t="n">
-        <v>2845.60208211764</v>
+        <v>-407.384016767028</v>
       </c>
       <c r="H62" t="n">
-        <v>-9134.35264309281</v>
+        <v>-9131.39457540737</v>
       </c>
       <c r="I62" t="n">
-        <v>103827.823422509</v>
+        <v>103757.144650378</v>
       </c>
       <c r="J62" t="n">
-        <v>476666.949836298</v>
+        <v>476670.98764714</v>
       </c>
       <c r="K62" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63">
@@ -5767,31 +6071,31 @@
         <v>12.8639443703468</v>
       </c>
       <c r="C63" t="n">
-        <v>-130335.812985709</v>
+        <v>-117786.390973173</v>
       </c>
       <c r="D63" t="n">
-        <v>115697.594861753</v>
+        <v>116065.704690424</v>
       </c>
       <c r="E63" t="n">
-        <v>473816.022623</v>
+        <v>477069.008721884</v>
       </c>
       <c r="F63" t="n">
         <v>476661.624705117</v>
       </c>
       <c r="G63" t="n">
-        <v>2845.60208211764</v>
+        <v>-407.384016767028</v>
       </c>
       <c r="H63" t="n">
-        <v>646.319591187732</v>
+        <v>-115.658040495997</v>
       </c>
       <c r="I63" t="n">
-        <v>116343.914452941</v>
+        <v>115950.046649928</v>
       </c>
       <c r="J63" t="n">
-        <v>476666.949836298</v>
+        <v>476670.98764714</v>
       </c>
       <c r="K63" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64">
@@ -5802,31 +6106,31 @@
         <v>16.3233170777364</v>
       </c>
       <c r="C64" t="n">
-        <v>-130335.812985709</v>
+        <v>-117786.390973173</v>
       </c>
       <c r="D64" t="n">
-        <v>123076.502300164</v>
+        <v>124636.242376673</v>
       </c>
       <c r="E64" t="n">
-        <v>473816.022623</v>
+        <v>477069.008721884</v>
       </c>
       <c r="F64" t="n">
         <v>476661.624705117</v>
       </c>
       <c r="G64" t="n">
-        <v>2845.60208211764</v>
+        <v>-407.384016767028</v>
       </c>
       <c r="H64" t="n">
-        <v>5603.06792046481</v>
+        <v>4408.36299876957</v>
       </c>
       <c r="I64" t="n">
-        <v>128679.570220629</v>
+        <v>129044.605375443</v>
       </c>
       <c r="J64" t="n">
-        <v>476666.949836298</v>
+        <v>476670.98764714</v>
       </c>
       <c r="K64" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65">
@@ -5837,31 +6141,31 @@
         <v>15.8560202830208</v>
       </c>
       <c r="C65" t="n">
-        <v>-130335.812985709</v>
+        <v>-117786.390973173</v>
       </c>
       <c r="D65" t="n">
-        <v>122079.749395481</v>
+        <v>123478.522429002</v>
       </c>
       <c r="E65" t="n">
-        <v>473816.022623</v>
+        <v>477069.008721884</v>
       </c>
       <c r="F65" t="n">
         <v>476661.624705117</v>
       </c>
       <c r="G65" t="n">
-        <v>2845.60208211764</v>
+        <v>-407.384016767028</v>
       </c>
       <c r="H65" t="n">
-        <v>5735.89234473844</v>
+        <v>4440.66854238935</v>
       </c>
       <c r="I65" t="n">
-        <v>127815.641740219</v>
+        <v>127919.190971391</v>
       </c>
       <c r="J65" t="n">
-        <v>476666.949836298</v>
+        <v>476670.98764714</v>
       </c>
       <c r="K65" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66">
@@ -5872,31 +6176,31 @@
         <v>13.7476101794998</v>
       </c>
       <c r="C66" t="n">
-        <v>-93424.7390632378</v>
+        <v>-86841.3862563655</v>
       </c>
       <c r="D66" t="n">
-        <v>124398.405676677</v>
+        <v>123931.987235327</v>
       </c>
       <c r="E66" t="n">
-        <v>530273.025450298</v>
+        <v>533684.794872193</v>
       </c>
       <c r="F66" t="n">
         <v>521002.8573654</v>
       </c>
       <c r="G66" t="n">
-        <v>-9270.16808489861</v>
+        <v>-12681.9375067933</v>
       </c>
       <c r="H66" t="n">
-        <v>1044.79286400861</v>
+        <v>-18.7414096366638</v>
       </c>
       <c r="I66" t="n">
-        <v>125443.198540686</v>
+        <v>123913.24582569</v>
       </c>
       <c r="J66" t="n">
-        <v>521003.745086255</v>
+        <v>521007.277388218</v>
       </c>
       <c r="K66" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67">
@@ -5907,31 +6211,31 @@
         <v>15.8393655224433</v>
       </c>
       <c r="C67" t="n">
-        <v>-93424.7390632378</v>
+        <v>-86841.3862563655</v>
       </c>
       <c r="D67" t="n">
-        <v>128860.159400528</v>
+        <v>129114.275908303</v>
       </c>
       <c r="E67" t="n">
-        <v>530273.025450298</v>
+        <v>533684.794872193</v>
       </c>
       <c r="F67" t="n">
         <v>521002.8573654</v>
       </c>
       <c r="G67" t="n">
-        <v>-9270.16808489861</v>
+        <v>-12681.9375067933</v>
       </c>
       <c r="H67" t="n">
-        <v>-2176.49211029106</v>
+        <v>-3062.76057498994</v>
       </c>
       <c r="I67" t="n">
-        <v>126683.667290236</v>
+        <v>126051.515333313</v>
       </c>
       <c r="J67" t="n">
-        <v>521003.745086255</v>
+        <v>521007.277388218</v>
       </c>
       <c r="K67" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68">
@@ -5942,31 +6246,31 @@
         <v>20.6463974101159</v>
       </c>
       <c r="C68" t="n">
-        <v>-93424.7390632378</v>
+        <v>-86841.3862563655</v>
       </c>
       <c r="D68" t="n">
-        <v>139113.649369057</v>
+        <v>141023.616542312</v>
       </c>
       <c r="E68" t="n">
-        <v>530273.025450298</v>
+        <v>533684.794872193</v>
       </c>
       <c r="F68" t="n">
         <v>521002.8573654</v>
       </c>
       <c r="G68" t="n">
-        <v>-9270.16808489861</v>
+        <v>-12681.9375067933</v>
       </c>
       <c r="H68" t="n">
-        <v>-3927.96257816058</v>
+        <v>-4691.38895367048</v>
       </c>
       <c r="I68" t="n">
-        <v>135185.686790897</v>
+        <v>136332.227588642</v>
       </c>
       <c r="J68" t="n">
-        <v>521003.745086255</v>
+        <v>521007.277388218</v>
       </c>
       <c r="K68" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69">
@@ -5977,31 +6281,31 @@
         <v>20.0777956254413</v>
       </c>
       <c r="C69" t="n">
-        <v>-93424.7390632378</v>
+        <v>-86841.3862563655</v>
       </c>
       <c r="D69" t="n">
-        <v>137900.811004036</v>
+        <v>139614.915186251</v>
       </c>
       <c r="E69" t="n">
-        <v>530273.025450298</v>
+        <v>533684.794872193</v>
       </c>
       <c r="F69" t="n">
         <v>521002.8573654</v>
       </c>
       <c r="G69" t="n">
-        <v>-9270.16808489861</v>
+        <v>-12681.9375067933</v>
       </c>
       <c r="H69" t="n">
-        <v>-4209.61853959992</v>
+        <v>-4904.62654567827</v>
       </c>
       <c r="I69" t="n">
-        <v>133691.192464436</v>
+        <v>134710.288640573</v>
       </c>
       <c r="J69" t="n">
-        <v>521003.745086255</v>
+        <v>521007.277388218</v>
       </c>
       <c r="K69" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70">
@@ -6012,31 +6316,31 @@
         <v>17.8128858295516</v>
       </c>
       <c r="C70" t="n">
-        <v>-78276.7695323449</v>
+        <v>-76407.8782725827</v>
       </c>
       <c r="D70" t="n">
-        <v>135866.913350141</v>
+        <v>135917.718317109</v>
       </c>
       <c r="E70" t="n">
-        <v>564432.053374589</v>
+        <v>568020.843985196</v>
       </c>
       <c r="F70" t="n">
         <v>563127.585682477</v>
       </c>
       <c r="G70" t="n">
-        <v>-1304.4676921115</v>
+        <v>-4893.25830271887</v>
       </c>
       <c r="H70" t="n">
-        <v>-3021.4599946091</v>
+        <v>-3702.47335101332</v>
       </c>
       <c r="I70" t="n">
-        <v>132845.453355532</v>
+        <v>132215.244966096</v>
       </c>
       <c r="J70" t="n">
-        <v>563126.652330434</v>
+        <v>563130.339136249</v>
       </c>
       <c r="K70" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71">
@@ -6047,31 +6351,31 @@
         <v>19.492814365488</v>
       </c>
       <c r="C71" t="n">
-        <v>-78276.7695323449</v>
+        <v>-76407.8782725827</v>
       </c>
       <c r="D71" t="n">
-        <v>139450.232702618</v>
+        <v>140079.713003803</v>
       </c>
       <c r="E71" t="n">
-        <v>564432.053374589</v>
+        <v>568020.843985196</v>
       </c>
       <c r="F71" t="n">
         <v>563127.585682477</v>
       </c>
       <c r="G71" t="n">
-        <v>-1304.4676921115</v>
+        <v>-4893.25830271887</v>
       </c>
       <c r="H71" t="n">
-        <v>-1468.15268318463</v>
+        <v>-2229.67321763667</v>
       </c>
       <c r="I71" t="n">
-        <v>137982.080019433</v>
+        <v>137850.039786166</v>
       </c>
       <c r="J71" t="n">
-        <v>563126.652330434</v>
+        <v>563130.339136249</v>
       </c>
       <c r="K71" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72">
@@ -6082,31 +6386,31 @@
         <v>22.3762902277848</v>
       </c>
       <c r="C72" t="n">
-        <v>-78276.7695323449</v>
+        <v>-76407.8782725827</v>
       </c>
       <c r="D72" t="n">
-        <v>145600.741274108</v>
+        <v>147223.475944527</v>
       </c>
       <c r="E72" t="n">
-        <v>564432.053374589</v>
+        <v>568020.843985196</v>
       </c>
       <c r="F72" t="n">
         <v>563127.585682477</v>
       </c>
       <c r="G72" t="n">
-        <v>-1304.4676921115</v>
+        <v>-4893.25830271887</v>
       </c>
       <c r="H72" t="n">
-        <v>450.30339467351</v>
+        <v>-486.226145548313</v>
       </c>
       <c r="I72" t="n">
-        <v>146051.044668782</v>
+        <v>146737.249798979</v>
       </c>
       <c r="J72" t="n">
-        <v>563126.652330434</v>
+        <v>563130.339136249</v>
       </c>
       <c r="K72" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73">
@@ -6117,31 +6421,31 @@
         <v>21.3980639184935</v>
       </c>
       <c r="C73" t="n">
-        <v>-78276.7695323449</v>
+        <v>-76407.8782725827</v>
       </c>
       <c r="D73" t="n">
-        <v>143514.166047721</v>
+        <v>144799.936719756</v>
       </c>
       <c r="E73" t="n">
-        <v>564432.053374589</v>
+        <v>568020.843985196</v>
       </c>
       <c r="F73" t="n">
         <v>563127.585682477</v>
       </c>
       <c r="G73" t="n">
-        <v>-1304.4676921115</v>
+        <v>-4893.25830271887</v>
       </c>
       <c r="H73" t="n">
-        <v>2733.9082389653</v>
+        <v>1527.86786525175</v>
       </c>
       <c r="I73" t="n">
-        <v>146248.074286687</v>
+        <v>146327.804585008</v>
       </c>
       <c r="J73" t="n">
-        <v>563126.652330434</v>
+        <v>563130.339136249</v>
       </c>
       <c r="K73" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74">
@@ -6152,31 +6456,31 @@
         <v>21.5284115074761</v>
       </c>
       <c r="C74" t="n">
-        <v>-59122.2779624283</v>
+        <v>-60962.8828762365</v>
       </c>
       <c r="D74" t="n">
-        <v>147329.235129908</v>
+        <v>147956.332073571</v>
       </c>
       <c r="E74" t="n">
-        <v>618936.796276562</v>
+        <v>626228.536647947</v>
       </c>
       <c r="F74" t="n">
         <v>636254</v>
       </c>
       <c r="G74" t="n">
-        <v>17317.2037234381</v>
+        <v>10025.4633520527</v>
       </c>
       <c r="H74" t="n">
-        <v>5382.66184969076</v>
+        <v>3812.60881476352</v>
       </c>
       <c r="I74" t="n">
-        <v>152711.896979598</v>
+        <v>151768.940888335</v>
       </c>
       <c r="J74" t="n">
-        <v>636250.763915209</v>
+        <v>636254.286387922</v>
       </c>
       <c r="K74" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75">
@@ -6187,31 +6491,31 @@
         <v>24.3557291688173</v>
       </c>
       <c r="C75" t="n">
-        <v>-59122.2779624283</v>
+        <v>-60962.8828762365</v>
       </c>
       <c r="D75" t="n">
-        <v>153359.957196211</v>
+        <v>154960.964016166</v>
       </c>
       <c r="E75" t="n">
-        <v>618936.796276562</v>
+        <v>626228.536647947</v>
       </c>
       <c r="F75" t="n">
         <v>636254</v>
       </c>
       <c r="G75" t="n">
-        <v>17317.2037234381</v>
+        <v>10025.4633520527</v>
       </c>
       <c r="H75" t="n">
-        <v>6020.49531796939</v>
+        <v>4204.03664266034</v>
       </c>
       <c r="I75" t="n">
-        <v>159380.45251418</v>
+        <v>159165.000658827</v>
       </c>
       <c r="J75" t="n">
-        <v>636250.763915209</v>
+        <v>636254.286387922</v>
       </c>
       <c r="K75" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76">
@@ -6222,31 +6526,31 @@
         <v>28.755476456913</v>
       </c>
       <c r="C76" t="n">
-        <v>-59122.2779624283</v>
+        <v>-60962.8828762365</v>
       </c>
       <c r="D76" t="n">
-        <v>162744.701407757</v>
+        <v>165861.263906388</v>
       </c>
       <c r="E76" t="n">
-        <v>618936.796276562</v>
+        <v>626228.536647947</v>
       </c>
       <c r="F76" t="n">
         <v>636254</v>
       </c>
       <c r="G76" t="n">
-        <v>17317.2037234381</v>
+        <v>10025.4633520527</v>
       </c>
       <c r="H76" t="n">
-        <v>4647.40864380119</v>
+        <v>2702.15134894222</v>
       </c>
       <c r="I76" t="n">
-        <v>167392.110051559</v>
+        <v>168563.41525533</v>
       </c>
       <c r="J76" t="n">
-        <v>636250.763915209</v>
+        <v>636254.286387922</v>
       </c>
       <c r="K76" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77">
@@ -6257,31 +6561,31 @@
         <v>25.3603828667936</v>
       </c>
       <c r="C77" t="n">
-        <v>-59122.2779624283</v>
+        <v>-60962.8828762365</v>
       </c>
       <c r="D77" t="n">
-        <v>155502.902542686</v>
+        <v>157449.976651822</v>
       </c>
       <c r="E77" t="n">
-        <v>618936.796276562</v>
+        <v>626228.536647947</v>
       </c>
       <c r="F77" t="n">
         <v>636254</v>
       </c>
       <c r="G77" t="n">
-        <v>17317.2037234381</v>
+        <v>10025.4633520527</v>
       </c>
       <c r="H77" t="n">
-        <v>1263.40182718618</v>
+        <v>-693.047066390842</v>
       </c>
       <c r="I77" t="n">
-        <v>156766.304369872</v>
+        <v>156756.929585431</v>
       </c>
       <c r="J77" t="n">
-        <v>636250.763915209</v>
+        <v>636254.286387922</v>
       </c>
       <c r="K77" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78">
@@ -6292,31 +6596,31 @@
         <v>24.4972258124013</v>
       </c>
       <c r="C78" t="n">
-        <v>-26352.4657123722</v>
+        <v>-34710.3156417797</v>
       </c>
       <c r="D78" t="n">
-        <v>159712.988937187</v>
+        <v>160127.683891958</v>
       </c>
       <c r="E78" t="n">
-        <v>673594.152574314</v>
+        <v>680863.499128273</v>
       </c>
       <c r="F78" t="n">
         <v>644238</v>
       </c>
       <c r="G78" t="n">
-        <v>-29356.1525743136</v>
+        <v>-36625.4991282725</v>
       </c>
       <c r="H78" t="n">
-        <v>-4131.52513187565</v>
+        <v>-5981.55860333884</v>
       </c>
       <c r="I78" t="n">
-        <v>155581.463805312</v>
+        <v>154146.125288619</v>
       </c>
       <c r="J78" t="n">
-        <v>644230.82436299</v>
+        <v>644234.093002918</v>
       </c>
       <c r="K78" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79">
@@ -6327,31 +6631,31 @@
         <v>25.5389053830664</v>
       </c>
       <c r="C79" t="n">
-        <v>-26352.4657123722</v>
+        <v>-34710.3156417797</v>
       </c>
       <c r="D79" t="n">
-        <v>161934.911170661</v>
+        <v>162708.427504321</v>
       </c>
       <c r="E79" t="n">
-        <v>673594.152574314</v>
+        <v>680863.499128273</v>
       </c>
       <c r="F79" t="n">
         <v>644238</v>
       </c>
       <c r="G79" t="n">
-        <v>-29356.1525743136</v>
+        <v>-36625.4991282725</v>
       </c>
       <c r="H79" t="n">
-        <v>-7573.21868388254</v>
+        <v>-9367.28038931795</v>
       </c>
       <c r="I79" t="n">
-        <v>154361.692486778</v>
+        <v>153341.147115003</v>
       </c>
       <c r="J79" t="n">
-        <v>644230.82436299</v>
+        <v>644234.093002918</v>
       </c>
       <c r="K79" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80">
@@ -6362,31 +6666,31 @@
         <v>33.2888747575769</v>
       </c>
       <c r="C80" t="n">
-        <v>-26352.4657123722</v>
+        <v>-34710.3156417797</v>
       </c>
       <c r="D80" t="n">
-        <v>178465.74248088</v>
+        <v>181908.846253545</v>
       </c>
       <c r="E80" t="n">
-        <v>673594.152574314</v>
+        <v>680863.499128273</v>
       </c>
       <c r="F80" t="n">
         <v>644238</v>
       </c>
       <c r="G80" t="n">
-        <v>-29356.1525743136</v>
+        <v>-36625.4991282725</v>
       </c>
       <c r="H80" t="n">
-        <v>-9061.67882883449</v>
+        <v>-10850.2124243282</v>
       </c>
       <c r="I80" t="n">
-        <v>169404.063652045</v>
+        <v>171058.633829217</v>
       </c>
       <c r="J80" t="n">
-        <v>644230.82436299</v>
+        <v>644234.093002918</v>
       </c>
       <c r="K80" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81">
@@ -6397,31 +6701,31 @@
         <v>30.9517025707518</v>
       </c>
       <c r="C81" t="n">
-        <v>-26352.4657123722</v>
+        <v>-34710.3156417797</v>
       </c>
       <c r="D81" t="n">
-        <v>173480.509985586</v>
+        <v>176118.541478448</v>
       </c>
       <c r="E81" t="n">
-        <v>673594.152574314</v>
+        <v>680863.499128273</v>
       </c>
       <c r="F81" t="n">
         <v>644238</v>
       </c>
       <c r="G81" t="n">
-        <v>-29356.1525743136</v>
+        <v>-36625.4991282725</v>
       </c>
       <c r="H81" t="n">
-        <v>-8596.90556673151</v>
+        <v>-10430.3547083695</v>
       </c>
       <c r="I81" t="n">
-        <v>164883.604418854</v>
+        <v>165688.186770079</v>
       </c>
       <c r="J81" t="n">
-        <v>644230.82436299</v>
+        <v>644234.093002918</v>
       </c>
       <c r="K81" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82">
@@ -6432,31 +6736,31 @@
         <v>27.636854645233</v>
       </c>
       <c r="C82" t="n">
-        <v>-48820.955118105</v>
+        <v>-62096.6208353809</v>
       </c>
       <c r="D82" t="n">
-        <v>162260.884337297</v>
+        <v>162881.907306286</v>
       </c>
       <c r="E82" t="n">
-        <v>685014.720230422</v>
+        <v>693307.849545807</v>
       </c>
       <c r="F82" t="n">
         <v>672573.920917323</v>
       </c>
       <c r="G82" t="n">
-        <v>-12440.7993130992</v>
+        <v>-20733.9286284845</v>
       </c>
       <c r="H82" t="n">
-        <v>-6178.89889757357</v>
+        <v>-8107.70724144189</v>
       </c>
       <c r="I82" t="n">
-        <v>156081.985439723</v>
+        <v>154774.200064844</v>
       </c>
       <c r="J82" t="n">
-        <v>672569.446418379</v>
+        <v>672574.388399906</v>
       </c>
       <c r="K82" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83">
@@ -6467,31 +6771,31 @@
         <v>29.4209786667658</v>
       </c>
       <c r="C83" t="n">
-        <v>-48820.955118105</v>
+        <v>-62096.6208353809</v>
       </c>
       <c r="D83" t="n">
-        <v>166066.454631996</v>
+        <v>167302.044555686</v>
       </c>
       <c r="E83" t="n">
-        <v>685014.720230422</v>
+        <v>693307.849545807</v>
       </c>
       <c r="F83" t="n">
         <v>672573.920917323</v>
       </c>
       <c r="G83" t="n">
-        <v>-12440.7993130992</v>
+        <v>-20733.9286284845</v>
       </c>
       <c r="H83" t="n">
-        <v>-3984.66405208524</v>
+        <v>-6008.91147268421</v>
       </c>
       <c r="I83" t="n">
-        <v>162081.790579911</v>
+        <v>161293.133083002</v>
       </c>
       <c r="J83" t="n">
-        <v>672569.446418379</v>
+        <v>672574.388399906</v>
       </c>
       <c r="K83" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84">
@@ -6502,31 +6806,31 @@
         <v>37.4802310744798</v>
       </c>
       <c r="C84" t="n">
-        <v>-48820.955118105</v>
+        <v>-62096.6208353809</v>
       </c>
       <c r="D84" t="n">
-        <v>183256.992503871</v>
+        <v>187268.706816667</v>
       </c>
       <c r="E84" t="n">
-        <v>685014.720230422</v>
+        <v>693307.849545807</v>
       </c>
       <c r="F84" t="n">
         <v>672573.920917323</v>
       </c>
       <c r="G84" t="n">
-        <v>-12440.7993130992</v>
+        <v>-20733.9286284845</v>
       </c>
       <c r="H84" t="n">
-        <v>-2014.2010302665</v>
+        <v>-4133.96740209643</v>
       </c>
       <c r="I84" t="n">
-        <v>181242.791473604</v>
+        <v>183134.739414571</v>
       </c>
       <c r="J84" t="n">
-        <v>672569.446418379</v>
+        <v>672574.388399906</v>
       </c>
       <c r="K84" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85">
@@ -6537,31 +6841,31 @@
         <v>32.873331599036</v>
       </c>
       <c r="C85" t="n">
-        <v>-48820.955118105</v>
+        <v>-62096.6208353809</v>
       </c>
       <c r="D85" t="n">
-        <v>173430.388757259</v>
+        <v>175855.190867168</v>
       </c>
       <c r="E85" t="n">
-        <v>685014.720230422</v>
+        <v>693307.849545807</v>
       </c>
       <c r="F85" t="n">
         <v>672573.920917323</v>
       </c>
       <c r="G85" t="n">
-        <v>-12440.7993130992</v>
+        <v>-20733.9286284845</v>
       </c>
       <c r="H85" t="n">
-        <v>-267.509832117362</v>
+        <v>-2482.87502967855</v>
       </c>
       <c r="I85" t="n">
-        <v>173162.878925141</v>
+        <v>173372.31583749</v>
       </c>
       <c r="J85" t="n">
-        <v>672569.446418379</v>
+        <v>672574.388399906</v>
       </c>
       <c r="K85" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86">
@@ -6572,31 +6876,31 @@
         <v>29.144592226769</v>
       </c>
       <c r="C86" t="n">
-        <v>-48501.5710733322</v>
+        <v>-66301.6671423443</v>
       </c>
       <c r="D86" t="n">
-        <v>165535.894030124</v>
+        <v>165845.865094063</v>
       </c>
       <c r="E86" t="n">
-        <v>699501.698831399</v>
+        <v>706774.599410551</v>
       </c>
       <c r="F86" t="n">
         <v>703370.842091171</v>
       </c>
       <c r="G86" t="n">
-        <v>3869.14325977117</v>
+        <v>-3403.75731937995</v>
       </c>
       <c r="H86" t="n">
-        <v>1255.40954236219</v>
+        <v>-1055.63435543057</v>
       </c>
       <c r="I86" t="n">
-        <v>166791.303572486</v>
+        <v>164790.230738632</v>
       </c>
       <c r="J86" t="n">
-        <v>703366.329196214</v>
+        <v>703371.981255802</v>
       </c>
       <c r="K86" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87">
@@ -6607,31 +6911,31 @@
         <v>30.8499846528446</v>
       </c>
       <c r="C87" t="n">
-        <v>-48501.5710733322</v>
+        <v>-66301.6671423443</v>
       </c>
       <c r="D87" t="n">
-        <v>169173.528342061</v>
+        <v>170070.946140202</v>
       </c>
       <c r="E87" t="n">
-        <v>699501.698831399</v>
+        <v>706774.599410551</v>
       </c>
       <c r="F87" t="n">
         <v>703370.842091171</v>
       </c>
       <c r="G87" t="n">
-        <v>3869.14325977117</v>
+        <v>-3403.75731937995</v>
       </c>
       <c r="H87" t="n">
-        <v>1748.87651169064</v>
+        <v>-402.746159034</v>
       </c>
       <c r="I87" t="n">
-        <v>170922.404853751</v>
+        <v>169668.199981168</v>
       </c>
       <c r="J87" t="n">
-        <v>703366.329196214</v>
+        <v>703371.981255802</v>
       </c>
       <c r="K87" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88">
@@ -6642,31 +6946,31 @@
         <v>39.3388197693384</v>
       </c>
       <c r="C88" t="n">
-        <v>-48501.5710733322</v>
+        <v>-66301.6671423443</v>
       </c>
       <c r="D88" t="n">
-        <v>187280.374259743</v>
+        <v>191101.892335405</v>
       </c>
       <c r="E88" t="n">
-        <v>699501.698831399</v>
+        <v>706774.599410551</v>
       </c>
       <c r="F88" t="n">
         <v>703370.842091171</v>
       </c>
       <c r="G88" t="n">
-        <v>3869.14325977117</v>
+        <v>-3403.75731937995</v>
       </c>
       <c r="H88" t="n">
-        <v>1212.891075868</v>
+        <v>-524.210440488847</v>
       </c>
       <c r="I88" t="n">
-        <v>188493.265335611</v>
+        <v>190577.681894916</v>
       </c>
       <c r="J88" t="n">
-        <v>703366.329196214</v>
+        <v>703371.981255802</v>
       </c>
       <c r="K88" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89">
@@ -6677,31 +6981,31 @@
         <v>34.7591735384759</v>
       </c>
       <c r="C89" t="n">
-        <v>-48501.5710733322</v>
+        <v>-66301.6671423443</v>
       </c>
       <c r="D89" t="n">
-        <v>177511.902199472</v>
+        <v>179755.895840881</v>
       </c>
       <c r="E89" t="n">
-        <v>699501.698831399</v>
+        <v>706774.599410551</v>
       </c>
       <c r="F89" t="n">
         <v>703370.842091171</v>
       </c>
       <c r="G89" t="n">
-        <v>3869.14325977117</v>
+        <v>-3403.75731937995</v>
       </c>
       <c r="H89" t="n">
-        <v>-352.546765105738</v>
+        <v>-1420.02719979511</v>
       </c>
       <c r="I89" t="n">
-        <v>177159.355434366</v>
+        <v>178335.868641086</v>
       </c>
       <c r="J89" t="n">
-        <v>703366.329196214</v>
+        <v>703371.981255802</v>
       </c>
       <c r="K89" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90">
@@ -6712,31 +7016,31 @@
         <v>31.3717879367229</v>
       </c>
       <c r="C90" t="n">
-        <v>-31955.720884264</v>
+        <v>-52057.2426577305</v>
       </c>
       <c r="D90" t="n">
-        <v>173341.872632794</v>
+        <v>173976.915674439</v>
       </c>
       <c r="E90" t="n">
-        <v>724140.291400536</v>
+        <v>722826.175493023</v>
       </c>
       <c r="F90" t="n">
         <v>732882.24058635</v>
       </c>
       <c r="G90" t="n">
-        <v>8741.94918581366</v>
+        <v>10056.0650933267</v>
       </c>
       <c r="H90" t="n">
-        <v>-2947.43701123058</v>
+        <v>-3090.19643695279</v>
       </c>
       <c r="I90" t="n">
-        <v>170394.435621564</v>
+        <v>170886.719237486</v>
       </c>
       <c r="J90" t="n">
-        <v>732875.738566758</v>
+        <v>732881.104455178</v>
       </c>
       <c r="K90" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91">
@@ -6747,31 +7051,31 @@
         <v>32.2063153200398</v>
       </c>
       <c r="C91" t="n">
-        <v>-31955.720884264</v>
+        <v>-52057.2426577305</v>
       </c>
       <c r="D91" t="n">
-        <v>175121.935331202</v>
+        <v>176044.443227526</v>
       </c>
       <c r="E91" t="n">
-        <v>724140.291400536</v>
+        <v>722826.175493023</v>
       </c>
       <c r="F91" t="n">
         <v>732882.24058635</v>
       </c>
       <c r="G91" t="n">
-        <v>8741.94918581366</v>
+        <v>10056.0650933267</v>
       </c>
       <c r="H91" t="n">
-        <v>-1932.87358856606</v>
+        <v>-1516.69266081917</v>
       </c>
       <c r="I91" t="n">
-        <v>173189.061742636</v>
+        <v>174527.750566706</v>
       </c>
       <c r="J91" t="n">
-        <v>732875.738566758</v>
+        <v>732881.104455178</v>
       </c>
       <c r="K91" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92">
@@ -6779,34 +7083,34 @@
         <v>99</v>
       </c>
       <c r="B92" t="n">
-        <v>40.3492544585895</v>
+        <v>36.787643426648</v>
       </c>
       <c r="C92" t="n">
-        <v>-31955.720884264</v>
+        <v>-52057.2426577305</v>
       </c>
       <c r="D92" t="n">
-        <v>192490.978583356</v>
+        <v>187394.606540916</v>
       </c>
       <c r="E92" t="n">
-        <v>724140.291400536</v>
+        <v>722826.175493023</v>
       </c>
       <c r="F92" t="n">
         <v>732882.24058635</v>
       </c>
       <c r="G92" t="n">
-        <v>8741.94918581366</v>
+        <v>10056.0650933267</v>
       </c>
       <c r="H92" t="n">
-        <v>2691.14350288782</v>
+        <v>3300.48412860573</v>
       </c>
       <c r="I92" t="n">
-        <v>195182.122086244</v>
+        <v>190695.090669521</v>
       </c>
       <c r="J92" t="n">
-        <v>732875.738566758</v>
+        <v>732881.104455178</v>
       </c>
       <c r="K92" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93">
@@ -6817,31 +7121,31 @@
         <v>35.986670685832</v>
       </c>
       <c r="C93" t="n">
-        <v>-31955.720884264</v>
+        <v>-52057.2426577305</v>
       </c>
       <c r="D93" t="n">
-        <v>183185.504853183</v>
+        <v>185410.210050142</v>
       </c>
       <c r="E93" t="n">
-        <v>724140.291400536</v>
+        <v>722826.175493023</v>
       </c>
       <c r="F93" t="n">
         <v>732882.24058635</v>
       </c>
       <c r="G93" t="n">
-        <v>8741.94918581366</v>
+        <v>10056.0650933267</v>
       </c>
       <c r="H93" t="n">
-        <v>10924.6142631311</v>
+        <v>11361.3339313219</v>
       </c>
       <c r="I93" t="n">
-        <v>194110.119116314</v>
+        <v>196771.543981464</v>
       </c>
       <c r="J93" t="n">
-        <v>732875.738566758</v>
+        <v>732881.104455178</v>
       </c>
       <c r="K93" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94">
@@ -6852,31 +7156,31 @@
         <v>26.4635887017408</v>
       </c>
       <c r="C94" t="n">
-        <v>-14861.6029047477</v>
+        <v>-28144.5775385576</v>
       </c>
       <c r="D94" t="n">
-        <v>166029.160991422</v>
+        <v>166203.83225419</v>
       </c>
       <c r="E94" t="n">
-        <v>584315.34396093</v>
+        <v>586610.078684211</v>
       </c>
       <c r="F94" t="n">
         <v>716844.2912876</v>
       </c>
       <c r="G94" t="n">
-        <v>132528.94732667</v>
+        <v>130234.212603389</v>
       </c>
       <c r="H94" t="n">
-        <v>22767.5386921636</v>
+        <v>22665.8567473294</v>
       </c>
       <c r="I94" t="n">
-        <v>188796.699683586</v>
+        <v>188869.689001519</v>
       </c>
       <c r="J94" t="n">
-        <v>716835.734231199</v>
+        <v>716839.335529555</v>
       </c>
       <c r="K94" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="95">
@@ -6884,34 +7188,34 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>11.9976215350184</v>
+        <v>17.8435845441047</v>
       </c>
       <c r="C95" t="n">
-        <v>-14861.6029047477</v>
+        <v>-28144.5775385576</v>
       </c>
       <c r="D95" t="n">
-        <v>135172.979319433</v>
+        <v>144847.916966187</v>
       </c>
       <c r="E95" t="n">
-        <v>584315.34396093</v>
+        <v>586610.078684211</v>
       </c>
       <c r="F95" t="n">
         <v>716844.2912876</v>
       </c>
       <c r="G95" t="n">
-        <v>132528.94732667</v>
+        <v>130234.212603389</v>
       </c>
       <c r="H95" t="n">
-        <v>31649.7320139381</v>
+        <v>31144.248859335</v>
       </c>
       <c r="I95" t="n">
-        <v>166822.711333371</v>
+        <v>175992.165825522</v>
       </c>
       <c r="J95" t="n">
-        <v>716835.734231199</v>
+        <v>716839.335529555</v>
       </c>
       <c r="K95" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96">
@@ -6922,31 +7226,31 @@
         <v>11.9976215350184</v>
       </c>
       <c r="C96" t="n">
-        <v>-14861.6029047477</v>
+        <v>-28144.5775385576</v>
       </c>
       <c r="D96" t="n">
-        <v>135172.979319433</v>
+        <v>130364.641956598</v>
       </c>
       <c r="E96" t="n">
-        <v>584315.34396093</v>
+        <v>586610.078684211</v>
       </c>
       <c r="F96" t="n">
         <v>716844.2912876</v>
       </c>
       <c r="G96" t="n">
-        <v>132528.94732667</v>
+        <v>130234.212603389</v>
       </c>
       <c r="H96" t="n">
-        <v>37571.1942284544</v>
+        <v>36796.5102673388</v>
       </c>
       <c r="I96" t="n">
-        <v>172744.173547887</v>
+        <v>167161.152223936</v>
       </c>
       <c r="J96" t="n">
-        <v>716835.734231199</v>
+        <v>716839.335529555</v>
       </c>
       <c r="K96" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97">
@@ -6957,31 +7261,31 @@
         <v>17.9831497868604</v>
       </c>
       <c r="C97" t="n">
-        <v>-14861.6029047477</v>
+        <v>-28144.5775385576</v>
       </c>
       <c r="D97" t="n">
-        <v>147940.224330643</v>
+        <v>145193.687507237</v>
       </c>
       <c r="E97" t="n">
-        <v>584315.34396093</v>
+        <v>586610.078684211</v>
       </c>
       <c r="F97" t="n">
         <v>716844.2912876</v>
       </c>
       <c r="G97" t="n">
-        <v>132528.94732667</v>
+        <v>130234.212603389</v>
       </c>
       <c r="H97" t="n">
-        <v>40531.9253357125</v>
+        <v>39622.6409713407</v>
       </c>
       <c r="I97" t="n">
-        <v>188472.149666355</v>
+        <v>184816.328478578</v>
       </c>
       <c r="J97" t="n">
-        <v>716835.734231199</v>
+        <v>716839.335529555</v>
       </c>
       <c r="K97" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -7003,13 +7307,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2">
@@ -7017,13 +7321,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>188374.156434148</v>
+        <v>187325.501040695</v>
       </c>
       <c r="C2" t="n">
         <v>15.5873553141413</v>
       </c>
       <c r="D2" t="n">
-        <v>51386.0049882303</v>
+        <v>51804.2604022635</v>
       </c>
     </row>
     <row r="3">
@@ -7031,13 +7335,13 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>183026.826311714</v>
+        <v>182166.690923971</v>
       </c>
       <c r="C3" t="n">
         <v>15.6524779866204</v>
       </c>
       <c r="D3" t="n">
-        <v>51386.0049882303</v>
+        <v>51804.2604022635</v>
       </c>
     </row>
     <row r="4">
@@ -7045,13 +7349,13 @@
         <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>181889.722039569</v>
+        <v>182950.089958803</v>
       </c>
       <c r="C4" t="n">
         <v>20.2634880731541</v>
       </c>
       <c r="D4" t="n">
-        <v>51386.0049882303</v>
+        <v>51804.2604022635</v>
       </c>
     </row>
     <row r="5">
@@ -7059,13 +7363,13 @@
         <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>161033.203015147</v>
+        <v>161881.625877109</v>
       </c>
       <c r="C5" t="n">
         <v>18.2017131226919</v>
       </c>
       <c r="D5" t="n">
-        <v>51386.0049882303</v>
+        <v>51804.2604022635</v>
       </c>
     </row>
     <row r="6">
@@ -7073,13 +7377,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>139345.289848405</v>
+        <v>139188.957166462</v>
       </c>
       <c r="C6" t="n">
         <v>12.6993091033411</v>
       </c>
       <c r="D6" t="n">
-        <v>116337.176707105</v>
+        <v>118414.859547536</v>
       </c>
     </row>
     <row r="7">
@@ -7087,13 +7391,13 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>128102.021777327</v>
+        <v>127944.778255948</v>
       </c>
       <c r="C7" t="n">
         <v>12.0625067182169</v>
       </c>
       <c r="D7" t="n">
-        <v>116337.176707105</v>
+        <v>118414.859547536</v>
       </c>
     </row>
     <row r="8">
@@ -7101,13 +7405,13 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>136928.017304439</v>
+        <v>137617.385555858</v>
       </c>
       <c r="C8" t="n">
         <v>15.1806021427688</v>
       </c>
       <c r="D8" t="n">
-        <v>116337.176707105</v>
+        <v>118414.859547536</v>
       </c>
     </row>
     <row r="9">
@@ -7115,13 +7419,13 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>148711.958209845</v>
+        <v>148332.12975136</v>
       </c>
       <c r="C9" t="n">
         <v>14.0314826548299</v>
       </c>
       <c r="D9" t="n">
-        <v>116337.176707105</v>
+        <v>118414.859547536</v>
       </c>
     </row>
     <row r="10">
@@ -7129,13 +7433,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>154384.234561573</v>
+        <v>154509.291810096</v>
       </c>
       <c r="C10" t="n">
         <v>15.4146190786797</v>
       </c>
       <c r="D10" t="n">
-        <v>-11320.3081145928</v>
+        <v>-3823.81193811516</v>
       </c>
     </row>
     <row r="11">
@@ -7143,13 +7447,13 @@
         <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>170821.397514918</v>
+        <v>170282.077057899</v>
       </c>
       <c r="C11" t="n">
         <v>15.4695281513876</v>
       </c>
       <c r="D11" t="n">
-        <v>-11320.3081145928</v>
+        <v>-3823.81193811516</v>
       </c>
     </row>
     <row r="12">
@@ -7157,13 +7461,13 @@
         <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>184950.885318997</v>
+        <v>185421.372265971</v>
       </c>
       <c r="C12" t="n">
         <v>19.1190204481488</v>
       </c>
       <c r="D12" t="n">
-        <v>-11320.3081145928</v>
+        <v>-3823.81193811516</v>
       </c>
     </row>
     <row r="13">
@@ -7171,13 +7475,13 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>176892.007326158</v>
+        <v>176835.92580302</v>
       </c>
       <c r="C13" t="n">
         <v>17.0426485714887</v>
       </c>
       <c r="D13" t="n">
-        <v>-11320.3081145928</v>
+        <v>-3823.81193811516</v>
       </c>
     </row>
     <row r="14">
@@ -7185,13 +7489,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>182590.580735989</v>
+        <v>182159.926459208</v>
       </c>
       <c r="C14" t="n">
         <v>16.9104625362314</v>
       </c>
       <c r="D14" t="n">
-        <v>94742.9392500519</v>
+        <v>97736.6277269507</v>
       </c>
     </row>
     <row r="15">
@@ -7199,13 +7503,13 @@
         <v>41</v>
       </c>
       <c r="B15" t="n">
-        <v>173832.704897972</v>
+        <v>173971.485202</v>
       </c>
       <c r="C15" t="n">
         <v>17.2895274011393</v>
       </c>
       <c r="D15" t="n">
-        <v>94742.9392500519</v>
+        <v>97736.6277269507</v>
       </c>
     </row>
     <row r="16">
@@ -7213,13 +7517,13 @@
         <v>42</v>
       </c>
       <c r="B16" t="n">
-        <v>171581.830770037</v>
+        <v>172502.900965226</v>
       </c>
       <c r="C16" t="n">
         <v>18.8258737986142</v>
       </c>
       <c r="D16" t="n">
-        <v>94742.9392500519</v>
+        <v>97736.6277269507</v>
       </c>
     </row>
     <row r="17">
@@ -7227,13 +7531,13 @@
         <v>43</v>
       </c>
       <c r="B17" t="n">
-        <v>160055.441444316</v>
+        <v>159422.915758222</v>
       </c>
       <c r="C17" t="n">
         <v>14.1203564350328</v>
       </c>
       <c r="D17" t="n">
-        <v>94742.9392500519</v>
+        <v>97736.6277269507</v>
       </c>
     </row>
     <row r="18">
@@ -7241,13 +7545,13 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>161348.475045366</v>
+        <v>160363.117071211</v>
       </c>
       <c r="C18" t="n">
         <v>13.4613277205037</v>
       </c>
       <c r="D18" t="n">
-        <v>95553.5597244368</v>
+        <v>98512.6626392243</v>
       </c>
     </row>
     <row r="19">
@@ -7255,13 +7559,13 @@
         <v>44</v>
       </c>
       <c r="B19" t="n">
-        <v>168088.604041667</v>
+        <v>168245.199942866</v>
       </c>
       <c r="C19" t="n">
         <v>16.7619776305009</v>
       </c>
       <c r="D19" t="n">
-        <v>95553.5597244368</v>
+        <v>98512.6626392243</v>
       </c>
     </row>
     <row r="20">
@@ -7269,13 +7573,13 @@
         <v>45</v>
       </c>
       <c r="B20" t="n">
-        <v>173258.090537886</v>
+        <v>174886.628423242</v>
       </c>
       <c r="C20" t="n">
         <v>20.6620801503609</v>
       </c>
       <c r="D20" t="n">
-        <v>95553.5597244368</v>
+        <v>98512.6626392243</v>
       </c>
     </row>
     <row r="21">
@@ -7283,13 +7587,13 @@
         <v>46</v>
       </c>
       <c r="B21" t="n">
-        <v>150641.301942031</v>
+        <v>149838.170160007</v>
       </c>
       <c r="C21" t="n">
         <v>12.8712461333646</v>
       </c>
       <c r="D21" t="n">
-        <v>95553.5597244368</v>
+        <v>98512.6626392243</v>
       </c>
     </row>
     <row r="22">
@@ -7297,13 +7601,13 @@
         <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>136984.300432364</v>
+        <v>136847.233685462</v>
       </c>
       <c r="C22" t="n">
         <v>12.9969172480957</v>
       </c>
       <c r="D22" t="n">
-        <v>68059.6273760989</v>
+        <v>72186.3223861055</v>
       </c>
     </row>
     <row r="23">
@@ -7311,13 +7615,13 @@
         <v>47</v>
       </c>
       <c r="B23" t="n">
-        <v>131524.429297659</v>
+        <v>131682.755480765</v>
       </c>
       <c r="C23" t="n">
         <v>13.1660567693933</v>
       </c>
       <c r="D23" t="n">
-        <v>68059.6273760989</v>
+        <v>72186.3223861055</v>
       </c>
     </row>
     <row r="24">
@@ -7325,13 +7629,13 @@
         <v>48</v>
       </c>
       <c r="B24" t="n">
-        <v>134361.412562371</v>
+        <v>135527.736700603</v>
       </c>
       <c r="C24" t="n">
         <v>15.8056032773851</v>
       </c>
       <c r="D24" t="n">
-        <v>68059.6273760989</v>
+        <v>72186.3223861055</v>
       </c>
     </row>
     <row r="25">
@@ -7339,13 +7643,13 @@
         <v>49</v>
       </c>
       <c r="B25" t="n">
-        <v>120249.532780728</v>
+        <v>119059.493114102</v>
       </c>
       <c r="C25" t="n">
         <v>9.07988236643246</v>
       </c>
       <c r="D25" t="n">
-        <v>68059.6273760989</v>
+        <v>72186.3223861055</v>
       </c>
     </row>
     <row r="26">
@@ -7353,13 +7657,13 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>101881.400747261</v>
+        <v>101022.44823373</v>
       </c>
       <c r="C26" t="n">
         <v>7.86608961704685</v>
       </c>
       <c r="D26" t="n">
-        <v>-35053.7031431692</v>
+        <v>-26549.497122016</v>
       </c>
     </row>
     <row r="27">
@@ -7367,13 +7671,13 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>109182.459207048</v>
+        <v>108939.709179107</v>
       </c>
       <c r="C27" t="n">
         <v>10.0715530925858</v>
       </c>
       <c r="D27" t="n">
-        <v>-35053.7031431692</v>
+        <v>-26549.497122016</v>
       </c>
     </row>
     <row r="28">
@@ -7381,13 +7685,13 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>118019.701453674</v>
+        <v>118783.06066142</v>
       </c>
       <c r="C28" t="n">
         <v>13.3089157038258</v>
       </c>
       <c r="D28" t="n">
-        <v>-35053.7031431692</v>
+        <v>-26549.497122016</v>
       </c>
     </row>
     <row r="29">
@@ -7395,13 +7699,13 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>117122.480360169</v>
+        <v>117461.742733297</v>
       </c>
       <c r="C29" t="n">
         <v>12.2942828645983</v>
       </c>
       <c r="D29" t="n">
-        <v>-35053.7031431692</v>
+        <v>-26549.497122016</v>
       </c>
     </row>
     <row r="30">
@@ -7409,13 +7713,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>101947.239029934</v>
+        <v>102062.625722638</v>
       </c>
       <c r="C30" t="n">
         <v>10.1707925668831</v>
       </c>
       <c r="D30" t="n">
-        <v>-95965.8405634104</v>
+        <v>-84875.528357285</v>
       </c>
     </row>
     <row r="31">
@@ -7423,13 +7727,13 @@
         <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>101981.932652614</v>
+        <v>101804.202936481</v>
       </c>
       <c r="C31" t="n">
         <v>9.53002450029273</v>
       </c>
       <c r="D31" t="n">
-        <v>-95965.8405634104</v>
+        <v>-84875.528357285</v>
       </c>
     </row>
     <row r="32">
@@ -7437,13 +7741,13 @@
         <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>111594.178594178</v>
+        <v>112508.682949705</v>
       </c>
       <c r="C32" t="n">
         <v>13.0046543599672</v>
       </c>
       <c r="D32" t="n">
-        <v>-95965.8405634104</v>
+        <v>-84875.528357285</v>
       </c>
     </row>
     <row r="33">
@@ -7451,13 +7755,13 @@
         <v>55</v>
       </c>
       <c r="B33" t="n">
-        <v>104520.430403626</v>
+        <v>103671.181873794</v>
       </c>
       <c r="C33" t="n">
         <v>8.28183006716988</v>
       </c>
       <c r="D33" t="n">
-        <v>-95965.8405634104</v>
+        <v>-84875.528357285</v>
       </c>
     </row>
     <row r="34">
@@ -7465,13 +7769,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="n">
-        <v>107353.167633781</v>
+        <v>106982.909558397</v>
       </c>
       <c r="C34" t="n">
         <v>9.62261704631459</v>
       </c>
       <c r="D34" t="n">
-        <v>-116688.675770706</v>
+        <v>-104718.76038136</v>
       </c>
     </row>
     <row r="35">
@@ -7479,13 +7783,13 @@
         <v>56</v>
       </c>
       <c r="B35" t="n">
-        <v>111508.979073367</v>
+        <v>111419.283757722</v>
       </c>
       <c r="C35" t="n">
         <v>10.6801290828198</v>
       </c>
       <c r="D35" t="n">
-        <v>-116688.675770706</v>
+        <v>-104718.76038136</v>
       </c>
     </row>
     <row r="36">
@@ -7493,13 +7797,13 @@
         <v>57</v>
       </c>
       <c r="B36" t="n">
-        <v>115249.074378371</v>
+        <v>115764.987389511</v>
       </c>
       <c r="C36" t="n">
         <v>12.4331912877687</v>
       </c>
       <c r="D36" t="n">
-        <v>-116688.675770706</v>
+        <v>-104718.76038136</v>
       </c>
     </row>
     <row r="37">
@@ -7507,13 +7811,13 @@
         <v>58</v>
       </c>
       <c r="B37" t="n">
-        <v>109291.626786598</v>
+        <v>109239.258298037</v>
       </c>
       <c r="C37" t="n">
         <v>10.5303060385306</v>
       </c>
       <c r="D37" t="n">
-        <v>-116688.675770706</v>
+        <v>-104718.76038136</v>
       </c>
     </row>
     <row r="38">
@@ -7521,13 +7825,13 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>104967.238938347</v>
+        <v>104284.67343388</v>
       </c>
       <c r="C38" t="n">
         <v>8.6822920429836</v>
       </c>
       <c r="D38" t="n">
-        <v>-98193.1261784176</v>
+        <v>-87008.2248374674</v>
       </c>
     </row>
     <row r="39">
@@ -7535,13 +7839,13 @@
         <v>59</v>
       </c>
       <c r="B39" t="n">
-        <v>105572.207387713</v>
+        <v>105436.973307587</v>
       </c>
       <c r="C39" t="n">
         <v>9.9847476027532</v>
       </c>
       <c r="D39" t="n">
-        <v>-98193.1261784176</v>
+        <v>-87008.2248374674</v>
       </c>
     </row>
     <row r="40">
@@ -7549,13 +7853,13 @@
         <v>60</v>
       </c>
       <c r="B40" t="n">
-        <v>110795.577868629</v>
+        <v>111617.166395623</v>
       </c>
       <c r="C40" t="n">
         <v>12.6907072524443</v>
       </c>
       <c r="D40" t="n">
-        <v>-98193.1261784176</v>
+        <v>-87008.2248374674</v>
       </c>
     </row>
     <row r="41">
@@ -7563,13 +7867,13 @@
         <v>61</v>
       </c>
       <c r="B41" t="n">
-        <v>107084.274035702</v>
+        <v>107083.470794323</v>
       </c>
       <c r="C41" t="n">
         <v>10.446230005298</v>
       </c>
       <c r="D41" t="n">
-        <v>-98193.1261784176</v>
+        <v>-87008.2248374674</v>
       </c>
     </row>
     <row r="42">
@@ -7577,13 +7881,13 @@
         <v>13</v>
       </c>
       <c r="B42" t="n">
-        <v>105802.891082605</v>
+        <v>105496.187922176</v>
       </c>
       <c r="C42" t="n">
         <v>9.60618868720091</v>
       </c>
       <c r="D42" t="n">
-        <v>-110055.410082365</v>
+        <v>-98366.8101806934</v>
       </c>
     </row>
     <row r="43">
@@ -7591,13 +7895,13 @@
         <v>62</v>
       </c>
       <c r="B43" t="n">
-        <v>109567.40674637</v>
+        <v>109290.764158247</v>
       </c>
       <c r="C43" t="n">
         <v>10.0548703006577</v>
       </c>
       <c r="D43" t="n">
-        <v>-110055.410082365</v>
+        <v>-98366.8101806934</v>
       </c>
     </row>
     <row r="44">
@@ -7605,13 +7909,13 @@
         <v>63</v>
       </c>
       <c r="B44" t="n">
-        <v>118073.475479811</v>
+        <v>118574.126358073</v>
       </c>
       <c r="C44" t="n">
         <v>12.6765254337763</v>
       </c>
       <c r="D44" t="n">
-        <v>-110055.410082365</v>
+        <v>-98366.8101806934</v>
       </c>
     </row>
     <row r="45">
@@ -7619,13 +7923,13 @@
         <v>64</v>
       </c>
       <c r="B45" t="n">
-        <v>119313.59624975</v>
+        <v>119399.665083673</v>
       </c>
       <c r="C45" t="n">
         <v>11.8418083189303</v>
       </c>
       <c r="D45" t="n">
-        <v>-110055.410082365</v>
+        <v>-98366.8101806934</v>
       </c>
     </row>
     <row r="46">
@@ -7633,13 +7937,13 @@
         <v>14</v>
       </c>
       <c r="B46" t="n">
-        <v>125540.745648572</v>
+        <v>125251.168638492</v>
       </c>
       <c r="C46" t="n">
         <v>11.6269329861453</v>
       </c>
       <c r="D46" t="n">
-        <v>-90785.5717503577</v>
+        <v>-79915.2176990448</v>
       </c>
     </row>
     <row r="47">
@@ -7647,13 +7951,13 @@
         <v>65</v>
       </c>
       <c r="B47" t="n">
-        <v>127824.32961996</v>
+        <v>127540.663418389</v>
       </c>
       <c r="C47" t="n">
         <v>11.8416593076354</v>
       </c>
       <c r="D47" t="n">
-        <v>-90785.5717503577</v>
+        <v>-79915.2176990448</v>
       </c>
     </row>
     <row r="48">
@@ -7661,13 +7965,13 @@
         <v>66</v>
       </c>
       <c r="B48" t="n">
-        <v>133883.440561286</v>
+        <v>134485.870130382</v>
       </c>
       <c r="C48" t="n">
         <v>14.4366298282698</v>
       </c>
       <c r="D48" t="n">
-        <v>-90785.5717503577</v>
+        <v>-79915.2176990448</v>
       </c>
     </row>
     <row r="49">
@@ -7675,13 +7979,13 @@
         <v>67</v>
       </c>
       <c r="B49" t="n">
-        <v>128886.619329543</v>
+        <v>128860.176218591</v>
       </c>
       <c r="C49" t="n">
         <v>12.4585732950445</v>
       </c>
       <c r="D49" t="n">
-        <v>-90785.5717503577</v>
+        <v>-79915.2176990448</v>
       </c>
     </row>
     <row r="50">
@@ -7689,13 +7993,13 @@
         <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>133331.706600898</v>
+        <v>132523.780012984</v>
       </c>
       <c r="C50" t="n">
         <v>11.1723724357065</v>
       </c>
       <c r="D50" t="n">
-        <v>-40596.9374718198</v>
+        <v>-31856.8890907865</v>
       </c>
     </row>
     <row r="51">
@@ -7703,13 +8007,13 @@
         <v>68</v>
       </c>
       <c r="B51" t="n">
-        <v>134029.028029266</v>
+        <v>133607.370887327</v>
       </c>
       <c r="C51" t="n">
         <v>12.0978087146702</v>
       </c>
       <c r="D51" t="n">
-        <v>-40596.9374718198</v>
+        <v>-31856.8890907865</v>
       </c>
     </row>
     <row r="52">
@@ -7717,13 +8021,13 @@
         <v>69</v>
       </c>
       <c r="B52" t="n">
-        <v>140485.004499915</v>
+        <v>141204.707379581</v>
       </c>
       <c r="C52" t="n">
         <v>15.3467773805121</v>
       </c>
       <c r="D52" t="n">
-        <v>-40596.9374718198</v>
+        <v>-31856.8890907865</v>
       </c>
     </row>
     <row r="53">
@@ -7731,13 +8035,13 @@
         <v>70</v>
       </c>
       <c r="B53" t="n">
-        <v>139663.821395655</v>
+        <v>140174.80264581</v>
       </c>
       <c r="C53" t="n">
         <v>14.8078396217681</v>
       </c>
       <c r="D53" t="n">
-        <v>-40596.9374718198</v>
+        <v>-31856.8890907865</v>
       </c>
     </row>
     <row r="54">
@@ -7745,13 +8049,13 @@
         <v>16</v>
       </c>
       <c r="B54" t="n">
-        <v>139332.885467182</v>
+        <v>138575.010579324</v>
       </c>
       <c r="C54" t="n">
         <v>11.9710957004141</v>
       </c>
       <c r="D54" t="n">
-        <v>-15745.655231926</v>
+        <v>-8060.01288254664</v>
       </c>
     </row>
     <row r="55">
@@ -7759,13 +8063,13 @@
         <v>71</v>
       </c>
       <c r="B55" t="n">
-        <v>139613.645637684</v>
+        <v>139399.697476369</v>
       </c>
       <c r="C55" t="n">
         <v>13.2205956436372</v>
       </c>
       <c r="D55" t="n">
-        <v>-15745.655231926</v>
+        <v>-8060.01288254664</v>
       </c>
     </row>
     <row r="56">
@@ -7773,13 +8077,13 @@
         <v>72</v>
       </c>
       <c r="B56" t="n">
-        <v>140730.550401355</v>
+        <v>141945.13592618</v>
       </c>
       <c r="C56" t="n">
         <v>16.5101568499509</v>
       </c>
       <c r="D56" t="n">
-        <v>-15745.655231926</v>
+        <v>-8060.01288254664</v>
       </c>
     </row>
     <row r="57">
@@ -7787,13 +8091,13 @@
         <v>73</v>
       </c>
       <c r="B57" t="n">
-        <v>119337.456916339</v>
+        <v>119094.981303925</v>
       </c>
       <c r="C57" t="n">
         <v>10.894661760416</v>
       </c>
       <c r="D57" t="n">
-        <v>-15745.655231926</v>
+        <v>-8060.01288254664</v>
       </c>
     </row>
     <row r="58">
@@ -7801,13 +8105,13 @@
         <v>17</v>
       </c>
       <c r="B58" t="n">
-        <v>94938.6805105347</v>
+        <v>93764.3162605072</v>
       </c>
       <c r="C58" t="n">
         <v>6.10032222144225</v>
       </c>
       <c r="D58" t="n">
-        <v>-22470.9353416087</v>
+        <v>-14499.9773138</v>
       </c>
     </row>
     <row r="59">
@@ -7815,13 +8119,13 @@
         <v>74</v>
       </c>
       <c r="B59" t="n">
-        <v>91324.3982781264</v>
+        <v>90762.9307143411</v>
       </c>
       <c r="C59" t="n">
         <v>7.24069157172765</v>
       </c>
       <c r="D59" t="n">
-        <v>-22470.9353416087</v>
+        <v>-14499.9773138</v>
       </c>
     </row>
     <row r="60">
@@ -7829,13 +8133,13 @@
         <v>75</v>
       </c>
       <c r="B60" t="n">
-        <v>103207.650684766</v>
+        <v>104211.054247565</v>
       </c>
       <c r="C60" t="n">
         <v>12.4193586127823</v>
       </c>
       <c r="D60" t="n">
-        <v>-22470.9353416087</v>
+        <v>-14499.9773138</v>
       </c>
     </row>
     <row r="61">
@@ -7843,13 +8147,13 @@
         <v>76</v>
       </c>
       <c r="B61" t="n">
-        <v>113328.611585971</v>
+        <v>114061.546864985</v>
       </c>
       <c r="C61" t="n">
         <v>13.5445872716336</v>
       </c>
       <c r="D61" t="n">
-        <v>-22470.9353416087</v>
+        <v>-14499.9773138</v>
       </c>
     </row>
     <row r="62">
@@ -7857,13 +8161,13 @@
         <v>18</v>
       </c>
       <c r="B62" t="n">
-        <v>103827.823422509</v>
+        <v>103757.144650378</v>
       </c>
       <c r="C62" t="n">
         <v>11.5815278058798</v>
       </c>
       <c r="D62" t="n">
-        <v>-130335.812985709</v>
+        <v>-117786.390973173</v>
       </c>
     </row>
     <row r="63">
@@ -7871,13 +8175,13 @@
         <v>77</v>
       </c>
       <c r="B63" t="n">
-        <v>116343.914452941</v>
+        <v>115950.046649928</v>
       </c>
       <c r="C63" t="n">
         <v>12.8639443703468</v>
       </c>
       <c r="D63" t="n">
-        <v>-130335.812985709</v>
+        <v>-117786.390973173</v>
       </c>
     </row>
     <row r="64">
@@ -7885,13 +8189,13 @@
         <v>78</v>
       </c>
       <c r="B64" t="n">
-        <v>128679.570220629</v>
+        <v>129044.605375443</v>
       </c>
       <c r="C64" t="n">
         <v>16.3233170777364</v>
       </c>
       <c r="D64" t="n">
-        <v>-130335.812985709</v>
+        <v>-117786.390973173</v>
       </c>
     </row>
     <row r="65">
@@ -7899,13 +8203,13 @@
         <v>79</v>
       </c>
       <c r="B65" t="n">
-        <v>127815.641740219</v>
+        <v>127919.190971391</v>
       </c>
       <c r="C65" t="n">
         <v>15.8560202830208</v>
       </c>
       <c r="D65" t="n">
-        <v>-130335.812985709</v>
+        <v>-117786.390973173</v>
       </c>
     </row>
     <row r="66">
@@ -7913,13 +8217,13 @@
         <v>19</v>
       </c>
       <c r="B66" t="n">
-        <v>125443.198540686</v>
+        <v>123913.24582569</v>
       </c>
       <c r="C66" t="n">
         <v>13.7476101794998</v>
       </c>
       <c r="D66" t="n">
-        <v>-93424.7390632378</v>
+        <v>-86841.3862563655</v>
       </c>
     </row>
     <row r="67">
@@ -7927,13 +8231,13 @@
         <v>80</v>
       </c>
       <c r="B67" t="n">
-        <v>126683.667290236</v>
+        <v>126051.515333313</v>
       </c>
       <c r="C67" t="n">
         <v>15.8393655224433</v>
       </c>
       <c r="D67" t="n">
-        <v>-93424.7390632378</v>
+        <v>-86841.3862563655</v>
       </c>
     </row>
     <row r="68">
@@ -7941,13 +8245,13 @@
         <v>81</v>
       </c>
       <c r="B68" t="n">
-        <v>135185.686790897</v>
+        <v>136332.227588642</v>
       </c>
       <c r="C68" t="n">
         <v>20.6463974101159</v>
       </c>
       <c r="D68" t="n">
-        <v>-93424.7390632378</v>
+        <v>-86841.3862563655</v>
       </c>
     </row>
     <row r="69">
@@ -7955,13 +8259,13 @@
         <v>82</v>
       </c>
       <c r="B69" t="n">
-        <v>133691.192464436</v>
+        <v>134710.288640573</v>
       </c>
       <c r="C69" t="n">
         <v>20.0777956254413</v>
       </c>
       <c r="D69" t="n">
-        <v>-93424.7390632378</v>
+        <v>-86841.3862563655</v>
       </c>
     </row>
     <row r="70">
@@ -7969,13 +8273,13 @@
         <v>20</v>
       </c>
       <c r="B70" t="n">
-        <v>132845.453355532</v>
+        <v>132215.244966096</v>
       </c>
       <c r="C70" t="n">
         <v>17.8128858295516</v>
       </c>
       <c r="D70" t="n">
-        <v>-78276.7695323449</v>
+        <v>-76407.8782725827</v>
       </c>
     </row>
     <row r="71">
@@ -7983,13 +8287,13 @@
         <v>83</v>
       </c>
       <c r="B71" t="n">
-        <v>137982.080019433</v>
+        <v>137850.039786166</v>
       </c>
       <c r="C71" t="n">
         <v>19.492814365488</v>
       </c>
       <c r="D71" t="n">
-        <v>-78276.7695323449</v>
+        <v>-76407.8782725827</v>
       </c>
     </row>
     <row r="72">
@@ -7997,13 +8301,13 @@
         <v>84</v>
       </c>
       <c r="B72" t="n">
-        <v>146051.044668782</v>
+        <v>146737.249798979</v>
       </c>
       <c r="C72" t="n">
         <v>22.3762902277848</v>
       </c>
       <c r="D72" t="n">
-        <v>-78276.7695323449</v>
+        <v>-76407.8782725827</v>
       </c>
     </row>
     <row r="73">
@@ -8011,13 +8315,13 @@
         <v>85</v>
       </c>
       <c r="B73" t="n">
-        <v>146248.074286687</v>
+        <v>146327.804585008</v>
       </c>
       <c r="C73" t="n">
         <v>21.3980639184935</v>
       </c>
       <c r="D73" t="n">
-        <v>-78276.7695323449</v>
+        <v>-76407.8782725827</v>
       </c>
     </row>
     <row r="74">
@@ -8025,13 +8329,13 @@
         <v>21</v>
       </c>
       <c r="B74" t="n">
-        <v>152711.896979598</v>
+        <v>151768.940888335</v>
       </c>
       <c r="C74" t="n">
         <v>21.5284115074761</v>
       </c>
       <c r="D74" t="n">
-        <v>-59122.2779624283</v>
+        <v>-60962.8828762365</v>
       </c>
     </row>
     <row r="75">
@@ -8039,13 +8343,13 @@
         <v>86</v>
       </c>
       <c r="B75" t="n">
-        <v>159380.45251418</v>
+        <v>159165.000658827</v>
       </c>
       <c r="C75" t="n">
         <v>24.3557291688173</v>
       </c>
       <c r="D75" t="n">
-        <v>-59122.2779624283</v>
+        <v>-60962.8828762365</v>
       </c>
     </row>
     <row r="76">
@@ -8053,13 +8357,13 @@
         <v>87</v>
       </c>
       <c r="B76" t="n">
-        <v>167392.110051559</v>
+        <v>168563.41525533</v>
       </c>
       <c r="C76" t="n">
         <v>28.755476456913</v>
       </c>
       <c r="D76" t="n">
-        <v>-59122.2779624283</v>
+        <v>-60962.8828762365</v>
       </c>
     </row>
     <row r="77">
@@ -8067,13 +8371,13 @@
         <v>88</v>
       </c>
       <c r="B77" t="n">
-        <v>156766.304369872</v>
+        <v>156756.929585431</v>
       </c>
       <c r="C77" t="n">
         <v>25.3603828667936</v>
       </c>
       <c r="D77" t="n">
-        <v>-59122.2779624283</v>
+        <v>-60962.8828762365</v>
       </c>
     </row>
     <row r="78">
@@ -8081,13 +8385,13 @@
         <v>22</v>
       </c>
       <c r="B78" t="n">
-        <v>155581.463805312</v>
+        <v>154146.125288619</v>
       </c>
       <c r="C78" t="n">
         <v>24.4972258124013</v>
       </c>
       <c r="D78" t="n">
-        <v>-26352.4657123722</v>
+        <v>-34710.3156417797</v>
       </c>
     </row>
     <row r="79">
@@ -8095,13 +8399,13 @@
         <v>89</v>
       </c>
       <c r="B79" t="n">
-        <v>154361.692486778</v>
+        <v>153341.147115003</v>
       </c>
       <c r="C79" t="n">
         <v>25.5389053830664</v>
       </c>
       <c r="D79" t="n">
-        <v>-26352.4657123722</v>
+        <v>-34710.3156417797</v>
       </c>
     </row>
     <row r="80">
@@ -8109,13 +8413,13 @@
         <v>90</v>
       </c>
       <c r="B80" t="n">
-        <v>169404.063652045</v>
+        <v>171058.633829217</v>
       </c>
       <c r="C80" t="n">
         <v>33.2888747575769</v>
       </c>
       <c r="D80" t="n">
-        <v>-26352.4657123722</v>
+        <v>-34710.3156417797</v>
       </c>
     </row>
     <row r="81">
@@ -8123,13 +8427,13 @@
         <v>91</v>
       </c>
       <c r="B81" t="n">
-        <v>164883.604418854</v>
+        <v>165688.186770079</v>
       </c>
       <c r="C81" t="n">
         <v>30.9517025707518</v>
       </c>
       <c r="D81" t="n">
-        <v>-26352.4657123722</v>
+        <v>-34710.3156417797</v>
       </c>
     </row>
     <row r="82">
@@ -8137,13 +8441,13 @@
         <v>23</v>
       </c>
       <c r="B82" t="n">
-        <v>156081.985439723</v>
+        <v>154774.200064844</v>
       </c>
       <c r="C82" t="n">
         <v>27.636854645233</v>
       </c>
       <c r="D82" t="n">
-        <v>-48820.955118105</v>
+        <v>-62096.6208353809</v>
       </c>
     </row>
     <row r="83">
@@ -8151,13 +8455,13 @@
         <v>92</v>
       </c>
       <c r="B83" t="n">
-        <v>162081.790579911</v>
+        <v>161293.133083002</v>
       </c>
       <c r="C83" t="n">
         <v>29.4209786667658</v>
       </c>
       <c r="D83" t="n">
-        <v>-48820.955118105</v>
+        <v>-62096.6208353809</v>
       </c>
     </row>
     <row r="84">
@@ -8165,13 +8469,13 @@
         <v>93</v>
       </c>
       <c r="B84" t="n">
-        <v>181242.791473604</v>
+        <v>183134.739414571</v>
       </c>
       <c r="C84" t="n">
         <v>37.4802310744798</v>
       </c>
       <c r="D84" t="n">
-        <v>-48820.955118105</v>
+        <v>-62096.6208353809</v>
       </c>
     </row>
     <row r="85">
@@ -8179,13 +8483,13 @@
         <v>94</v>
       </c>
       <c r="B85" t="n">
-        <v>173162.878925141</v>
+        <v>173372.31583749</v>
       </c>
       <c r="C85" t="n">
         <v>32.873331599036</v>
       </c>
       <c r="D85" t="n">
-        <v>-48820.955118105</v>
+        <v>-62096.6208353809</v>
       </c>
     </row>
     <row r="86">
@@ -8193,13 +8497,13 @@
         <v>24</v>
       </c>
       <c r="B86" t="n">
-        <v>166791.303572486</v>
+        <v>164790.230738632</v>
       </c>
       <c r="C86" t="n">
         <v>29.144592226769</v>
       </c>
       <c r="D86" t="n">
-        <v>-48501.5710733322</v>
+        <v>-66301.6671423443</v>
       </c>
     </row>
     <row r="87">
@@ -8207,13 +8511,13 @@
         <v>95</v>
       </c>
       <c r="B87" t="n">
-        <v>170922.404853751</v>
+        <v>169668.199981168</v>
       </c>
       <c r="C87" t="n">
         <v>30.8499846528446</v>
       </c>
       <c r="D87" t="n">
-        <v>-48501.5710733322</v>
+        <v>-66301.6671423443</v>
       </c>
     </row>
     <row r="88">
@@ -8221,13 +8525,13 @@
         <v>96</v>
       </c>
       <c r="B88" t="n">
-        <v>188493.265335611</v>
+        <v>190577.681894916</v>
       </c>
       <c r="C88" t="n">
         <v>39.3388197693384</v>
       </c>
       <c r="D88" t="n">
-        <v>-48501.5710733322</v>
+        <v>-66301.6671423443</v>
       </c>
     </row>
     <row r="89">
@@ -8235,13 +8539,13 @@
         <v>97</v>
       </c>
       <c r="B89" t="n">
-        <v>177159.355434366</v>
+        <v>178335.868641086</v>
       </c>
       <c r="C89" t="n">
         <v>34.7591735384759</v>
       </c>
       <c r="D89" t="n">
-        <v>-48501.5710733322</v>
+        <v>-66301.6671423443</v>
       </c>
     </row>
     <row r="90">
@@ -8249,13 +8553,13 @@
         <v>25</v>
       </c>
       <c r="B90" t="n">
-        <v>170394.435621564</v>
+        <v>170886.719237486</v>
       </c>
       <c r="C90" t="n">
         <v>31.3717879367229</v>
       </c>
       <c r="D90" t="n">
-        <v>-31955.720884264</v>
+        <v>-52057.2426577305</v>
       </c>
     </row>
     <row r="91">
@@ -8263,13 +8567,13 @@
         <v>98</v>
       </c>
       <c r="B91" t="n">
-        <v>173189.061742636</v>
+        <v>174527.750566706</v>
       </c>
       <c r="C91" t="n">
         <v>32.2063153200398</v>
       </c>
       <c r="D91" t="n">
-        <v>-31955.720884264</v>
+        <v>-52057.2426577305</v>
       </c>
     </row>
     <row r="92">
@@ -8277,13 +8581,13 @@
         <v>99</v>
       </c>
       <c r="B92" t="n">
-        <v>195182.122086244</v>
+        <v>190695.090669521</v>
       </c>
       <c r="C92" t="n">
-        <v>40.3492544585895</v>
+        <v>36.787643426648</v>
       </c>
       <c r="D92" t="n">
-        <v>-31955.720884264</v>
+        <v>-52057.2426577305</v>
       </c>
     </row>
     <row r="93">
@@ -8291,13 +8595,13 @@
         <v>100</v>
       </c>
       <c r="B93" t="n">
-        <v>194110.119116314</v>
+        <v>196771.543981464</v>
       </c>
       <c r="C93" t="n">
         <v>35.986670685832</v>
       </c>
       <c r="D93" t="n">
-        <v>-31955.720884264</v>
+        <v>-52057.2426577305</v>
       </c>
     </row>
     <row r="94">
@@ -8305,13 +8609,13 @@
         <v>26</v>
       </c>
       <c r="B94" t="n">
-        <v>188796.699683586</v>
+        <v>188869.689001519</v>
       </c>
       <c r="C94" t="n">
         <v>26.4635887017408</v>
       </c>
       <c r="D94" t="n">
-        <v>-14861.6029047477</v>
+        <v>-28144.5775385576</v>
       </c>
     </row>
     <row r="95">
@@ -8319,13 +8623,13 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>166822.711333371</v>
+        <v>175992.165825522</v>
       </c>
       <c r="C95" t="n">
-        <v>11.9976215350184</v>
+        <v>17.8435845441047</v>
       </c>
       <c r="D95" t="n">
-        <v>-14861.6029047477</v>
+        <v>-28144.5775385576</v>
       </c>
     </row>
     <row r="96">
@@ -8333,13 +8637,13 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>172744.173547887</v>
+        <v>167161.152223936</v>
       </c>
       <c r="C96" t="n">
         <v>11.9976215350184</v>
       </c>
       <c r="D96" t="n">
-        <v>-14861.6029047477</v>
+        <v>-28144.5775385576</v>
       </c>
     </row>
     <row r="97">
@@ -8347,13 +8651,13 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>188472.149666355</v>
+        <v>184816.328478578</v>
       </c>
       <c r="C97" t="n">
         <v>17.9831497868604</v>
       </c>
       <c r="D97" t="n">
-        <v>-14861.6029047477</v>
+        <v>-28144.5775385576</v>
       </c>
     </row>
     <row r="98">
@@ -8361,13 +8665,13 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>181563.799373032</v>
+        <v>164845.795255706</v>
       </c>
       <c r="C98" t="n">
-        <v>21.9370460001782</v>
+        <v>15.2756073524797</v>
       </c>
       <c r="D98" t="n">
-        <v>121551.676008589</v>
+        <v>28885.4723227934</v>
       </c>
     </row>
     <row r="99">
@@ -8375,13 +8679,13 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>175230.258106554</v>
+        <v>157905.042825139</v>
       </c>
       <c r="C99" t="n">
-        <v>18.9677609154615</v>
+        <v>12.6506279695657</v>
       </c>
       <c r="D99" t="n">
-        <v>121551.676008589</v>
+        <v>28289.3994367473</v>
       </c>
     </row>
     <row r="100">
@@ -8389,13 +8693,13 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>180649.738554617</v>
+        <v>155894.356759875</v>
       </c>
       <c r="C100" t="n">
-        <v>21.5085168345107</v>
+        <v>12.1921523125153</v>
       </c>
       <c r="D100" t="n">
-        <v>121551.676008589</v>
+        <v>27097.2536646551</v>
       </c>
     </row>
     <row r="101">
@@ -8403,13 +8707,13 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>178237.488223384</v>
+        <v>163898.948418348</v>
       </c>
       <c r="C101" t="n">
-        <v>20.3776078173006</v>
+        <v>15.9527518801853</v>
       </c>
       <c r="D101" t="n">
-        <v>121551.676008589</v>
+        <v>25309.0350065169</v>
       </c>
     </row>
     <row r="102">
@@ -8417,13 +8721,13 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>176512.052210574</v>
+        <v>157450.500038102</v>
       </c>
       <c r="C102" t="n">
-        <v>19.5686904672885</v>
+        <v>14.0561465881895</v>
       </c>
       <c r="D102" t="n">
-        <v>121551.676008589</v>
+        <v>22924.7434623325</v>
       </c>
     </row>
     <row r="103">
@@ -8431,13 +8735,13 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>171185.167099103</v>
+        <v>153586.301644751</v>
       </c>
       <c r="C103" t="n">
-        <v>17.0713450101418</v>
+        <v>13.1131964308093</v>
       </c>
       <c r="D103" t="n">
-        <v>121551.676008589</v>
+        <v>20842.4135060663</v>
       </c>
     </row>
     <row r="104">
@@ -8445,13 +8749,13 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>181261.873185356</v>
+        <v>156060.771871137</v>
       </c>
       <c r="C104" t="n">
-        <v>21.7954972381142</v>
+        <v>14.6393178061786</v>
       </c>
       <c r="D104" t="n">
-        <v>121551.676008589</v>
+        <v>19062.0451377182</v>
       </c>
     </row>
     <row r="105">
@@ -8459,13 +8763,13 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>180742.555339065</v>
+        <v>159572.338760509</v>
       </c>
       <c r="C105" t="n">
-        <v>21.5520311153969</v>
+        <v>16.4946084112166</v>
       </c>
       <c r="D105" t="n">
-        <v>121551.676008589</v>
+        <v>17583.6383572882</v>
       </c>
     </row>
     <row r="106">
@@ -8473,13 +8777,13 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>177982.548128454</v>
+        <v>153984.040678372</v>
       </c>
       <c r="C106" t="n">
-        <v>20.2580870327154</v>
+        <v>14.5874313267489</v>
       </c>
       <c r="D106" t="n">
-        <v>121551.676008589</v>
+        <v>16407.1931647763</v>
       </c>
     </row>
     <row r="107">
@@ -8487,13 +8791,13 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>171279.06968485</v>
+        <v>152321.759316379</v>
       </c>
       <c r="C107" t="n">
-        <v>17.1153683354102</v>
+        <v>14.2519471796209</v>
       </c>
       <c r="D107" t="n">
-        <v>121551.676008589</v>
+        <v>15274.5923902716</v>
       </c>
     </row>
     <row r="108">
@@ -8501,13 +8805,13 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>181030.093971354</v>
+        <v>157451.959344258</v>
       </c>
       <c r="C108" t="n">
-        <v>21.6868347167652</v>
+        <v>16.6451626837838</v>
       </c>
       <c r="D108" t="n">
-        <v>121551.676008589</v>
+        <v>14185.8360337741</v>
       </c>
     </row>
     <row r="109">
@@ -8515,13 +8819,13 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>180873.124130146</v>
+        <v>158228.718638604</v>
       </c>
       <c r="C109" t="n">
-        <v>21.6132442578673</v>
+        <v>17.2681887141987</v>
       </c>
       <c r="D109" t="n">
-        <v>121551.676008589</v>
+        <v>13140.9240952838</v>
       </c>
     </row>
     <row r="110">
@@ -8529,13 +8833,13 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>178396.614844785</v>
+        <v>152442.501290711</v>
       </c>
       <c r="C110" t="n">
-        <v>20.4522094159365</v>
+        <v>15.2291782831507</v>
       </c>
       <c r="D110" t="n">
-        <v>121551.676008589</v>
+        <v>12139.8565748007</v>
       </c>
     </row>
     <row r="111">
@@ -8543,13 +8847,13 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>171654.75064488</v>
+        <v>151540.37131427</v>
       </c>
       <c r="C111" t="n">
-        <v>17.2914947431013</v>
+        <v>15.1393845940315</v>
       </c>
       <c r="D111" t="n">
-        <v>121551.676008589</v>
+        <v>11213.6516761579</v>
       </c>
     </row>
     <row r="112">
@@ -8557,13 +8861,13 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>181239.447058848</v>
+        <v>157872.287310263</v>
       </c>
       <c r="C112" t="n">
-        <v>21.7849834417803</v>
+        <v>17.9473342090395</v>
       </c>
       <c r="D112" t="n">
-        <v>121551.676008589</v>
+        <v>10362.3093993554</v>
       </c>
     </row>
     <row r="113">
@@ -8571,13 +8875,13 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>180988.289260334</v>
+        <v>157024.870907898</v>
       </c>
       <c r="C113" t="n">
-        <v>21.6672358699778</v>
+        <v>17.8352768792962</v>
       </c>
       <c r="D113" t="n">
-        <v>121551.676008589</v>
+        <v>9585.82974439322</v>
       </c>
     </row>
     <row r="114">
@@ -8585,13 +8889,13 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>178511.124628417</v>
+        <v>151186.549285392</v>
       </c>
       <c r="C114" t="n">
-        <v>20.5058937890681</v>
+        <v>15.6865393609027</v>
       </c>
       <c r="D114" t="n">
-        <v>121551.676008589</v>
+        <v>8884.21271127138</v>
       </c>
     </row>
     <row r="115">
@@ -8599,13 +8903,13 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>171789.386074168</v>
+        <v>150754.580179108</v>
       </c>
       <c r="C115" t="n">
-        <v>17.3546144032154</v>
+        <v>15.7067139918337</v>
       </c>
       <c r="D115" t="n">
-        <v>121551.676008589</v>
+        <v>8227.44203851576</v>
       </c>
     </row>
     <row r="116">
@@ -8613,13 +8917,13 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>181368.394434915</v>
+        <v>157785.20859432</v>
       </c>
       <c r="C116" t="n">
-        <v>21.8454364339311</v>
+        <v>18.7257741193119</v>
       </c>
       <c r="D116" t="n">
-        <v>121551.676008589</v>
+        <v>7615.51772612638</v>
       </c>
     </row>
     <row r="117">
@@ -8627,13 +8931,237 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>181091.798138481</v>
+        <v>156042.742292129</v>
       </c>
       <c r="C117" t="n">
-        <v>21.7157628085555</v>
+        <v>18.1904190435525</v>
       </c>
       <c r="D117" t="n">
-        <v>121551.676008589</v>
+        <v>7048.43977410323</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" t="n">
+        <v>150158.678819969</v>
+      </c>
+      <c r="C118" t="n">
+        <v>15.9700852919331</v>
+      </c>
+      <c r="D118" t="n">
+        <v>6526.20818244631</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" t="n">
+        <v>149983.197014824</v>
+      </c>
+      <c r="C119" t="n">
+        <v>16.0436850239177</v>
+      </c>
+      <c r="D119" t="n">
+        <v>6038.59005712164</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" t="n">
+        <v>157407.302860917</v>
+      </c>
+      <c r="C120" t="n">
+        <v>19.1744952625836</v>
+      </c>
+      <c r="D120" t="n">
+        <v>5585.58539812919</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" t="n">
+        <v>155180.224679842</v>
+      </c>
+      <c r="C121" t="n">
+        <v>18.3994932769956</v>
+      </c>
+      <c r="D121" t="n">
+        <v>5167.19420546898</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" t="n">
+        <v>149291.499218683</v>
+      </c>
+      <c r="C122" t="n">
+        <v>16.1362683376629</v>
+      </c>
+      <c r="D122" t="n">
+        <v>4783.41647914101</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" t="n">
+        <v>149280.816342012</v>
+      </c>
+      <c r="C123" t="n">
+        <v>16.2373390372835</v>
+      </c>
+      <c r="D123" t="n">
+        <v>4427.62915201597</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" t="n">
+        <v>156946.725321257</v>
+      </c>
+      <c r="C124" t="n">
+        <v>19.4286635934448</v>
+      </c>
+      <c r="D124" t="n">
+        <v>4099.83222409388</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" t="n">
+        <v>154473.389627164</v>
+      </c>
+      <c r="C125" t="n">
+        <v>18.5191390783217</v>
+      </c>
+      <c r="D125" t="n">
+        <v>3800.02569537473</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" t="n">
+        <v>148605.509593239</v>
+      </c>
+      <c r="C126" t="n">
+        <v>16.2311655451447</v>
+      </c>
+      <c r="D126" t="n">
+        <v>3528.20956585852</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" t="n">
+        <v>148698.148077078</v>
+      </c>
+      <c r="C127" t="n">
+        <v>16.3468653718853</v>
+      </c>
+      <c r="D127" t="n">
+        <v>3263.83150769335</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128" t="n">
+        <v>156498.266443455</v>
+      </c>
+      <c r="C128" t="n">
+        <v>19.5713740689872</v>
+      </c>
+      <c r="D128" t="n">
+        <v>3006.89152087921</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" t="n">
+        <v>153875.578257397</v>
+      </c>
+      <c r="C129" t="n">
+        <v>18.5866655841363</v>
+      </c>
+      <c r="D129" t="n">
+        <v>2757.3896054161</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" t="n">
+        <v>147994.783901457</v>
+      </c>
+      <c r="C130" t="n">
+        <v>16.2846668730709</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2515.32576130403</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" t="n">
+        <v>148167.897288389</v>
+      </c>
+      <c r="C131" t="n">
+        <v>16.4083152781304</v>
+      </c>
+      <c r="D131" t="n">
+        <v>2333.77787821998</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" t="n">
+        <v>156113.137114216</v>
+      </c>
+      <c r="C132" t="n">
+        <v>19.6511447501525</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2212.74595616395</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" t="n">
+        <v>153525.260871814</v>
+      </c>
+      <c r="C133" t="n">
+        <v>18.624510766531</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2152.22999513593</v>
       </c>
     </row>
   </sheetData>
@@ -8655,7 +9183,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2">
@@ -8663,7 +9191,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>188374.156434148</v>
+        <v>187325.501040695</v>
       </c>
     </row>
     <row r="3">
@@ -8671,7 +9199,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>183026.826311714</v>
+        <v>182166.690923971</v>
       </c>
     </row>
     <row r="4">
@@ -8679,7 +9207,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>181889.722039569</v>
+        <v>182950.089958803</v>
       </c>
     </row>
     <row r="5">
@@ -8687,7 +9215,7 @@
         <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>161033.203015147</v>
+        <v>161881.625877109</v>
       </c>
     </row>
     <row r="6">
@@ -8695,7 +9223,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>139345.289848405</v>
+        <v>139188.957166462</v>
       </c>
     </row>
     <row r="7">
@@ -8703,7 +9231,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>128102.021777327</v>
+        <v>127944.778255948</v>
       </c>
     </row>
     <row r="8">
@@ -8711,7 +9239,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>136928.017304439</v>
+        <v>137617.385555858</v>
       </c>
     </row>
     <row r="9">
@@ -8719,7 +9247,7 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>148711.958209845</v>
+        <v>148332.12975136</v>
       </c>
     </row>
     <row r="10">
@@ -8727,7 +9255,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>154384.234561573</v>
+        <v>154509.291810096</v>
       </c>
     </row>
     <row r="11">
@@ -8735,7 +9263,7 @@
         <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>170821.397514918</v>
+        <v>170282.077057899</v>
       </c>
     </row>
     <row r="12">
@@ -8743,7 +9271,7 @@
         <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>184950.885318997</v>
+        <v>185421.372265971</v>
       </c>
     </row>
     <row r="13">
@@ -8751,7 +9279,7 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>176892.007326158</v>
+        <v>176835.92580302</v>
       </c>
     </row>
     <row r="14">
@@ -8759,7 +9287,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>182590.580735989</v>
+        <v>182159.926459208</v>
       </c>
     </row>
     <row r="15">
@@ -8767,7 +9295,7 @@
         <v>41</v>
       </c>
       <c r="B15" t="n">
-        <v>173832.704897972</v>
+        <v>173971.485202</v>
       </c>
     </row>
     <row r="16">
@@ -8775,7 +9303,7 @@
         <v>42</v>
       </c>
       <c r="B16" t="n">
-        <v>171581.830770037</v>
+        <v>172502.900965226</v>
       </c>
     </row>
     <row r="17">
@@ -8783,7 +9311,7 @@
         <v>43</v>
       </c>
       <c r="B17" t="n">
-        <v>160055.441444316</v>
+        <v>159422.915758222</v>
       </c>
     </row>
     <row r="18">
@@ -8791,7 +9319,7 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>161348.475045366</v>
+        <v>160363.117071211</v>
       </c>
     </row>
     <row r="19">
@@ -8799,7 +9327,7 @@
         <v>44</v>
       </c>
       <c r="B19" t="n">
-        <v>168088.604041667</v>
+        <v>168245.199942866</v>
       </c>
     </row>
     <row r="20">
@@ -8807,7 +9335,7 @@
         <v>45</v>
       </c>
       <c r="B20" t="n">
-        <v>173258.090537886</v>
+        <v>174886.628423242</v>
       </c>
     </row>
     <row r="21">
@@ -8815,7 +9343,7 @@
         <v>46</v>
       </c>
       <c r="B21" t="n">
-        <v>150641.301942031</v>
+        <v>149838.170160007</v>
       </c>
     </row>
     <row r="22">
@@ -8823,7 +9351,7 @@
         <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>136984.300432364</v>
+        <v>136847.233685462</v>
       </c>
     </row>
     <row r="23">
@@ -8831,7 +9359,7 @@
         <v>47</v>
       </c>
       <c r="B23" t="n">
-        <v>131524.429297659</v>
+        <v>131682.755480765</v>
       </c>
     </row>
     <row r="24">
@@ -8839,7 +9367,7 @@
         <v>48</v>
       </c>
       <c r="B24" t="n">
-        <v>134361.412562371</v>
+        <v>135527.736700603</v>
       </c>
     </row>
     <row r="25">
@@ -8847,7 +9375,7 @@
         <v>49</v>
       </c>
       <c r="B25" t="n">
-        <v>120249.532780728</v>
+        <v>119059.493114102</v>
       </c>
     </row>
     <row r="26">
@@ -8855,7 +9383,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>101881.400747261</v>
+        <v>101022.44823373</v>
       </c>
     </row>
     <row r="27">
@@ -8863,7 +9391,7 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>109182.459207048</v>
+        <v>108939.709179107</v>
       </c>
     </row>
     <row r="28">
@@ -8871,7 +9399,7 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>118019.701453674</v>
+        <v>118783.06066142</v>
       </c>
     </row>
     <row r="29">
@@ -8879,7 +9407,7 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>117122.480360169</v>
+        <v>117461.742733297</v>
       </c>
     </row>
     <row r="30">
@@ -8887,7 +9415,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>101947.239029934</v>
+        <v>102062.625722638</v>
       </c>
     </row>
     <row r="31">
@@ -8895,7 +9423,7 @@
         <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>101981.932652614</v>
+        <v>101804.202936481</v>
       </c>
     </row>
     <row r="32">
@@ -8903,7 +9431,7 @@
         <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>111594.178594178</v>
+        <v>112508.682949705</v>
       </c>
     </row>
     <row r="33">
@@ -8911,7 +9439,7 @@
         <v>55</v>
       </c>
       <c r="B33" t="n">
-        <v>104520.430403626</v>
+        <v>103671.181873794</v>
       </c>
     </row>
     <row r="34">
@@ -8919,7 +9447,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="n">
-        <v>107353.167633781</v>
+        <v>106982.909558397</v>
       </c>
     </row>
     <row r="35">
@@ -8927,7 +9455,7 @@
         <v>56</v>
       </c>
       <c r="B35" t="n">
-        <v>111508.979073367</v>
+        <v>111419.283757722</v>
       </c>
     </row>
     <row r="36">
@@ -8935,7 +9463,7 @@
         <v>57</v>
       </c>
       <c r="B36" t="n">
-        <v>115249.074378371</v>
+        <v>115764.987389511</v>
       </c>
     </row>
     <row r="37">
@@ -8943,7 +9471,7 @@
         <v>58</v>
       </c>
       <c r="B37" t="n">
-        <v>109291.626786598</v>
+        <v>109239.258298037</v>
       </c>
     </row>
     <row r="38">
@@ -8951,7 +9479,7 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>104967.238938347</v>
+        <v>104284.67343388</v>
       </c>
     </row>
     <row r="39">
@@ -8959,7 +9487,7 @@
         <v>59</v>
       </c>
       <c r="B39" t="n">
-        <v>105572.207387713</v>
+        <v>105436.973307587</v>
       </c>
     </row>
     <row r="40">
@@ -8967,7 +9495,7 @@
         <v>60</v>
       </c>
       <c r="B40" t="n">
-        <v>110795.577868629</v>
+        <v>111617.166395623</v>
       </c>
     </row>
     <row r="41">
@@ -8975,7 +9503,7 @@
         <v>61</v>
       </c>
       <c r="B41" t="n">
-        <v>107084.274035702</v>
+        <v>107083.470794323</v>
       </c>
     </row>
     <row r="42">
@@ -8983,7 +9511,7 @@
         <v>13</v>
       </c>
       <c r="B42" t="n">
-        <v>105802.891082605</v>
+        <v>105496.187922176</v>
       </c>
     </row>
     <row r="43">
@@ -8991,7 +9519,7 @@
         <v>62</v>
       </c>
       <c r="B43" t="n">
-        <v>109567.40674637</v>
+        <v>109290.764158247</v>
       </c>
     </row>
     <row r="44">
@@ -8999,7 +9527,7 @@
         <v>63</v>
       </c>
       <c r="B44" t="n">
-        <v>118073.475479811</v>
+        <v>118574.126358073</v>
       </c>
     </row>
     <row r="45">
@@ -9007,7 +9535,7 @@
         <v>64</v>
       </c>
       <c r="B45" t="n">
-        <v>119313.59624975</v>
+        <v>119399.665083673</v>
       </c>
     </row>
     <row r="46">
@@ -9015,7 +9543,7 @@
         <v>14</v>
       </c>
       <c r="B46" t="n">
-        <v>125540.745648572</v>
+        <v>125251.168638492</v>
       </c>
     </row>
     <row r="47">
@@ -9023,7 +9551,7 @@
         <v>65</v>
       </c>
       <c r="B47" t="n">
-        <v>127824.32961996</v>
+        <v>127540.663418389</v>
       </c>
     </row>
     <row r="48">
@@ -9031,7 +9559,7 @@
         <v>66</v>
       </c>
       <c r="B48" t="n">
-        <v>133883.440561286</v>
+        <v>134485.870130382</v>
       </c>
     </row>
     <row r="49">
@@ -9039,7 +9567,7 @@
         <v>67</v>
       </c>
       <c r="B49" t="n">
-        <v>128886.619329543</v>
+        <v>128860.176218591</v>
       </c>
     </row>
     <row r="50">
@@ -9047,7 +9575,7 @@
         <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>133331.706600898</v>
+        <v>132523.780012984</v>
       </c>
     </row>
     <row r="51">
@@ -9055,7 +9583,7 @@
         <v>68</v>
       </c>
       <c r="B51" t="n">
-        <v>134029.028029266</v>
+        <v>133607.370887327</v>
       </c>
     </row>
     <row r="52">
@@ -9063,7 +9591,7 @@
         <v>69</v>
       </c>
       <c r="B52" t="n">
-        <v>140485.004499915</v>
+        <v>141204.707379581</v>
       </c>
     </row>
     <row r="53">
@@ -9071,7 +9599,7 @@
         <v>70</v>
       </c>
       <c r="B53" t="n">
-        <v>139663.821395655</v>
+        <v>140174.80264581</v>
       </c>
     </row>
     <row r="54">
@@ -9079,7 +9607,7 @@
         <v>16</v>
       </c>
       <c r="B54" t="n">
-        <v>139332.885467182</v>
+        <v>138575.010579324</v>
       </c>
     </row>
     <row r="55">
@@ -9087,7 +9615,7 @@
         <v>71</v>
       </c>
       <c r="B55" t="n">
-        <v>139613.645637684</v>
+        <v>139399.697476369</v>
       </c>
     </row>
     <row r="56">
@@ -9095,7 +9623,7 @@
         <v>72</v>
       </c>
       <c r="B56" t="n">
-        <v>140730.550401355</v>
+        <v>141945.13592618</v>
       </c>
     </row>
     <row r="57">
@@ -9103,7 +9631,7 @@
         <v>73</v>
       </c>
       <c r="B57" t="n">
-        <v>119337.456916339</v>
+        <v>119094.981303925</v>
       </c>
     </row>
     <row r="58">
@@ -9111,7 +9639,7 @@
         <v>17</v>
       </c>
       <c r="B58" t="n">
-        <v>94938.6805105347</v>
+        <v>93764.3162605072</v>
       </c>
     </row>
     <row r="59">
@@ -9119,7 +9647,7 @@
         <v>74</v>
       </c>
       <c r="B59" t="n">
-        <v>91324.3982781264</v>
+        <v>90762.9307143411</v>
       </c>
     </row>
     <row r="60">
@@ -9127,7 +9655,7 @@
         <v>75</v>
       </c>
       <c r="B60" t="n">
-        <v>103207.650684766</v>
+        <v>104211.054247565</v>
       </c>
     </row>
     <row r="61">
@@ -9135,7 +9663,7 @@
         <v>76</v>
       </c>
       <c r="B61" t="n">
-        <v>113328.611585971</v>
+        <v>114061.546864985</v>
       </c>
     </row>
     <row r="62">
@@ -9143,7 +9671,7 @@
         <v>18</v>
       </c>
       <c r="B62" t="n">
-        <v>103827.823422509</v>
+        <v>103757.144650378</v>
       </c>
     </row>
     <row r="63">
@@ -9151,7 +9679,7 @@
         <v>77</v>
       </c>
       <c r="B63" t="n">
-        <v>116343.914452941</v>
+        <v>115950.046649928</v>
       </c>
     </row>
     <row r="64">
@@ -9159,7 +9687,7 @@
         <v>78</v>
       </c>
       <c r="B64" t="n">
-        <v>128679.570220629</v>
+        <v>129044.605375443</v>
       </c>
     </row>
     <row r="65">
@@ -9167,7 +9695,7 @@
         <v>79</v>
       </c>
       <c r="B65" t="n">
-        <v>127815.641740219</v>
+        <v>127919.190971391</v>
       </c>
     </row>
     <row r="66">
@@ -9175,7 +9703,7 @@
         <v>19</v>
       </c>
       <c r="B66" t="n">
-        <v>125443.198540686</v>
+        <v>123913.24582569</v>
       </c>
     </row>
     <row r="67">
@@ -9183,7 +9711,7 @@
         <v>80</v>
       </c>
       <c r="B67" t="n">
-        <v>126683.667290236</v>
+        <v>126051.515333313</v>
       </c>
     </row>
     <row r="68">
@@ -9191,7 +9719,7 @@
         <v>81</v>
       </c>
       <c r="B68" t="n">
-        <v>135185.686790897</v>
+        <v>136332.227588642</v>
       </c>
     </row>
     <row r="69">
@@ -9199,7 +9727,7 @@
         <v>82</v>
       </c>
       <c r="B69" t="n">
-        <v>133691.192464436</v>
+        <v>134710.288640573</v>
       </c>
     </row>
     <row r="70">
@@ -9207,7 +9735,7 @@
         <v>20</v>
       </c>
       <c r="B70" t="n">
-        <v>132845.453355532</v>
+        <v>132215.244966096</v>
       </c>
     </row>
     <row r="71">
@@ -9215,7 +9743,7 @@
         <v>83</v>
       </c>
       <c r="B71" t="n">
-        <v>137982.080019433</v>
+        <v>137850.039786166</v>
       </c>
     </row>
     <row r="72">
@@ -9223,7 +9751,7 @@
         <v>84</v>
       </c>
       <c r="B72" t="n">
-        <v>146051.044668782</v>
+        <v>146737.249798979</v>
       </c>
     </row>
     <row r="73">
@@ -9231,7 +9759,7 @@
         <v>85</v>
       </c>
       <c r="B73" t="n">
-        <v>146248.074286687</v>
+        <v>146327.804585008</v>
       </c>
     </row>
     <row r="74">
@@ -9239,7 +9767,7 @@
         <v>21</v>
       </c>
       <c r="B74" t="n">
-        <v>152711.896979598</v>
+        <v>151768.940888335</v>
       </c>
     </row>
     <row r="75">
@@ -9247,7 +9775,7 @@
         <v>86</v>
       </c>
       <c r="B75" t="n">
-        <v>159380.45251418</v>
+        <v>159165.000658827</v>
       </c>
     </row>
     <row r="76">
@@ -9255,7 +9783,7 @@
         <v>87</v>
       </c>
       <c r="B76" t="n">
-        <v>167392.110051559</v>
+        <v>168563.41525533</v>
       </c>
     </row>
     <row r="77">
@@ -9263,7 +9791,7 @@
         <v>88</v>
       </c>
       <c r="B77" t="n">
-        <v>156766.304369872</v>
+        <v>156756.929585431</v>
       </c>
     </row>
     <row r="78">
@@ -9271,7 +9799,7 @@
         <v>22</v>
       </c>
       <c r="B78" t="n">
-        <v>155581.463805312</v>
+        <v>154146.125288619</v>
       </c>
     </row>
     <row r="79">
@@ -9279,7 +9807,7 @@
         <v>89</v>
       </c>
       <c r="B79" t="n">
-        <v>154361.692486778</v>
+        <v>153341.147115003</v>
       </c>
     </row>
     <row r="80">
@@ -9287,7 +9815,7 @@
         <v>90</v>
       </c>
       <c r="B80" t="n">
-        <v>169404.063652045</v>
+        <v>171058.633829217</v>
       </c>
     </row>
     <row r="81">
@@ -9295,7 +9823,7 @@
         <v>91</v>
       </c>
       <c r="B81" t="n">
-        <v>164883.604418854</v>
+        <v>165688.186770079</v>
       </c>
     </row>
     <row r="82">
@@ -9303,7 +9831,7 @@
         <v>23</v>
       </c>
       <c r="B82" t="n">
-        <v>156081.985439723</v>
+        <v>154774.200064844</v>
       </c>
     </row>
     <row r="83">
@@ -9311,7 +9839,7 @@
         <v>92</v>
       </c>
       <c r="B83" t="n">
-        <v>162081.790579911</v>
+        <v>161293.133083002</v>
       </c>
     </row>
     <row r="84">
@@ -9319,7 +9847,7 @@
         <v>93</v>
       </c>
       <c r="B84" t="n">
-        <v>181242.791473604</v>
+        <v>183134.739414571</v>
       </c>
     </row>
     <row r="85">
@@ -9327,7 +9855,7 @@
         <v>94</v>
       </c>
       <c r="B85" t="n">
-        <v>173162.878925141</v>
+        <v>173372.31583749</v>
       </c>
     </row>
     <row r="86">
@@ -9335,7 +9863,7 @@
         <v>24</v>
       </c>
       <c r="B86" t="n">
-        <v>166791.303572486</v>
+        <v>164790.230738632</v>
       </c>
     </row>
     <row r="87">
@@ -9343,7 +9871,7 @@
         <v>95</v>
       </c>
       <c r="B87" t="n">
-        <v>170922.404853751</v>
+        <v>169668.199981168</v>
       </c>
     </row>
     <row r="88">
@@ -9351,7 +9879,7 @@
         <v>96</v>
       </c>
       <c r="B88" t="n">
-        <v>188493.265335611</v>
+        <v>190577.681894916</v>
       </c>
     </row>
     <row r="89">
@@ -9359,7 +9887,7 @@
         <v>97</v>
       </c>
       <c r="B89" t="n">
-        <v>177159.355434366</v>
+        <v>178335.868641086</v>
       </c>
     </row>
     <row r="90">
@@ -9367,7 +9895,7 @@
         <v>25</v>
       </c>
       <c r="B90" t="n">
-        <v>170394.435621564</v>
+        <v>170886.719237486</v>
       </c>
     </row>
     <row r="91">
@@ -9375,7 +9903,7 @@
         <v>98</v>
       </c>
       <c r="B91" t="n">
-        <v>173189.061742636</v>
+        <v>174527.750566706</v>
       </c>
     </row>
     <row r="92">
@@ -9383,7 +9911,7 @@
         <v>99</v>
       </c>
       <c r="B92" t="n">
-        <v>195182.122086244</v>
+        <v>190695.090669521</v>
       </c>
     </row>
     <row r="93">
@@ -9391,7 +9919,7 @@
         <v>100</v>
       </c>
       <c r="B93" t="n">
-        <v>194110.119116314</v>
+        <v>196771.543981464</v>
       </c>
     </row>
     <row r="94">
@@ -9399,7 +9927,7 @@
         <v>26</v>
       </c>
       <c r="B94" t="n">
-        <v>188796.699683586</v>
+        <v>188869.689001519</v>
       </c>
     </row>
     <row r="95">
@@ -9407,7 +9935,7 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>166822.711333371</v>
+        <v>175992.165825522</v>
       </c>
     </row>
     <row r="96">
@@ -9415,7 +9943,7 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>172744.173547887</v>
+        <v>167161.152223936</v>
       </c>
     </row>
     <row r="97">
@@ -9423,7 +9951,7 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>188472.149666355</v>
+        <v>184816.328478578</v>
       </c>
     </row>
     <row r="98">
@@ -9431,7 +9959,7 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>181563.799373032</v>
+        <v>164845.795255706</v>
       </c>
     </row>
     <row r="99">
@@ -9439,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>175230.258106554</v>
+        <v>157905.042825139</v>
       </c>
     </row>
     <row r="100">
@@ -9447,7 +9975,7 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>180649.738554617</v>
+        <v>155894.356759875</v>
       </c>
     </row>
     <row r="101">
@@ -9455,7 +9983,7 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>178237.488223384</v>
+        <v>163898.948418348</v>
       </c>
     </row>
     <row r="102">
@@ -9463,7 +9991,7 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>176512.052210574</v>
+        <v>157450.500038102</v>
       </c>
     </row>
     <row r="103">
@@ -9471,7 +9999,7 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>171185.167099103</v>
+        <v>153586.301644751</v>
       </c>
     </row>
     <row r="104">
@@ -9479,7 +10007,7 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>181261.873185356</v>
+        <v>156060.771871137</v>
       </c>
     </row>
     <row r="105">
@@ -9487,7 +10015,7 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>180742.555339065</v>
+        <v>159572.338760509</v>
       </c>
     </row>
     <row r="106">
@@ -9495,7 +10023,7 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>177982.548128454</v>
+        <v>153984.040678372</v>
       </c>
     </row>
     <row r="107">
@@ -9503,7 +10031,7 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>171279.06968485</v>
+        <v>152321.759316379</v>
       </c>
     </row>
     <row r="108">
@@ -9511,7 +10039,7 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>181030.093971354</v>
+        <v>157451.959344258</v>
       </c>
     </row>
     <row r="109">
@@ -9519,7 +10047,7 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>180873.124130146</v>
+        <v>158228.718638604</v>
       </c>
     </row>
     <row r="110">
@@ -9527,7 +10055,7 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>178396.614844785</v>
+        <v>152442.501290711</v>
       </c>
     </row>
     <row r="111">
@@ -9535,7 +10063,7 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>171654.75064488</v>
+        <v>151540.37131427</v>
       </c>
     </row>
     <row r="112">
@@ -9543,7 +10071,7 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>181239.447058848</v>
+        <v>157872.287310263</v>
       </c>
     </row>
     <row r="113">
@@ -9551,7 +10079,7 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>180988.289260334</v>
+        <v>157024.870907898</v>
       </c>
     </row>
     <row r="114">
@@ -9559,7 +10087,7 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>178511.124628417</v>
+        <v>151186.549285392</v>
       </c>
     </row>
     <row r="115">
@@ -9567,7 +10095,7 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>171789.386074168</v>
+        <v>150754.580179108</v>
       </c>
     </row>
     <row r="116">
@@ -9575,7 +10103,7 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>181368.394434915</v>
+        <v>157785.20859432</v>
       </c>
     </row>
     <row r="117">
@@ -9583,7 +10111,135 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>181091.798138481</v>
+        <v>156042.742292129</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" t="n">
+        <v>150158.678819969</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" t="n">
+        <v>149983.197014824</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" t="n">
+        <v>157407.302860917</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" t="n">
+        <v>155180.224679842</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" t="n">
+        <v>149291.499218683</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" t="n">
+        <v>149280.816342012</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" t="n">
+        <v>156946.725321257</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" t="n">
+        <v>154473.389627164</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" t="n">
+        <v>148605.509593239</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" t="n">
+        <v>148698.148077078</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128" t="n">
+        <v>156498.266443455</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" t="n">
+        <v>153875.578257397</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" t="n">
+        <v>147994.783901457</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" t="n">
+        <v>148167.897288389</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" t="n">
+        <v>156113.137114216</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" t="n">
+        <v>153525.260871814</v>
       </c>
     </row>
   </sheetData>
